--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_取引単体(REST)_(取引ID)_(取引名).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_取引単体(REST)_(取引ID)_(取引名).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE465B5-C35D-44B9-B2E7-260FF8B09FD6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="17865" windowHeight="12900" tabRatio="445" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -17,12 +18,20 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">取引単体!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
   <si>
     <t>その他エラー</t>
     <rPh sb="2" eb="3">
@@ -31,13 +40,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>テストデータシート名</t>
-    <rPh sb="9" eb="10">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
       <t>ナイヨウ</t>
@@ -143,10 +145,6 @@
       <t>カショ</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>データNo</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>取引単体テスト</t>
@@ -776,11 +774,15 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>テストコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
@@ -912,7 +914,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1391,21 +1393,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="0"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1550,7 +1537,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -1629,9 +1616,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1682,9 +1666,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1726,183 +1707,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1949,9 +1753,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1964,35 +1765,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2001,16 +1799,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2025,17 +1823,194 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="パーセント 2" xfId="6"/>
+    <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="5"/>
-    <cellStyle name="標準 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="4"/>
-    <cellStyle name="標準_画面標準定義" xfId="7"/>
-    <cellStyle name="標準_方式設計書(14.開発標準：D03サンプル_自動テスト仕様書：ＤＢアクセス)_V1.00" xfId="2"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準_画面標準" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準_方式設計書(14.開発標準：D03サンプル_自動テスト仕様書：ＤＢアクセス)_V1.00" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2111,6 +2086,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2132,7 +2110,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17"/>
+        <xdr:cNvPr id="2" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -2147,7 +2131,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12"/>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2231,7 +2221,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13"/>
+          <xdr:cNvPr id="4" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2331,7 +2327,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Text Box 18"/>
+        <xdr:cNvPr id="9" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2526,7 +2528,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2568,7 +2570,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2601,9 +2603,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2636,6 +2655,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2811,15 +2847,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K513"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2861,7 +2895,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="J23" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1">
@@ -2873,12 +2907,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="69" t="str">
+      <c r="I25" s="108" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -2914,7 +2948,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="5"/>
       <c r="J32" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="6:10" ht="18.75">
@@ -2926,7 +2960,7 @@
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="J34" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="6:10" ht="13.5" customHeight="1"/>
@@ -3422,14 +3456,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25"/>
@@ -3438,55 +3472,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="137" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="146" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="155" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156"/>
+      <c r="Z1" s="157"/>
+      <c r="AA1" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="103" t="str">
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="164" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="105"/>
-      <c r="AG1" s="70" t="str">
+      <c r="AD1" s="165"/>
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="166"/>
+      <c r="AG1" s="131" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="72"/>
+      <c r="AH1" s="132"/>
+      <c r="AI1" s="133"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -3494,51 +3528,51 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="82" t="str">
+      <c r="A2" s="137" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="150"/>
+      <c r="Q2" s="150"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+      <c r="Y2" s="159"/>
+      <c r="Z2" s="160"/>
+      <c r="AA2" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="143" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="70" t="str">
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="145"/>
+      <c r="AG2" s="131" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="72"/>
+      <c r="AH2" s="132"/>
+      <c r="AI2" s="133"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -3546,43 +3580,43 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
-      <c r="Z3" s="102"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="103"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="72"/>
+      <c r="A3" s="137" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="153"/>
+      <c r="Q3" s="153"/>
+      <c r="R3" s="154"/>
+      <c r="S3" s="161"/>
+      <c r="T3" s="162"/>
+      <c r="U3" s="162"/>
+      <c r="V3" s="162"/>
+      <c r="W3" s="162"/>
+      <c r="X3" s="162"/>
+      <c r="Y3" s="162"/>
+      <c r="Z3" s="163"/>
+      <c r="AA3" s="137"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="164"/>
+      <c r="AD3" s="165"/>
+      <c r="AE3" s="165"/>
+      <c r="AF3" s="166"/>
+      <c r="AG3" s="131"/>
+      <c r="AH3" s="132"/>
+      <c r="AI3" s="133"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -3591,7 +3625,7 @@
     </row>
     <row r="5" spans="1:40" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="N5" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AA5" s="16"/>
       <c r="AB5" s="16"/>
@@ -3617,87 +3651,87 @@
     </row>
     <row r="7" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="135"/>
+      <c r="D7" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="E7" s="136"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="134" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="136"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="73" t="s">
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="73" t="s">
+      <c r="R7" s="136"/>
+      <c r="S7" s="136"/>
+      <c r="T7" s="136"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="136"/>
+      <c r="W7" s="136"/>
+      <c r="X7" s="136"/>
+      <c r="Y7" s="136"/>
+      <c r="Z7" s="136"/>
+      <c r="AA7" s="136"/>
+      <c r="AB7" s="136"/>
+      <c r="AC7" s="136"/>
+      <c r="AD7" s="136"/>
+      <c r="AE7" s="135"/>
+      <c r="AF7" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="R7" s="75"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="75"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="75"/>
-      <c r="AB7" s="75"/>
-      <c r="AC7" s="75"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="74"/>
+      <c r="AG7" s="136"/>
+      <c r="AH7" s="136"/>
+      <c r="AI7" s="135"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="125"/>
-      <c r="T8" s="125"/>
-      <c r="U8" s="125"/>
-      <c r="V8" s="125"/>
-      <c r="W8" s="125"/>
-      <c r="X8" s="125"/>
-      <c r="Y8" s="125"/>
-      <c r="Z8" s="125"/>
-      <c r="AA8" s="125"/>
-      <c r="AB8" s="125"/>
-      <c r="AC8" s="125"/>
-      <c r="AD8" s="125"/>
-      <c r="AE8" s="126"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="129"/>
+      <c r="M8" s="129"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="129"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="128"/>
+      <c r="R8" s="129"/>
+      <c r="S8" s="129"/>
+      <c r="T8" s="129"/>
+      <c r="U8" s="129"/>
+      <c r="V8" s="129"/>
+      <c r="W8" s="129"/>
+      <c r="X8" s="129"/>
+      <c r="Y8" s="129"/>
+      <c r="Z8" s="129"/>
+      <c r="AA8" s="129"/>
+      <c r="AB8" s="129"/>
+      <c r="AC8" s="129"/>
+      <c r="AD8" s="129"/>
+      <c r="AE8" s="130"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -3705,1089 +3739,934 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="114"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="116"/>
-      <c r="V9" s="116"/>
-      <c r="W9" s="116"/>
-      <c r="X9" s="116"/>
-      <c r="Y9" s="116"/>
-      <c r="Z9" s="116"/>
-      <c r="AA9" s="116"/>
-      <c r="AB9" s="116"/>
-      <c r="AC9" s="116"/>
-      <c r="AD9" s="116"/>
-      <c r="AE9" s="117"/>
-      <c r="AF9" s="112"/>
-      <c r="AG9" s="113"/>
-      <c r="AH9" s="113"/>
-      <c r="AI9" s="114"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="119"/>
+      <c r="U9" s="119"/>
+      <c r="V9" s="119"/>
+      <c r="W9" s="119"/>
+      <c r="X9" s="119"/>
+      <c r="Y9" s="119"/>
+      <c r="Z9" s="119"/>
+      <c r="AA9" s="119"/>
+      <c r="AB9" s="119"/>
+      <c r="AC9" s="119"/>
+      <c r="AD9" s="119"/>
+      <c r="AE9" s="120"/>
+      <c r="AF9" s="115"/>
+      <c r="AG9" s="116"/>
+      <c r="AH9" s="116"/>
+      <c r="AI9" s="117"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="116"/>
-      <c r="V10" s="116"/>
-      <c r="W10" s="116"/>
-      <c r="X10" s="116"/>
-      <c r="Y10" s="116"/>
-      <c r="Z10" s="116"/>
-      <c r="AA10" s="116"/>
-      <c r="AB10" s="116"/>
-      <c r="AC10" s="116"/>
-      <c r="AD10" s="116"/>
-      <c r="AE10" s="117"/>
-      <c r="AF10" s="112"/>
-      <c r="AG10" s="113"/>
-      <c r="AH10" s="113"/>
-      <c r="AI10" s="114"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="119"/>
+      <c r="V10" s="119"/>
+      <c r="W10" s="119"/>
+      <c r="X10" s="119"/>
+      <c r="Y10" s="119"/>
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="119"/>
+      <c r="AB10" s="119"/>
+      <c r="AC10" s="119"/>
+      <c r="AD10" s="119"/>
+      <c r="AE10" s="120"/>
+      <c r="AF10" s="115"/>
+      <c r="AG10" s="116"/>
+      <c r="AH10" s="116"/>
+      <c r="AI10" s="117"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="113"/>
-      <c r="M11" s="113"/>
-      <c r="N11" s="113"/>
-      <c r="O11" s="113"/>
-      <c r="P11" s="114"/>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="116"/>
-      <c r="V11" s="116"/>
-      <c r="W11" s="116"/>
-      <c r="X11" s="116"/>
-      <c r="Y11" s="116"/>
-      <c r="Z11" s="116"/>
-      <c r="AA11" s="116"/>
-      <c r="AB11" s="116"/>
-      <c r="AC11" s="116"/>
-      <c r="AD11" s="116"/>
-      <c r="AE11" s="117"/>
-      <c r="AF11" s="112"/>
-      <c r="AG11" s="113"/>
-      <c r="AH11" s="113"/>
-      <c r="AI11" s="114"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="119"/>
+      <c r="T11" s="119"/>
+      <c r="U11" s="119"/>
+      <c r="V11" s="119"/>
+      <c r="W11" s="119"/>
+      <c r="X11" s="119"/>
+      <c r="Y11" s="119"/>
+      <c r="Z11" s="119"/>
+      <c r="AA11" s="119"/>
+      <c r="AB11" s="119"/>
+      <c r="AC11" s="119"/>
+      <c r="AD11" s="119"/>
+      <c r="AE11" s="120"/>
+      <c r="AF11" s="115"/>
+      <c r="AG11" s="116"/>
+      <c r="AH11" s="116"/>
+      <c r="AI11" s="117"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="114"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="116"/>
-      <c r="S12" s="116"/>
-      <c r="T12" s="116"/>
-      <c r="U12" s="116"/>
-      <c r="V12" s="116"/>
-      <c r="W12" s="116"/>
-      <c r="X12" s="116"/>
-      <c r="Y12" s="116"/>
-      <c r="Z12" s="116"/>
-      <c r="AA12" s="116"/>
-      <c r="AB12" s="116"/>
-      <c r="AC12" s="116"/>
-      <c r="AD12" s="116"/>
-      <c r="AE12" s="117"/>
-      <c r="AF12" s="112"/>
-      <c r="AG12" s="113"/>
-      <c r="AH12" s="113"/>
-      <c r="AI12" s="114"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="119"/>
+      <c r="T12" s="119"/>
+      <c r="U12" s="119"/>
+      <c r="V12" s="119"/>
+      <c r="W12" s="119"/>
+      <c r="X12" s="119"/>
+      <c r="Y12" s="119"/>
+      <c r="Z12" s="119"/>
+      <c r="AA12" s="119"/>
+      <c r="AB12" s="119"/>
+      <c r="AC12" s="119"/>
+      <c r="AD12" s="119"/>
+      <c r="AE12" s="120"/>
+      <c r="AF12" s="115"/>
+      <c r="AG12" s="116"/>
+      <c r="AH12" s="116"/>
+      <c r="AI12" s="117"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="115"/>
-      <c r="R13" s="116"/>
-      <c r="S13" s="116"/>
-      <c r="T13" s="116"/>
-      <c r="U13" s="116"/>
-      <c r="V13" s="116"/>
-      <c r="W13" s="116"/>
-      <c r="X13" s="116"/>
-      <c r="Y13" s="116"/>
-      <c r="Z13" s="116"/>
-      <c r="AA13" s="116"/>
-      <c r="AB13" s="116"/>
-      <c r="AC13" s="116"/>
-      <c r="AD13" s="116"/>
-      <c r="AE13" s="117"/>
-      <c r="AF13" s="112"/>
-      <c r="AG13" s="113"/>
-      <c r="AH13" s="113"/>
-      <c r="AI13" s="114"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="119"/>
+      <c r="T13" s="119"/>
+      <c r="U13" s="119"/>
+      <c r="V13" s="119"/>
+      <c r="W13" s="119"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="119"/>
+      <c r="Z13" s="119"/>
+      <c r="AA13" s="119"/>
+      <c r="AB13" s="119"/>
+      <c r="AC13" s="119"/>
+      <c r="AD13" s="119"/>
+      <c r="AE13" s="120"/>
+      <c r="AF13" s="115"/>
+      <c r="AG13" s="116"/>
+      <c r="AH13" s="116"/>
+      <c r="AI13" s="117"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="114"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="116"/>
-      <c r="S14" s="116"/>
-      <c r="T14" s="116"/>
-      <c r="U14" s="116"/>
-      <c r="V14" s="116"/>
-      <c r="W14" s="116"/>
-      <c r="X14" s="116"/>
-      <c r="Y14" s="116"/>
-      <c r="Z14" s="116"/>
-      <c r="AA14" s="116"/>
-      <c r="AB14" s="116"/>
-      <c r="AC14" s="116"/>
-      <c r="AD14" s="116"/>
-      <c r="AE14" s="117"/>
-      <c r="AF14" s="112"/>
-      <c r="AG14" s="113"/>
-      <c r="AH14" s="113"/>
-      <c r="AI14" s="114"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="118"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="119"/>
+      <c r="T14" s="119"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="119"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="119"/>
+      <c r="AA14" s="119"/>
+      <c r="AB14" s="119"/>
+      <c r="AC14" s="119"/>
+      <c r="AD14" s="119"/>
+      <c r="AE14" s="120"/>
+      <c r="AF14" s="115"/>
+      <c r="AG14" s="116"/>
+      <c r="AH14" s="116"/>
+      <c r="AI14" s="117"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="113"/>
-      <c r="M15" s="113"/>
-      <c r="N15" s="113"/>
-      <c r="O15" s="113"/>
-      <c r="P15" s="114"/>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="116"/>
-      <c r="T15" s="116"/>
-      <c r="U15" s="116"/>
-      <c r="V15" s="116"/>
-      <c r="W15" s="116"/>
-      <c r="X15" s="116"/>
-      <c r="Y15" s="116"/>
-      <c r="Z15" s="116"/>
-      <c r="AA15" s="116"/>
-      <c r="AB15" s="116"/>
-      <c r="AC15" s="116"/>
-      <c r="AD15" s="116"/>
-      <c r="AE15" s="117"/>
-      <c r="AF15" s="112"/>
-      <c r="AG15" s="113"/>
-      <c r="AH15" s="113"/>
-      <c r="AI15" s="114"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="119"/>
+      <c r="T15" s="119"/>
+      <c r="U15" s="119"/>
+      <c r="V15" s="119"/>
+      <c r="W15" s="119"/>
+      <c r="X15" s="119"/>
+      <c r="Y15" s="119"/>
+      <c r="Z15" s="119"/>
+      <c r="AA15" s="119"/>
+      <c r="AB15" s="119"/>
+      <c r="AC15" s="119"/>
+      <c r="AD15" s="119"/>
+      <c r="AE15" s="120"/>
+      <c r="AF15" s="115"/>
+      <c r="AG15" s="116"/>
+      <c r="AH15" s="116"/>
+      <c r="AI15" s="117"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="114"/>
-      <c r="Q16" s="115"/>
-      <c r="R16" s="116"/>
-      <c r="S16" s="116"/>
-      <c r="T16" s="116"/>
-      <c r="U16" s="116"/>
-      <c r="V16" s="116"/>
-      <c r="W16" s="116"/>
-      <c r="X16" s="116"/>
-      <c r="Y16" s="116"/>
-      <c r="Z16" s="116"/>
-      <c r="AA16" s="116"/>
-      <c r="AB16" s="116"/>
-      <c r="AC16" s="116"/>
-      <c r="AD16" s="116"/>
-      <c r="AE16" s="117"/>
-      <c r="AF16" s="112"/>
-      <c r="AG16" s="113"/>
-      <c r="AH16" s="113"/>
-      <c r="AI16" s="114"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="119"/>
+      <c r="T16" s="119"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="119"/>
+      <c r="W16" s="119"/>
+      <c r="X16" s="119"/>
+      <c r="Y16" s="119"/>
+      <c r="Z16" s="119"/>
+      <c r="AA16" s="119"/>
+      <c r="AB16" s="119"/>
+      <c r="AC16" s="119"/>
+      <c r="AD16" s="119"/>
+      <c r="AE16" s="120"/>
+      <c r="AF16" s="115"/>
+      <c r="AG16" s="116"/>
+      <c r="AH16" s="116"/>
+      <c r="AI16" s="117"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="114"/>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="116"/>
-      <c r="T17" s="116"/>
-      <c r="U17" s="116"/>
-      <c r="V17" s="116"/>
-      <c r="W17" s="116"/>
-      <c r="X17" s="116"/>
-      <c r="Y17" s="116"/>
-      <c r="Z17" s="116"/>
-      <c r="AA17" s="116"/>
-      <c r="AB17" s="116"/>
-      <c r="AC17" s="116"/>
-      <c r="AD17" s="116"/>
-      <c r="AE17" s="117"/>
-      <c r="AF17" s="112"/>
-      <c r="AG17" s="113"/>
-      <c r="AH17" s="113"/>
-      <c r="AI17" s="114"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="117"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="119"/>
+      <c r="T17" s="119"/>
+      <c r="U17" s="119"/>
+      <c r="V17" s="119"/>
+      <c r="W17" s="119"/>
+      <c r="X17" s="119"/>
+      <c r="Y17" s="119"/>
+      <c r="Z17" s="119"/>
+      <c r="AA17" s="119"/>
+      <c r="AB17" s="119"/>
+      <c r="AC17" s="119"/>
+      <c r="AD17" s="119"/>
+      <c r="AE17" s="120"/>
+      <c r="AF17" s="115"/>
+      <c r="AG17" s="116"/>
+      <c r="AH17" s="116"/>
+      <c r="AI17" s="117"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="113"/>
-      <c r="O18" s="113"/>
-      <c r="P18" s="114"/>
-      <c r="Q18" s="115"/>
-      <c r="R18" s="116"/>
-      <c r="S18" s="116"/>
-      <c r="T18" s="116"/>
-      <c r="U18" s="116"/>
-      <c r="V18" s="116"/>
-      <c r="W18" s="116"/>
-      <c r="X18" s="116"/>
-      <c r="Y18" s="116"/>
-      <c r="Z18" s="116"/>
-      <c r="AA18" s="116"/>
-      <c r="AB18" s="116"/>
-      <c r="AC18" s="116"/>
-      <c r="AD18" s="116"/>
-      <c r="AE18" s="117"/>
-      <c r="AF18" s="112"/>
-      <c r="AG18" s="113"/>
-      <c r="AH18" s="113"/>
-      <c r="AI18" s="114"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="116"/>
+      <c r="O18" s="116"/>
+      <c r="P18" s="117"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="119"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="119"/>
+      <c r="V18" s="119"/>
+      <c r="W18" s="119"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="119"/>
+      <c r="Z18" s="119"/>
+      <c r="AA18" s="119"/>
+      <c r="AB18" s="119"/>
+      <c r="AC18" s="119"/>
+      <c r="AD18" s="119"/>
+      <c r="AE18" s="120"/>
+      <c r="AF18" s="115"/>
+      <c r="AG18" s="116"/>
+      <c r="AH18" s="116"/>
+      <c r="AI18" s="117"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="113"/>
-      <c r="P19" s="114"/>
-      <c r="Q19" s="115"/>
-      <c r="R19" s="116"/>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="V19" s="116"/>
-      <c r="W19" s="116"/>
-      <c r="X19" s="116"/>
-      <c r="Y19" s="116"/>
-      <c r="Z19" s="116"/>
-      <c r="AA19" s="116"/>
-      <c r="AB19" s="116"/>
-      <c r="AC19" s="116"/>
-      <c r="AD19" s="116"/>
-      <c r="AE19" s="117"/>
-      <c r="AF19" s="112"/>
-      <c r="AG19" s="113"/>
-      <c r="AH19" s="113"/>
-      <c r="AI19" s="114"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="119"/>
+      <c r="U19" s="119"/>
+      <c r="V19" s="119"/>
+      <c r="W19" s="119"/>
+      <c r="X19" s="119"/>
+      <c r="Y19" s="119"/>
+      <c r="Z19" s="119"/>
+      <c r="AA19" s="119"/>
+      <c r="AB19" s="119"/>
+      <c r="AC19" s="119"/>
+      <c r="AD19" s="119"/>
+      <c r="AE19" s="120"/>
+      <c r="AF19" s="115"/>
+      <c r="AG19" s="116"/>
+      <c r="AH19" s="116"/>
+      <c r="AI19" s="117"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="116"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116"/>
-      <c r="V20" s="116"/>
-      <c r="W20" s="116"/>
-      <c r="X20" s="116"/>
-      <c r="Y20" s="116"/>
-      <c r="Z20" s="116"/>
-      <c r="AA20" s="116"/>
-      <c r="AB20" s="116"/>
-      <c r="AC20" s="116"/>
-      <c r="AD20" s="116"/>
-      <c r="AE20" s="117"/>
-      <c r="AF20" s="112"/>
-      <c r="AG20" s="113"/>
-      <c r="AH20" s="113"/>
-      <c r="AI20" s="114"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="119"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="119"/>
+      <c r="V20" s="119"/>
+      <c r="W20" s="119"/>
+      <c r="X20" s="119"/>
+      <c r="Y20" s="119"/>
+      <c r="Z20" s="119"/>
+      <c r="AA20" s="119"/>
+      <c r="AB20" s="119"/>
+      <c r="AC20" s="119"/>
+      <c r="AD20" s="119"/>
+      <c r="AE20" s="120"/>
+      <c r="AF20" s="115"/>
+      <c r="AG20" s="116"/>
+      <c r="AH20" s="116"/>
+      <c r="AI20" s="117"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="114"/>
-      <c r="Q21" s="115"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="116"/>
-      <c r="T21" s="116"/>
-      <c r="U21" s="116"/>
-      <c r="V21" s="116"/>
-      <c r="W21" s="116"/>
-      <c r="X21" s="116"/>
-      <c r="Y21" s="116"/>
-      <c r="Z21" s="116"/>
-      <c r="AA21" s="116"/>
-      <c r="AB21" s="116"/>
-      <c r="AC21" s="116"/>
-      <c r="AD21" s="116"/>
-      <c r="AE21" s="117"/>
-      <c r="AF21" s="112"/>
-      <c r="AG21" s="113"/>
-      <c r="AH21" s="113"/>
-      <c r="AI21" s="114"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="116"/>
+      <c r="P21" s="117"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="119"/>
+      <c r="T21" s="119"/>
+      <c r="U21" s="119"/>
+      <c r="V21" s="119"/>
+      <c r="W21" s="119"/>
+      <c r="X21" s="119"/>
+      <c r="Y21" s="119"/>
+      <c r="Z21" s="119"/>
+      <c r="AA21" s="119"/>
+      <c r="AB21" s="119"/>
+      <c r="AC21" s="119"/>
+      <c r="AD21" s="119"/>
+      <c r="AE21" s="120"/>
+      <c r="AF21" s="115"/>
+      <c r="AG21" s="116"/>
+      <c r="AH21" s="116"/>
+      <c r="AI21" s="117"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="114"/>
-      <c r="Q22" s="115"/>
-      <c r="R22" s="116"/>
-      <c r="S22" s="116"/>
-      <c r="T22" s="116"/>
-      <c r="U22" s="116"/>
-      <c r="V22" s="116"/>
-      <c r="W22" s="116"/>
-      <c r="X22" s="116"/>
-      <c r="Y22" s="116"/>
-      <c r="Z22" s="116"/>
-      <c r="AA22" s="116"/>
-      <c r="AB22" s="116"/>
-      <c r="AC22" s="116"/>
-      <c r="AD22" s="116"/>
-      <c r="AE22" s="117"/>
-      <c r="AF22" s="112"/>
-      <c r="AG22" s="113"/>
-      <c r="AH22" s="113"/>
-      <c r="AI22" s="114"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="117"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="119"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="119"/>
+      <c r="V22" s="119"/>
+      <c r="W22" s="119"/>
+      <c r="X22" s="119"/>
+      <c r="Y22" s="119"/>
+      <c r="Z22" s="119"/>
+      <c r="AA22" s="119"/>
+      <c r="AB22" s="119"/>
+      <c r="AC22" s="119"/>
+      <c r="AD22" s="119"/>
+      <c r="AE22" s="120"/>
+      <c r="AF22" s="115"/>
+      <c r="AG22" s="116"/>
+      <c r="AH22" s="116"/>
+      <c r="AI22" s="117"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="115"/>
-      <c r="R23" s="116"/>
-      <c r="S23" s="116"/>
-      <c r="T23" s="116"/>
-      <c r="U23" s="116"/>
-      <c r="V23" s="116"/>
-      <c r="W23" s="116"/>
-      <c r="X23" s="116"/>
-      <c r="Y23" s="116"/>
-      <c r="Z23" s="116"/>
-      <c r="AA23" s="116"/>
-      <c r="AB23" s="116"/>
-      <c r="AC23" s="116"/>
-      <c r="AD23" s="116"/>
-      <c r="AE23" s="117"/>
-      <c r="AF23" s="112"/>
-      <c r="AG23" s="113"/>
-      <c r="AH23" s="113"/>
-      <c r="AI23" s="114"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="116"/>
+      <c r="O23" s="116"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="119"/>
+      <c r="T23" s="119"/>
+      <c r="U23" s="119"/>
+      <c r="V23" s="119"/>
+      <c r="W23" s="119"/>
+      <c r="X23" s="119"/>
+      <c r="Y23" s="119"/>
+      <c r="Z23" s="119"/>
+      <c r="AA23" s="119"/>
+      <c r="AB23" s="119"/>
+      <c r="AC23" s="119"/>
+      <c r="AD23" s="119"/>
+      <c r="AE23" s="120"/>
+      <c r="AF23" s="115"/>
+      <c r="AG23" s="116"/>
+      <c r="AH23" s="116"/>
+      <c r="AI23" s="117"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="114"/>
-      <c r="Q24" s="115"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="116"/>
-      <c r="T24" s="116"/>
-      <c r="U24" s="116"/>
-      <c r="V24" s="116"/>
-      <c r="W24" s="116"/>
-      <c r="X24" s="116"/>
-      <c r="Y24" s="116"/>
-      <c r="Z24" s="116"/>
-      <c r="AA24" s="116"/>
-      <c r="AB24" s="116"/>
-      <c r="AC24" s="116"/>
-      <c r="AD24" s="116"/>
-      <c r="AE24" s="117"/>
-      <c r="AF24" s="112"/>
-      <c r="AG24" s="113"/>
-      <c r="AH24" s="113"/>
-      <c r="AI24" s="114"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="119"/>
+      <c r="S24" s="119"/>
+      <c r="T24" s="119"/>
+      <c r="U24" s="119"/>
+      <c r="V24" s="119"/>
+      <c r="W24" s="119"/>
+      <c r="X24" s="119"/>
+      <c r="Y24" s="119"/>
+      <c r="Z24" s="119"/>
+      <c r="AA24" s="119"/>
+      <c r="AB24" s="119"/>
+      <c r="AC24" s="119"/>
+      <c r="AD24" s="119"/>
+      <c r="AE24" s="120"/>
+      <c r="AF24" s="115"/>
+      <c r="AG24" s="116"/>
+      <c r="AH24" s="116"/>
+      <c r="AI24" s="117"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="114"/>
-      <c r="Q25" s="115"/>
-      <c r="R25" s="116"/>
-      <c r="S25" s="116"/>
-      <c r="T25" s="116"/>
-      <c r="U25" s="116"/>
-      <c r="V25" s="116"/>
-      <c r="W25" s="116"/>
-      <c r="X25" s="116"/>
-      <c r="Y25" s="116"/>
-      <c r="Z25" s="116"/>
-      <c r="AA25" s="116"/>
-      <c r="AB25" s="116"/>
-      <c r="AC25" s="116"/>
-      <c r="AD25" s="116"/>
-      <c r="AE25" s="117"/>
-      <c r="AF25" s="112"/>
-      <c r="AG25" s="113"/>
-      <c r="AH25" s="113"/>
-      <c r="AI25" s="114"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="116"/>
+      <c r="L25" s="116"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="116"/>
+      <c r="O25" s="116"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="119"/>
+      <c r="S25" s="119"/>
+      <c r="T25" s="119"/>
+      <c r="U25" s="119"/>
+      <c r="V25" s="119"/>
+      <c r="W25" s="119"/>
+      <c r="X25" s="119"/>
+      <c r="Y25" s="119"/>
+      <c r="Z25" s="119"/>
+      <c r="AA25" s="119"/>
+      <c r="AB25" s="119"/>
+      <c r="AC25" s="119"/>
+      <c r="AD25" s="119"/>
+      <c r="AE25" s="120"/>
+      <c r="AF25" s="115"/>
+      <c r="AG25" s="116"/>
+      <c r="AH25" s="116"/>
+      <c r="AI25" s="117"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="113"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="114"/>
-      <c r="Q26" s="115"/>
-      <c r="R26" s="116"/>
-      <c r="S26" s="116"/>
-      <c r="T26" s="116"/>
-      <c r="U26" s="116"/>
-      <c r="V26" s="116"/>
-      <c r="W26" s="116"/>
-      <c r="X26" s="116"/>
-      <c r="Y26" s="116"/>
-      <c r="Z26" s="116"/>
-      <c r="AA26" s="116"/>
-      <c r="AB26" s="116"/>
-      <c r="AC26" s="116"/>
-      <c r="AD26" s="116"/>
-      <c r="AE26" s="117"/>
-      <c r="AF26" s="112"/>
-      <c r="AG26" s="113"/>
-      <c r="AH26" s="113"/>
-      <c r="AI26" s="114"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="116"/>
+      <c r="L26" s="116"/>
+      <c r="M26" s="116"/>
+      <c r="N26" s="116"/>
+      <c r="O26" s="116"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="118"/>
+      <c r="R26" s="119"/>
+      <c r="S26" s="119"/>
+      <c r="T26" s="119"/>
+      <c r="U26" s="119"/>
+      <c r="V26" s="119"/>
+      <c r="W26" s="119"/>
+      <c r="X26" s="119"/>
+      <c r="Y26" s="119"/>
+      <c r="Z26" s="119"/>
+      <c r="AA26" s="119"/>
+      <c r="AB26" s="119"/>
+      <c r="AC26" s="119"/>
+      <c r="AD26" s="119"/>
+      <c r="AE26" s="120"/>
+      <c r="AF26" s="115"/>
+      <c r="AG26" s="116"/>
+      <c r="AH26" s="116"/>
+      <c r="AI26" s="117"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="113"/>
-      <c r="N27" s="113"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="114"/>
-      <c r="Q27" s="115"/>
-      <c r="R27" s="116"/>
-      <c r="S27" s="116"/>
-      <c r="T27" s="116"/>
-      <c r="U27" s="116"/>
-      <c r="V27" s="116"/>
-      <c r="W27" s="116"/>
-      <c r="X27" s="116"/>
-      <c r="Y27" s="116"/>
-      <c r="Z27" s="116"/>
-      <c r="AA27" s="116"/>
-      <c r="AB27" s="116"/>
-      <c r="AC27" s="116"/>
-      <c r="AD27" s="116"/>
-      <c r="AE27" s="117"/>
-      <c r="AF27" s="112"/>
-      <c r="AG27" s="113"/>
-      <c r="AH27" s="113"/>
-      <c r="AI27" s="114"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="116"/>
+      <c r="M27" s="116"/>
+      <c r="N27" s="116"/>
+      <c r="O27" s="116"/>
+      <c r="P27" s="117"/>
+      <c r="Q27" s="118"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="119"/>
+      <c r="T27" s="119"/>
+      <c r="U27" s="119"/>
+      <c r="V27" s="119"/>
+      <c r="W27" s="119"/>
+      <c r="X27" s="119"/>
+      <c r="Y27" s="119"/>
+      <c r="Z27" s="119"/>
+      <c r="AA27" s="119"/>
+      <c r="AB27" s="119"/>
+      <c r="AC27" s="119"/>
+      <c r="AD27" s="119"/>
+      <c r="AE27" s="120"/>
+      <c r="AF27" s="115"/>
+      <c r="AG27" s="116"/>
+      <c r="AH27" s="116"/>
+      <c r="AI27" s="117"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="113"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="113"/>
-      <c r="N28" s="113"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="114"/>
-      <c r="Q28" s="115"/>
-      <c r="R28" s="116"/>
-      <c r="S28" s="116"/>
-      <c r="T28" s="116"/>
-      <c r="U28" s="116"/>
-      <c r="V28" s="116"/>
-      <c r="W28" s="116"/>
-      <c r="X28" s="116"/>
-      <c r="Y28" s="116"/>
-      <c r="Z28" s="116"/>
-      <c r="AA28" s="116"/>
-      <c r="AB28" s="116"/>
-      <c r="AC28" s="116"/>
-      <c r="AD28" s="116"/>
-      <c r="AE28" s="117"/>
-      <c r="AF28" s="112"/>
-      <c r="AG28" s="113"/>
-      <c r="AH28" s="113"/>
-      <c r="AI28" s="114"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="116"/>
+      <c r="P28" s="117"/>
+      <c r="Q28" s="118"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="119"/>
+      <c r="T28" s="119"/>
+      <c r="U28" s="119"/>
+      <c r="V28" s="119"/>
+      <c r="W28" s="119"/>
+      <c r="X28" s="119"/>
+      <c r="Y28" s="119"/>
+      <c r="Z28" s="119"/>
+      <c r="AA28" s="119"/>
+      <c r="AB28" s="119"/>
+      <c r="AC28" s="119"/>
+      <c r="AD28" s="119"/>
+      <c r="AE28" s="120"/>
+      <c r="AF28" s="115"/>
+      <c r="AG28" s="116"/>
+      <c r="AH28" s="116"/>
+      <c r="AI28" s="117"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="106"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="115"/>
-      <c r="R29" s="116"/>
-      <c r="S29" s="116"/>
-      <c r="T29" s="116"/>
-      <c r="U29" s="116"/>
-      <c r="V29" s="116"/>
-      <c r="W29" s="116"/>
-      <c r="X29" s="116"/>
-      <c r="Y29" s="116"/>
-      <c r="Z29" s="116"/>
-      <c r="AA29" s="116"/>
-      <c r="AB29" s="116"/>
-      <c r="AC29" s="116"/>
-      <c r="AD29" s="116"/>
-      <c r="AE29" s="117"/>
-      <c r="AF29" s="112"/>
-      <c r="AG29" s="113"/>
-      <c r="AH29" s="113"/>
-      <c r="AI29" s="114"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="116"/>
+      <c r="P29" s="117"/>
+      <c r="Q29" s="118"/>
+      <c r="R29" s="119"/>
+      <c r="S29" s="119"/>
+      <c r="T29" s="119"/>
+      <c r="U29" s="119"/>
+      <c r="V29" s="119"/>
+      <c r="W29" s="119"/>
+      <c r="X29" s="119"/>
+      <c r="Y29" s="119"/>
+      <c r="Z29" s="119"/>
+      <c r="AA29" s="119"/>
+      <c r="AB29" s="119"/>
+      <c r="AC29" s="119"/>
+      <c r="AD29" s="119"/>
+      <c r="AE29" s="120"/>
+      <c r="AF29" s="115"/>
+      <c r="AG29" s="116"/>
+      <c r="AH29" s="116"/>
+      <c r="AI29" s="117"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="114"/>
-      <c r="Q30" s="115"/>
-      <c r="R30" s="116"/>
-      <c r="S30" s="116"/>
-      <c r="T30" s="116"/>
-      <c r="U30" s="116"/>
-      <c r="V30" s="116"/>
-      <c r="W30" s="116"/>
-      <c r="X30" s="116"/>
-      <c r="Y30" s="116"/>
-      <c r="Z30" s="116"/>
-      <c r="AA30" s="116"/>
-      <c r="AB30" s="116"/>
-      <c r="AC30" s="116"/>
-      <c r="AD30" s="116"/>
-      <c r="AE30" s="117"/>
-      <c r="AF30" s="112"/>
-      <c r="AG30" s="113"/>
-      <c r="AH30" s="113"/>
-      <c r="AI30" s="114"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="116"/>
+      <c r="P30" s="117"/>
+      <c r="Q30" s="118"/>
+      <c r="R30" s="119"/>
+      <c r="S30" s="119"/>
+      <c r="T30" s="119"/>
+      <c r="U30" s="119"/>
+      <c r="V30" s="119"/>
+      <c r="W30" s="119"/>
+      <c r="X30" s="119"/>
+      <c r="Y30" s="119"/>
+      <c r="Z30" s="119"/>
+      <c r="AA30" s="119"/>
+      <c r="AB30" s="119"/>
+      <c r="AC30" s="119"/>
+      <c r="AD30" s="119"/>
+      <c r="AE30" s="120"/>
+      <c r="AF30" s="115"/>
+      <c r="AG30" s="116"/>
+      <c r="AH30" s="116"/>
+      <c r="AI30" s="117"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
-      <c r="O31" s="113"/>
-      <c r="P31" s="114"/>
-      <c r="Q31" s="115"/>
-      <c r="R31" s="116"/>
-      <c r="S31" s="116"/>
-      <c r="T31" s="116"/>
-      <c r="U31" s="116"/>
-      <c r="V31" s="116"/>
-      <c r="W31" s="116"/>
-      <c r="X31" s="116"/>
-      <c r="Y31" s="116"/>
-      <c r="Z31" s="116"/>
-      <c r="AA31" s="116"/>
-      <c r="AB31" s="116"/>
-      <c r="AC31" s="116"/>
-      <c r="AD31" s="116"/>
-      <c r="AE31" s="117"/>
-      <c r="AF31" s="112"/>
-      <c r="AG31" s="113"/>
-      <c r="AH31" s="113"/>
-      <c r="AI31" s="114"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="116"/>
+      <c r="O31" s="116"/>
+      <c r="P31" s="117"/>
+      <c r="Q31" s="118"/>
+      <c r="R31" s="119"/>
+      <c r="S31" s="119"/>
+      <c r="T31" s="119"/>
+      <c r="U31" s="119"/>
+      <c r="V31" s="119"/>
+      <c r="W31" s="119"/>
+      <c r="X31" s="119"/>
+      <c r="Y31" s="119"/>
+      <c r="Z31" s="119"/>
+      <c r="AA31" s="119"/>
+      <c r="AB31" s="119"/>
+      <c r="AC31" s="119"/>
+      <c r="AD31" s="119"/>
+      <c r="AE31" s="120"/>
+      <c r="AF31" s="115"/>
+      <c r="AG31" s="116"/>
+      <c r="AH31" s="116"/>
+      <c r="AI31" s="117"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="106"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="113"/>
-      <c r="N32" s="113"/>
-      <c r="O32" s="113"/>
-      <c r="P32" s="114"/>
-      <c r="Q32" s="115"/>
-      <c r="R32" s="116"/>
-      <c r="S32" s="116"/>
-      <c r="T32" s="116"/>
-      <c r="U32" s="116"/>
-      <c r="V32" s="116"/>
-      <c r="W32" s="116"/>
-      <c r="X32" s="116"/>
-      <c r="Y32" s="116"/>
-      <c r="Z32" s="116"/>
-      <c r="AA32" s="116"/>
-      <c r="AB32" s="116"/>
-      <c r="AC32" s="116"/>
-      <c r="AD32" s="116"/>
-      <c r="AE32" s="117"/>
-      <c r="AF32" s="112"/>
-      <c r="AG32" s="113"/>
-      <c r="AH32" s="113"/>
-      <c r="AI32" s="114"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="121"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="116"/>
+      <c r="P32" s="117"/>
+      <c r="Q32" s="118"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="119"/>
+      <c r="T32" s="119"/>
+      <c r="U32" s="119"/>
+      <c r="V32" s="119"/>
+      <c r="W32" s="119"/>
+      <c r="X32" s="119"/>
+      <c r="Y32" s="119"/>
+      <c r="Z32" s="119"/>
+      <c r="AA32" s="119"/>
+      <c r="AB32" s="119"/>
+      <c r="AC32" s="119"/>
+      <c r="AD32" s="119"/>
+      <c r="AE32" s="120"/>
+      <c r="AF32" s="115"/>
+      <c r="AG32" s="116"/>
+      <c r="AH32" s="116"/>
+      <c r="AI32" s="117"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="113"/>
-      <c r="N33" s="113"/>
-      <c r="O33" s="113"/>
-      <c r="P33" s="114"/>
-      <c r="Q33" s="115"/>
-      <c r="R33" s="116"/>
-      <c r="S33" s="116"/>
-      <c r="T33" s="116"/>
-      <c r="U33" s="116"/>
-      <c r="V33" s="116"/>
-      <c r="W33" s="116"/>
-      <c r="X33" s="116"/>
-      <c r="Y33" s="116"/>
-      <c r="Z33" s="116"/>
-      <c r="AA33" s="116"/>
-      <c r="AB33" s="116"/>
-      <c r="AC33" s="116"/>
-      <c r="AD33" s="116"/>
-      <c r="AE33" s="117"/>
-      <c r="AF33" s="112"/>
-      <c r="AG33" s="113"/>
-      <c r="AH33" s="113"/>
-      <c r="AI33" s="114"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="116"/>
+      <c r="P33" s="117"/>
+      <c r="Q33" s="118"/>
+      <c r="R33" s="119"/>
+      <c r="S33" s="119"/>
+      <c r="T33" s="119"/>
+      <c r="U33" s="119"/>
+      <c r="V33" s="119"/>
+      <c r="W33" s="119"/>
+      <c r="X33" s="119"/>
+      <c r="Y33" s="119"/>
+      <c r="Z33" s="119"/>
+      <c r="AA33" s="119"/>
+      <c r="AB33" s="119"/>
+      <c r="AC33" s="119"/>
+      <c r="AD33" s="119"/>
+      <c r="AE33" s="120"/>
+      <c r="AF33" s="115"/>
+      <c r="AG33" s="116"/>
+      <c r="AH33" s="116"/>
+      <c r="AI33" s="117"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4811,6 +4690,161 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -4821,15 +4855,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -4843,53 +4875,53 @@
     <col min="9" max="9" width="15.5" style="28" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="30.625" style="28" customWidth="1"/>
     <col min="12" max="12" width="20.625" style="28" customWidth="1"/>
-    <col min="13" max="16" width="8.625" style="28" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="28"/>
+    <col min="13" max="15" width="8.625" style="28" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="28" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="28" t="s">
+    <row r="5" spans="1:17">
+      <c r="A5" s="28" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="28" t="s">
+    <row r="6" spans="1:17">
+      <c r="A6" s="28" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="28" t="s">
-        <v>96</v>
-      </c>
       <c r="J6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="12" thickBot="1">
+    </row>
+    <row r="8" spans="1:17" ht="12" thickBot="1">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -4907,54 +4939,53 @@
       <c r="O8" s="30"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-    </row>
-    <row r="9" spans="1:18" ht="21.75" customHeight="1" thickTop="1"/>
-    <row r="10" spans="1:18" s="33" customFormat="1">
+    </row>
+    <row r="9" spans="1:17" ht="21.75" customHeight="1" thickTop="1"/>
+    <row r="10" spans="1:17" s="33" customFormat="1">
       <c r="A10" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="D10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="E10" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="133" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="134" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="32" t="s">
+      <c r="I10" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="32" t="s">
-        <v>12</v>
-      </c>
       <c r="J10" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="L10" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="145" t="s">
-        <v>1</v>
-      </c>
-      <c r="M10" s="36" t="s">
+      <c r="N10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="35" t="s">
+      <c r="O10" s="35" t="s">
         <v>4</v>
-      </c>
-      <c r="O10" s="35" t="s">
-        <v>15</v>
       </c>
       <c r="P10" s="35" t="s">
         <v>5</v>
@@ -4962,475 +4993,456 @@
       <c r="Q10" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="33" customFormat="1" ht="90">
-      <c r="A11" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="152" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="152" t="s">
+    </row>
+    <row r="11" spans="1:17" s="33" customFormat="1" ht="90">
+      <c r="A11" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="154" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="155" t="s">
-        <v>83</v>
-      </c>
       <c r="J11" s="34"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="150"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="41"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
       <c r="O11" s="41"/>
       <c r="P11" s="42"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="41"/>
-    </row>
-    <row r="12" spans="1:18" s="33" customFormat="1" ht="22.5">
-      <c r="A12" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="153" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="154" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="155" t="s">
-        <v>39</v>
+      <c r="Q11" s="40"/>
+    </row>
+    <row r="12" spans="1:17" s="33" customFormat="1" ht="22.5">
+      <c r="A12" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="92" t="s">
+        <v>37</v>
       </c>
       <c r="J12" s="34"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="150"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="41"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
       <c r="O12" s="41"/>
       <c r="P12" s="42"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="41"/>
-    </row>
-    <row r="13" spans="1:18" s="132" customFormat="1" ht="90">
-      <c r="A13" s="49" t="s">
+      <c r="Q12" s="40"/>
+    </row>
+    <row r="13" spans="1:17" s="71" customFormat="1" ht="90">
+      <c r="A13" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="53"/>
+    </row>
+    <row r="14" spans="1:17" s="71" customFormat="1" ht="22.5">
+      <c r="A14" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="67"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="53"/>
+    </row>
+    <row r="15" spans="1:17" s="33" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A15" s="96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="101"/>
+    </row>
+    <row r="16" spans="1:17" s="75" customFormat="1" ht="45">
+      <c r="A16" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+    </row>
+    <row r="17" spans="1:17" s="75" customFormat="1" ht="45">
+      <c r="A17" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+    </row>
+    <row r="18" spans="1:17" s="75" customFormat="1" ht="45">
+      <c r="A18" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="67"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+    </row>
+    <row r="19" spans="1:17" s="75" customFormat="1" ht="45">
+      <c r="A19" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+    </row>
+    <row r="20" spans="1:17" s="75" customFormat="1" ht="22.5">
+      <c r="A20" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+    </row>
+    <row r="21" spans="1:17" ht="45">
+      <c r="A21" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="156" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="131"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="55"/>
-    </row>
-    <row r="14" spans="1:18" s="132" customFormat="1" ht="22.5">
-      <c r="A14" s="49" t="s">
+      <c r="E21" s="62"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="63"/>
+    </row>
+    <row r="22" spans="1:17" s="75" customFormat="1" ht="45">
+      <c r="A22" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="128"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="129" t="s">
+      <c r="E22" s="94"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="95"/>
+    </row>
+    <row r="23" spans="1:17" ht="56.25">
+      <c r="A23" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="62"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="84"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="63"/>
+    </row>
+    <row r="24" spans="1:17" ht="56.25">
+      <c r="A24" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="62"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="84"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="63"/>
+    </row>
+    <row r="25" spans="1:17" s="75" customFormat="1" ht="67.5">
+      <c r="A25" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="156" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="131"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="55"/>
-    </row>
-    <row r="15" spans="1:18" s="33" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A15" s="159" t="s">
+      <c r="E25" s="107"/>
+      <c r="F25" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="160"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="166" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="130" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="156" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="162"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="165"/>
-      <c r="P15" s="164"/>
-      <c r="Q15" s="164"/>
-      <c r="R15" s="164"/>
-    </row>
-    <row r="16" spans="1:18" s="136" customFormat="1" ht="45">
-      <c r="A16" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="135" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-    </row>
-    <row r="17" spans="1:18" s="136" customFormat="1" ht="45">
-      <c r="A17" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-    </row>
-    <row r="18" spans="1:18" s="136" customFormat="1" ht="45">
-      <c r="A18" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="128"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-    </row>
-    <row r="19" spans="1:18" s="136" customFormat="1" ht="45">
-      <c r="A19" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="I19" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-    </row>
-    <row r="20" spans="1:18" s="136" customFormat="1" ht="22.5">
-      <c r="A20" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" s="139"/>
-      <c r="K20" s="139"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="140"/>
-      <c r="N20" s="140"/>
-      <c r="O20" s="140"/>
-      <c r="P20" s="140"/>
-      <c r="Q20" s="140"/>
-      <c r="R20" s="140"/>
-    </row>
-    <row r="21" spans="1:18" ht="45">
-      <c r="A21" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="65"/>
-    </row>
-    <row r="22" spans="1:18" s="136" customFormat="1" ht="45">
-      <c r="A22" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="157"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="J22" s="140"/>
-      <c r="K22" s="140"/>
-      <c r="L22" s="140"/>
-      <c r="M22" s="140"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="158"/>
-    </row>
-    <row r="23" spans="1:18" ht="56.25">
-      <c r="A23" s="49" t="s">
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="95"/>
+    </row>
+    <row r="26" spans="1:17" s="75" customFormat="1">
+      <c r="A26" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="66" t="s">
+      <c r="B26" s="65"/>
+      <c r="C26" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="94"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="I23" s="141" t="s">
-        <v>74</v>
-      </c>
-      <c r="J23" s="146"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="149"/>
-      <c r="N23" s="143"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="65"/>
-    </row>
-    <row r="24" spans="1:18" ht="56.25">
-      <c r="A24" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="I24" s="141" t="s">
-        <v>74</v>
-      </c>
-      <c r="J24" s="146"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="147"/>
-      <c r="M24" s="149"/>
-      <c r="N24" s="143"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="65"/>
-    </row>
-    <row r="25" spans="1:18" s="136" customFormat="1" ht="67.5">
-      <c r="A25" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="168" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="169" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="170"/>
-      <c r="F25" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="158"/>
-    </row>
-    <row r="26" spans="1:18" s="136" customFormat="1">
-      <c r="A26" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="157"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="158"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="95"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5441,7 +5453,6 @@
   </headerFooter>
   <ignoredErrors>
     <ignoredError sqref="A11:A12 A13:A14" twoDigitTextYear="1"/>
-    <ignoredError sqref="M13:M14 M16:M20 M25:M26 M22" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_取引単体(REST)_(取引ID)_(取引名).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_取引単体(REST)_(取引ID)_(取引名).xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE465B5-C35D-44B9-B2E7-260FF8B09FD6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="17865" windowHeight="12900" tabRatio="445" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -18,20 +17,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">取引単体!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
   <si>
     <t>その他エラー</t>
     <rPh sb="2" eb="3">
@@ -40,6 +31,13 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>テストデータシート名</t>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
       <t>ナイヨウ</t>
@@ -145,6 +143,10 @@
       <t>カショ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データNo</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>取引単体テスト</t>
@@ -774,15 +776,11 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>テストコード</t>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
@@ -914,7 +912,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1393,6 +1391,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1537,7 +1550,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -1616,6 +1629,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1666,6 +1682,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1707,6 +1726,183 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1753,6 +1949,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1765,32 +1964,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1799,16 +2001,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1823,194 +2025,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="パーセント 2" xfId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="標準_画面標準" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="標準_画面標準定義" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="標準_方式設計書(14.開発標準：D03サンプル_自動テスト仕様書：ＤＢアクセス)_V1.00" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2 2" xfId="5"/>
+    <cellStyle name="標準 3" xfId="3"/>
+    <cellStyle name="標準_画面標準" xfId="4"/>
+    <cellStyle name="標準_画面標準定義" xfId="7"/>
+    <cellStyle name="標準_方式設計書(14.開発標準：D03サンプル_自動テスト仕様書：ＤＢアクセス)_V1.00" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2086,9 +2111,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2110,13 +2132,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Group 17"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -2131,13 +2147,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="3" name="Text Box 12"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2221,13 +2231,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="4" name="Text Box 13"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2327,13 +2331,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Text Box 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Text Box 18"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2528,7 +2526,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2570,7 +2568,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2603,26 +2601,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2655,23 +2636,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2847,13 +2811,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K513"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2895,7 +2861,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="J23" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1">
@@ -2907,12 +2873,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="108" t="str">
+      <c r="I25" s="69" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -2948,7 +2914,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="5"/>
       <c r="J32" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="6:10" ht="18.75">
@@ -2960,7 +2926,7 @@
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="J34" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="6:10" ht="13.5" customHeight="1"/>
@@ -3456,14 +3422,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25"/>
@@ -3472,55 +3438,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="137" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="146" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="155" t="s">
-        <v>88</v>
-      </c>
-      <c r="T1" s="156"/>
-      <c r="U1" s="156"/>
-      <c r="V1" s="156"/>
-      <c r="W1" s="156"/>
-      <c r="X1" s="156"/>
-      <c r="Y1" s="156"/>
-      <c r="Z1" s="157"/>
-      <c r="AA1" s="137" t="s">
+      <c r="A1" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="164" t="str">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="103" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="165"/>
-      <c r="AE1" s="165"/>
-      <c r="AF1" s="166"/>
-      <c r="AG1" s="131" t="str">
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="105"/>
+      <c r="AG1" s="70" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="132"/>
-      <c r="AI1" s="133"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="72"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -3528,51 +3494,51 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="137" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="159"/>
-      <c r="U2" s="159"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="159"/>
-      <c r="X2" s="159"/>
-      <c r="Y2" s="159"/>
-      <c r="Z2" s="160"/>
-      <c r="AA2" s="137" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="143" t="str">
+      <c r="A2" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="82" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="145"/>
-      <c r="AG2" s="131" t="str">
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="70" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="132"/>
-      <c r="AI2" s="133"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="72"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -3580,43 +3546,43 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="137" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="152"/>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="154"/>
-      <c r="S3" s="161"/>
-      <c r="T3" s="162"/>
-      <c r="U3" s="162"/>
-      <c r="V3" s="162"/>
-      <c r="W3" s="162"/>
-      <c r="X3" s="162"/>
-      <c r="Y3" s="162"/>
-      <c r="Z3" s="163"/>
-      <c r="AA3" s="137"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="164"/>
-      <c r="AD3" s="165"/>
-      <c r="AE3" s="165"/>
-      <c r="AF3" s="166"/>
-      <c r="AG3" s="131"/>
-      <c r="AH3" s="132"/>
-      <c r="AI3" s="133"/>
+      <c r="A3" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="104"/>
+      <c r="AE3" s="104"/>
+      <c r="AF3" s="105"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="72"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -3625,7 +3591,7 @@
     </row>
     <row r="5" spans="1:40" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="N5" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA5" s="16"/>
       <c r="AB5" s="16"/>
@@ -3651,87 +3617,87 @@
     </row>
     <row r="7" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="134" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="136"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="134" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="136"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="134" t="s">
+      <c r="B7" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="135"/>
-      <c r="Q7" s="134" t="s">
+      <c r="C7" s="74"/>
+      <c r="D7" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="R7" s="136"/>
-      <c r="S7" s="136"/>
-      <c r="T7" s="136"/>
-      <c r="U7" s="136"/>
-      <c r="V7" s="136"/>
-      <c r="W7" s="136"/>
-      <c r="X7" s="136"/>
-      <c r="Y7" s="136"/>
-      <c r="Z7" s="136"/>
-      <c r="AA7" s="136"/>
-      <c r="AB7" s="136"/>
-      <c r="AC7" s="136"/>
-      <c r="AD7" s="136"/>
-      <c r="AE7" s="135"/>
-      <c r="AF7" s="134" t="s">
+      <c r="E7" s="75"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="75"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="AG7" s="136"/>
-      <c r="AH7" s="136"/>
-      <c r="AI7" s="135"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="74"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="129"/>
-      <c r="M8" s="129"/>
-      <c r="N8" s="129"/>
-      <c r="O8" s="129"/>
-      <c r="P8" s="130"/>
-      <c r="Q8" s="128"/>
-      <c r="R8" s="129"/>
-      <c r="S8" s="129"/>
-      <c r="T8" s="129"/>
-      <c r="U8" s="129"/>
-      <c r="V8" s="129"/>
-      <c r="W8" s="129"/>
-      <c r="X8" s="129"/>
-      <c r="Y8" s="129"/>
-      <c r="Z8" s="129"/>
-      <c r="AA8" s="129"/>
-      <c r="AB8" s="129"/>
-      <c r="AC8" s="129"/>
-      <c r="AD8" s="129"/>
-      <c r="AE8" s="130"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="125"/>
+      <c r="S8" s="125"/>
+      <c r="T8" s="125"/>
+      <c r="U8" s="125"/>
+      <c r="V8" s="125"/>
+      <c r="W8" s="125"/>
+      <c r="X8" s="125"/>
+      <c r="Y8" s="125"/>
+      <c r="Z8" s="125"/>
+      <c r="AA8" s="125"/>
+      <c r="AB8" s="125"/>
+      <c r="AC8" s="125"/>
+      <c r="AD8" s="125"/>
+      <c r="AE8" s="126"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -3739,934 +3705,1089 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
-      <c r="T9" s="119"/>
-      <c r="U9" s="119"/>
-      <c r="V9" s="119"/>
-      <c r="W9" s="119"/>
-      <c r="X9" s="119"/>
-      <c r="Y9" s="119"/>
-      <c r="Z9" s="119"/>
-      <c r="AA9" s="119"/>
-      <c r="AB9" s="119"/>
-      <c r="AC9" s="119"/>
-      <c r="AD9" s="119"/>
-      <c r="AE9" s="120"/>
-      <c r="AF9" s="115"/>
-      <c r="AG9" s="116"/>
-      <c r="AH9" s="116"/>
-      <c r="AI9" s="117"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="114"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="116"/>
+      <c r="V9" s="116"/>
+      <c r="W9" s="116"/>
+      <c r="X9" s="116"/>
+      <c r="Y9" s="116"/>
+      <c r="Z9" s="116"/>
+      <c r="AA9" s="116"/>
+      <c r="AB9" s="116"/>
+      <c r="AC9" s="116"/>
+      <c r="AD9" s="116"/>
+      <c r="AE9" s="117"/>
+      <c r="AF9" s="112"/>
+      <c r="AG9" s="113"/>
+      <c r="AH9" s="113"/>
+      <c r="AI9" s="114"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="119"/>
-      <c r="T10" s="119"/>
-      <c r="U10" s="119"/>
-      <c r="V10" s="119"/>
-      <c r="W10" s="119"/>
-      <c r="X10" s="119"/>
-      <c r="Y10" s="119"/>
-      <c r="Z10" s="119"/>
-      <c r="AA10" s="119"/>
-      <c r="AB10" s="119"/>
-      <c r="AC10" s="119"/>
-      <c r="AD10" s="119"/>
-      <c r="AE10" s="120"/>
-      <c r="AF10" s="115"/>
-      <c r="AG10" s="116"/>
-      <c r="AH10" s="116"/>
-      <c r="AI10" s="117"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="116"/>
+      <c r="AA10" s="116"/>
+      <c r="AB10" s="116"/>
+      <c r="AC10" s="116"/>
+      <c r="AD10" s="116"/>
+      <c r="AE10" s="117"/>
+      <c r="AF10" s="112"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="114"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="119"/>
-      <c r="T11" s="119"/>
-      <c r="U11" s="119"/>
-      <c r="V11" s="119"/>
-      <c r="W11" s="119"/>
-      <c r="X11" s="119"/>
-      <c r="Y11" s="119"/>
-      <c r="Z11" s="119"/>
-      <c r="AA11" s="119"/>
-      <c r="AB11" s="119"/>
-      <c r="AC11" s="119"/>
-      <c r="AD11" s="119"/>
-      <c r="AE11" s="120"/>
-      <c r="AF11" s="115"/>
-      <c r="AG11" s="116"/>
-      <c r="AH11" s="116"/>
-      <c r="AI11" s="117"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="116"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="116"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="116"/>
+      <c r="AD11" s="116"/>
+      <c r="AE11" s="117"/>
+      <c r="AF11" s="112"/>
+      <c r="AG11" s="113"/>
+      <c r="AH11" s="113"/>
+      <c r="AI11" s="114"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="117"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="119"/>
-      <c r="T12" s="119"/>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="119"/>
-      <c r="X12" s="119"/>
-      <c r="Y12" s="119"/>
-      <c r="Z12" s="119"/>
-      <c r="AA12" s="119"/>
-      <c r="AB12" s="119"/>
-      <c r="AC12" s="119"/>
-      <c r="AD12" s="119"/>
-      <c r="AE12" s="120"/>
-      <c r="AF12" s="115"/>
-      <c r="AG12" s="116"/>
-      <c r="AH12" s="116"/>
-      <c r="AI12" s="117"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="116"/>
+      <c r="S12" s="116"/>
+      <c r="T12" s="116"/>
+      <c r="U12" s="116"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="116"/>
+      <c r="Z12" s="116"/>
+      <c r="AA12" s="116"/>
+      <c r="AB12" s="116"/>
+      <c r="AC12" s="116"/>
+      <c r="AD12" s="116"/>
+      <c r="AE12" s="117"/>
+      <c r="AF12" s="112"/>
+      <c r="AG12" s="113"/>
+      <c r="AH12" s="113"/>
+      <c r="AI12" s="114"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="119"/>
-      <c r="X13" s="119"/>
-      <c r="Y13" s="119"/>
-      <c r="Z13" s="119"/>
-      <c r="AA13" s="119"/>
-      <c r="AB13" s="119"/>
-      <c r="AC13" s="119"/>
-      <c r="AD13" s="119"/>
-      <c r="AE13" s="120"/>
-      <c r="AF13" s="115"/>
-      <c r="AG13" s="116"/>
-      <c r="AH13" s="116"/>
-      <c r="AI13" s="117"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="116"/>
+      <c r="T13" s="116"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="116"/>
+      <c r="Z13" s="116"/>
+      <c r="AA13" s="116"/>
+      <c r="AB13" s="116"/>
+      <c r="AC13" s="116"/>
+      <c r="AD13" s="116"/>
+      <c r="AE13" s="117"/>
+      <c r="AF13" s="112"/>
+      <c r="AG13" s="113"/>
+      <c r="AH13" s="113"/>
+      <c r="AI13" s="114"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="117"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="119"/>
-      <c r="T14" s="119"/>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="119"/>
-      <c r="X14" s="119"/>
-      <c r="Y14" s="119"/>
-      <c r="Z14" s="119"/>
-      <c r="AA14" s="119"/>
-      <c r="AB14" s="119"/>
-      <c r="AC14" s="119"/>
-      <c r="AD14" s="119"/>
-      <c r="AE14" s="120"/>
-      <c r="AF14" s="115"/>
-      <c r="AG14" s="116"/>
-      <c r="AH14" s="116"/>
-      <c r="AI14" s="117"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="116"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="116"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="116"/>
+      <c r="Z14" s="116"/>
+      <c r="AA14" s="116"/>
+      <c r="AB14" s="116"/>
+      <c r="AC14" s="116"/>
+      <c r="AD14" s="116"/>
+      <c r="AE14" s="117"/>
+      <c r="AF14" s="112"/>
+      <c r="AG14" s="113"/>
+      <c r="AH14" s="113"/>
+      <c r="AI14" s="114"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="119"/>
-      <c r="T15" s="119"/>
-      <c r="U15" s="119"/>
-      <c r="V15" s="119"/>
-      <c r="W15" s="119"/>
-      <c r="X15" s="119"/>
-      <c r="Y15" s="119"/>
-      <c r="Z15" s="119"/>
-      <c r="AA15" s="119"/>
-      <c r="AB15" s="119"/>
-      <c r="AC15" s="119"/>
-      <c r="AD15" s="119"/>
-      <c r="AE15" s="120"/>
-      <c r="AF15" s="115"/>
-      <c r="AG15" s="116"/>
-      <c r="AH15" s="116"/>
-      <c r="AI15" s="117"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="113"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="116"/>
+      <c r="T15" s="116"/>
+      <c r="U15" s="116"/>
+      <c r="V15" s="116"/>
+      <c r="W15" s="116"/>
+      <c r="X15" s="116"/>
+      <c r="Y15" s="116"/>
+      <c r="Z15" s="116"/>
+      <c r="AA15" s="116"/>
+      <c r="AB15" s="116"/>
+      <c r="AC15" s="116"/>
+      <c r="AD15" s="116"/>
+      <c r="AE15" s="117"/>
+      <c r="AF15" s="112"/>
+      <c r="AG15" s="113"/>
+      <c r="AH15" s="113"/>
+      <c r="AI15" s="114"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="119"/>
-      <c r="T16" s="119"/>
-      <c r="U16" s="119"/>
-      <c r="V16" s="119"/>
-      <c r="W16" s="119"/>
-      <c r="X16" s="119"/>
-      <c r="Y16" s="119"/>
-      <c r="Z16" s="119"/>
-      <c r="AA16" s="119"/>
-      <c r="AB16" s="119"/>
-      <c r="AC16" s="119"/>
-      <c r="AD16" s="119"/>
-      <c r="AE16" s="120"/>
-      <c r="AF16" s="115"/>
-      <c r="AG16" s="116"/>
-      <c r="AH16" s="116"/>
-      <c r="AI16" s="117"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="115"/>
+      <c r="R16" s="116"/>
+      <c r="S16" s="116"/>
+      <c r="T16" s="116"/>
+      <c r="U16" s="116"/>
+      <c r="V16" s="116"/>
+      <c r="W16" s="116"/>
+      <c r="X16" s="116"/>
+      <c r="Y16" s="116"/>
+      <c r="Z16" s="116"/>
+      <c r="AA16" s="116"/>
+      <c r="AB16" s="116"/>
+      <c r="AC16" s="116"/>
+      <c r="AD16" s="116"/>
+      <c r="AE16" s="117"/>
+      <c r="AF16" s="112"/>
+      <c r="AG16" s="113"/>
+      <c r="AH16" s="113"/>
+      <c r="AI16" s="114"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="119"/>
-      <c r="T17" s="119"/>
-      <c r="U17" s="119"/>
-      <c r="V17" s="119"/>
-      <c r="W17" s="119"/>
-      <c r="X17" s="119"/>
-      <c r="Y17" s="119"/>
-      <c r="Z17" s="119"/>
-      <c r="AA17" s="119"/>
-      <c r="AB17" s="119"/>
-      <c r="AC17" s="119"/>
-      <c r="AD17" s="119"/>
-      <c r="AE17" s="120"/>
-      <c r="AF17" s="115"/>
-      <c r="AG17" s="116"/>
-      <c r="AH17" s="116"/>
-      <c r="AI17" s="117"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="114"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="116"/>
+      <c r="U17" s="116"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="116"/>
+      <c r="Y17" s="116"/>
+      <c r="Z17" s="116"/>
+      <c r="AA17" s="116"/>
+      <c r="AB17" s="116"/>
+      <c r="AC17" s="116"/>
+      <c r="AD17" s="116"/>
+      <c r="AE17" s="117"/>
+      <c r="AF17" s="112"/>
+      <c r="AG17" s="113"/>
+      <c r="AH17" s="113"/>
+      <c r="AI17" s="114"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="119"/>
-      <c r="T18" s="119"/>
-      <c r="U18" s="119"/>
-      <c r="V18" s="119"/>
-      <c r="W18" s="119"/>
-      <c r="X18" s="119"/>
-      <c r="Y18" s="119"/>
-      <c r="Z18" s="119"/>
-      <c r="AA18" s="119"/>
-      <c r="AB18" s="119"/>
-      <c r="AC18" s="119"/>
-      <c r="AD18" s="119"/>
-      <c r="AE18" s="120"/>
-      <c r="AF18" s="115"/>
-      <c r="AG18" s="116"/>
-      <c r="AH18" s="116"/>
-      <c r="AI18" s="117"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="115"/>
+      <c r="R18" s="116"/>
+      <c r="S18" s="116"/>
+      <c r="T18" s="116"/>
+      <c r="U18" s="116"/>
+      <c r="V18" s="116"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="116"/>
+      <c r="Y18" s="116"/>
+      <c r="Z18" s="116"/>
+      <c r="AA18" s="116"/>
+      <c r="AB18" s="116"/>
+      <c r="AC18" s="116"/>
+      <c r="AD18" s="116"/>
+      <c r="AE18" s="117"/>
+      <c r="AF18" s="112"/>
+      <c r="AG18" s="113"/>
+      <c r="AH18" s="113"/>
+      <c r="AI18" s="114"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="116"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="119"/>
-      <c r="T19" s="119"/>
-      <c r="U19" s="119"/>
-      <c r="V19" s="119"/>
-      <c r="W19" s="119"/>
-      <c r="X19" s="119"/>
-      <c r="Y19" s="119"/>
-      <c r="Z19" s="119"/>
-      <c r="AA19" s="119"/>
-      <c r="AB19" s="119"/>
-      <c r="AC19" s="119"/>
-      <c r="AD19" s="119"/>
-      <c r="AE19" s="120"/>
-      <c r="AF19" s="115"/>
-      <c r="AG19" s="116"/>
-      <c r="AH19" s="116"/>
-      <c r="AI19" s="117"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="116"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
+      <c r="V19" s="116"/>
+      <c r="W19" s="116"/>
+      <c r="X19" s="116"/>
+      <c r="Y19" s="116"/>
+      <c r="Z19" s="116"/>
+      <c r="AA19" s="116"/>
+      <c r="AB19" s="116"/>
+      <c r="AC19" s="116"/>
+      <c r="AD19" s="116"/>
+      <c r="AE19" s="117"/>
+      <c r="AF19" s="112"/>
+      <c r="AG19" s="113"/>
+      <c r="AH19" s="113"/>
+      <c r="AI19" s="114"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="119"/>
-      <c r="T20" s="119"/>
-      <c r="U20" s="119"/>
-      <c r="V20" s="119"/>
-      <c r="W20" s="119"/>
-      <c r="X20" s="119"/>
-      <c r="Y20" s="119"/>
-      <c r="Z20" s="119"/>
-      <c r="AA20" s="119"/>
-      <c r="AB20" s="119"/>
-      <c r="AC20" s="119"/>
-      <c r="AD20" s="119"/>
-      <c r="AE20" s="120"/>
-      <c r="AF20" s="115"/>
-      <c r="AG20" s="116"/>
-      <c r="AH20" s="116"/>
-      <c r="AI20" s="117"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="115"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="116"/>
+      <c r="V20" s="116"/>
+      <c r="W20" s="116"/>
+      <c r="X20" s="116"/>
+      <c r="Y20" s="116"/>
+      <c r="Z20" s="116"/>
+      <c r="AA20" s="116"/>
+      <c r="AB20" s="116"/>
+      <c r="AC20" s="116"/>
+      <c r="AD20" s="116"/>
+      <c r="AE20" s="117"/>
+      <c r="AF20" s="112"/>
+      <c r="AG20" s="113"/>
+      <c r="AH20" s="113"/>
+      <c r="AI20" s="114"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="119"/>
-      <c r="T21" s="119"/>
-      <c r="U21" s="119"/>
-      <c r="V21" s="119"/>
-      <c r="W21" s="119"/>
-      <c r="X21" s="119"/>
-      <c r="Y21" s="119"/>
-      <c r="Z21" s="119"/>
-      <c r="AA21" s="119"/>
-      <c r="AB21" s="119"/>
-      <c r="AC21" s="119"/>
-      <c r="AD21" s="119"/>
-      <c r="AE21" s="120"/>
-      <c r="AF21" s="115"/>
-      <c r="AG21" s="116"/>
-      <c r="AH21" s="116"/>
-      <c r="AI21" s="117"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="115"/>
+      <c r="R21" s="116"/>
+      <c r="S21" s="116"/>
+      <c r="T21" s="116"/>
+      <c r="U21" s="116"/>
+      <c r="V21" s="116"/>
+      <c r="W21" s="116"/>
+      <c r="X21" s="116"/>
+      <c r="Y21" s="116"/>
+      <c r="Z21" s="116"/>
+      <c r="AA21" s="116"/>
+      <c r="AB21" s="116"/>
+      <c r="AC21" s="116"/>
+      <c r="AD21" s="116"/>
+      <c r="AE21" s="117"/>
+      <c r="AF21" s="112"/>
+      <c r="AG21" s="113"/>
+      <c r="AH21" s="113"/>
+      <c r="AI21" s="114"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="119"/>
-      <c r="T22" s="119"/>
-      <c r="U22" s="119"/>
-      <c r="V22" s="119"/>
-      <c r="W22" s="119"/>
-      <c r="X22" s="119"/>
-      <c r="Y22" s="119"/>
-      <c r="Z22" s="119"/>
-      <c r="AA22" s="119"/>
-      <c r="AB22" s="119"/>
-      <c r="AC22" s="119"/>
-      <c r="AD22" s="119"/>
-      <c r="AE22" s="120"/>
-      <c r="AF22" s="115"/>
-      <c r="AG22" s="116"/>
-      <c r="AH22" s="116"/>
-      <c r="AI22" s="117"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="114"/>
+      <c r="Q22" s="115"/>
+      <c r="R22" s="116"/>
+      <c r="S22" s="116"/>
+      <c r="T22" s="116"/>
+      <c r="U22" s="116"/>
+      <c r="V22" s="116"/>
+      <c r="W22" s="116"/>
+      <c r="X22" s="116"/>
+      <c r="Y22" s="116"/>
+      <c r="Z22" s="116"/>
+      <c r="AA22" s="116"/>
+      <c r="AB22" s="116"/>
+      <c r="AC22" s="116"/>
+      <c r="AD22" s="116"/>
+      <c r="AE22" s="117"/>
+      <c r="AF22" s="112"/>
+      <c r="AG22" s="113"/>
+      <c r="AH22" s="113"/>
+      <c r="AI22" s="114"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="119"/>
-      <c r="T23" s="119"/>
-      <c r="U23" s="119"/>
-      <c r="V23" s="119"/>
-      <c r="W23" s="119"/>
-      <c r="X23" s="119"/>
-      <c r="Y23" s="119"/>
-      <c r="Z23" s="119"/>
-      <c r="AA23" s="119"/>
-      <c r="AB23" s="119"/>
-      <c r="AC23" s="119"/>
-      <c r="AD23" s="119"/>
-      <c r="AE23" s="120"/>
-      <c r="AF23" s="115"/>
-      <c r="AG23" s="116"/>
-      <c r="AH23" s="116"/>
-      <c r="AI23" s="117"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="114"/>
+      <c r="Q23" s="115"/>
+      <c r="R23" s="116"/>
+      <c r="S23" s="116"/>
+      <c r="T23" s="116"/>
+      <c r="U23" s="116"/>
+      <c r="V23" s="116"/>
+      <c r="W23" s="116"/>
+      <c r="X23" s="116"/>
+      <c r="Y23" s="116"/>
+      <c r="Z23" s="116"/>
+      <c r="AA23" s="116"/>
+      <c r="AB23" s="116"/>
+      <c r="AC23" s="116"/>
+      <c r="AD23" s="116"/>
+      <c r="AE23" s="117"/>
+      <c r="AF23" s="112"/>
+      <c r="AG23" s="113"/>
+      <c r="AH23" s="113"/>
+      <c r="AI23" s="114"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="119"/>
-      <c r="T24" s="119"/>
-      <c r="U24" s="119"/>
-      <c r="V24" s="119"/>
-      <c r="W24" s="119"/>
-      <c r="X24" s="119"/>
-      <c r="Y24" s="119"/>
-      <c r="Z24" s="119"/>
-      <c r="AA24" s="119"/>
-      <c r="AB24" s="119"/>
-      <c r="AC24" s="119"/>
-      <c r="AD24" s="119"/>
-      <c r="AE24" s="120"/>
-      <c r="AF24" s="115"/>
-      <c r="AG24" s="116"/>
-      <c r="AH24" s="116"/>
-      <c r="AI24" s="117"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="114"/>
+      <c r="Q24" s="115"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="116"/>
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="116"/>
+      <c r="AA24" s="116"/>
+      <c r="AB24" s="116"/>
+      <c r="AC24" s="116"/>
+      <c r="AD24" s="116"/>
+      <c r="AE24" s="117"/>
+      <c r="AF24" s="112"/>
+      <c r="AG24" s="113"/>
+      <c r="AH24" s="113"/>
+      <c r="AI24" s="114"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="116"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="119"/>
-      <c r="T25" s="119"/>
-      <c r="U25" s="119"/>
-      <c r="V25" s="119"/>
-      <c r="W25" s="119"/>
-      <c r="X25" s="119"/>
-      <c r="Y25" s="119"/>
-      <c r="Z25" s="119"/>
-      <c r="AA25" s="119"/>
-      <c r="AB25" s="119"/>
-      <c r="AC25" s="119"/>
-      <c r="AD25" s="119"/>
-      <c r="AE25" s="120"/>
-      <c r="AF25" s="115"/>
-      <c r="AG25" s="116"/>
-      <c r="AH25" s="116"/>
-      <c r="AI25" s="117"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="114"/>
+      <c r="Q25" s="115"/>
+      <c r="R25" s="116"/>
+      <c r="S25" s="116"/>
+      <c r="T25" s="116"/>
+      <c r="U25" s="116"/>
+      <c r="V25" s="116"/>
+      <c r="W25" s="116"/>
+      <c r="X25" s="116"/>
+      <c r="Y25" s="116"/>
+      <c r="Z25" s="116"/>
+      <c r="AA25" s="116"/>
+      <c r="AB25" s="116"/>
+      <c r="AC25" s="116"/>
+      <c r="AD25" s="116"/>
+      <c r="AE25" s="117"/>
+      <c r="AF25" s="112"/>
+      <c r="AG25" s="113"/>
+      <c r="AH25" s="113"/>
+      <c r="AI25" s="114"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="116"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="119"/>
-      <c r="S26" s="119"/>
-      <c r="T26" s="119"/>
-      <c r="U26" s="119"/>
-      <c r="V26" s="119"/>
-      <c r="W26" s="119"/>
-      <c r="X26" s="119"/>
-      <c r="Y26" s="119"/>
-      <c r="Z26" s="119"/>
-      <c r="AA26" s="119"/>
-      <c r="AB26" s="119"/>
-      <c r="AC26" s="119"/>
-      <c r="AD26" s="119"/>
-      <c r="AE26" s="120"/>
-      <c r="AF26" s="115"/>
-      <c r="AG26" s="116"/>
-      <c r="AH26" s="116"/>
-      <c r="AI26" s="117"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="115"/>
+      <c r="R26" s="116"/>
+      <c r="S26" s="116"/>
+      <c r="T26" s="116"/>
+      <c r="U26" s="116"/>
+      <c r="V26" s="116"/>
+      <c r="W26" s="116"/>
+      <c r="X26" s="116"/>
+      <c r="Y26" s="116"/>
+      <c r="Z26" s="116"/>
+      <c r="AA26" s="116"/>
+      <c r="AB26" s="116"/>
+      <c r="AC26" s="116"/>
+      <c r="AD26" s="116"/>
+      <c r="AE26" s="117"/>
+      <c r="AF26" s="112"/>
+      <c r="AG26" s="113"/>
+      <c r="AH26" s="113"/>
+      <c r="AI26" s="114"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="116"/>
-      <c r="P27" s="117"/>
-      <c r="Q27" s="118"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="119"/>
-      <c r="T27" s="119"/>
-      <c r="U27" s="119"/>
-      <c r="V27" s="119"/>
-      <c r="W27" s="119"/>
-      <c r="X27" s="119"/>
-      <c r="Y27" s="119"/>
-      <c r="Z27" s="119"/>
-      <c r="AA27" s="119"/>
-      <c r="AB27" s="119"/>
-      <c r="AC27" s="119"/>
-      <c r="AD27" s="119"/>
-      <c r="AE27" s="120"/>
-      <c r="AF27" s="115"/>
-      <c r="AG27" s="116"/>
-      <c r="AH27" s="116"/>
-      <c r="AI27" s="117"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="114"/>
+      <c r="Q27" s="115"/>
+      <c r="R27" s="116"/>
+      <c r="S27" s="116"/>
+      <c r="T27" s="116"/>
+      <c r="U27" s="116"/>
+      <c r="V27" s="116"/>
+      <c r="W27" s="116"/>
+      <c r="X27" s="116"/>
+      <c r="Y27" s="116"/>
+      <c r="Z27" s="116"/>
+      <c r="AA27" s="116"/>
+      <c r="AB27" s="116"/>
+      <c r="AC27" s="116"/>
+      <c r="AD27" s="116"/>
+      <c r="AE27" s="117"/>
+      <c r="AF27" s="112"/>
+      <c r="AG27" s="113"/>
+      <c r="AH27" s="113"/>
+      <c r="AI27" s="114"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="116"/>
-      <c r="P28" s="117"/>
-      <c r="Q28" s="118"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="119"/>
-      <c r="T28" s="119"/>
-      <c r="U28" s="119"/>
-      <c r="V28" s="119"/>
-      <c r="W28" s="119"/>
-      <c r="X28" s="119"/>
-      <c r="Y28" s="119"/>
-      <c r="Z28" s="119"/>
-      <c r="AA28" s="119"/>
-      <c r="AB28" s="119"/>
-      <c r="AC28" s="119"/>
-      <c r="AD28" s="119"/>
-      <c r="AE28" s="120"/>
-      <c r="AF28" s="115"/>
-      <c r="AG28" s="116"/>
-      <c r="AH28" s="116"/>
-      <c r="AI28" s="117"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="114"/>
+      <c r="Q28" s="115"/>
+      <c r="R28" s="116"/>
+      <c r="S28" s="116"/>
+      <c r="T28" s="116"/>
+      <c r="U28" s="116"/>
+      <c r="V28" s="116"/>
+      <c r="W28" s="116"/>
+      <c r="X28" s="116"/>
+      <c r="Y28" s="116"/>
+      <c r="Z28" s="116"/>
+      <c r="AA28" s="116"/>
+      <c r="AB28" s="116"/>
+      <c r="AC28" s="116"/>
+      <c r="AD28" s="116"/>
+      <c r="AE28" s="117"/>
+      <c r="AF28" s="112"/>
+      <c r="AG28" s="113"/>
+      <c r="AH28" s="113"/>
+      <c r="AI28" s="114"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="116"/>
-      <c r="P29" s="117"/>
-      <c r="Q29" s="118"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="119"/>
-      <c r="T29" s="119"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="119"/>
-      <c r="W29" s="119"/>
-      <c r="X29" s="119"/>
-      <c r="Y29" s="119"/>
-      <c r="Z29" s="119"/>
-      <c r="AA29" s="119"/>
-      <c r="AB29" s="119"/>
-      <c r="AC29" s="119"/>
-      <c r="AD29" s="119"/>
-      <c r="AE29" s="120"/>
-      <c r="AF29" s="115"/>
-      <c r="AG29" s="116"/>
-      <c r="AH29" s="116"/>
-      <c r="AI29" s="117"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="114"/>
+      <c r="Q29" s="115"/>
+      <c r="R29" s="116"/>
+      <c r="S29" s="116"/>
+      <c r="T29" s="116"/>
+      <c r="U29" s="116"/>
+      <c r="V29" s="116"/>
+      <c r="W29" s="116"/>
+      <c r="X29" s="116"/>
+      <c r="Y29" s="116"/>
+      <c r="Z29" s="116"/>
+      <c r="AA29" s="116"/>
+      <c r="AB29" s="116"/>
+      <c r="AC29" s="116"/>
+      <c r="AD29" s="116"/>
+      <c r="AE29" s="117"/>
+      <c r="AF29" s="112"/>
+      <c r="AG29" s="113"/>
+      <c r="AH29" s="113"/>
+      <c r="AI29" s="114"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="109"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="117"/>
-      <c r="Q30" s="118"/>
-      <c r="R30" s="119"/>
-      <c r="S30" s="119"/>
-      <c r="T30" s="119"/>
-      <c r="U30" s="119"/>
-      <c r="V30" s="119"/>
-      <c r="W30" s="119"/>
-      <c r="X30" s="119"/>
-      <c r="Y30" s="119"/>
-      <c r="Z30" s="119"/>
-      <c r="AA30" s="119"/>
-      <c r="AB30" s="119"/>
-      <c r="AC30" s="119"/>
-      <c r="AD30" s="119"/>
-      <c r="AE30" s="120"/>
-      <c r="AF30" s="115"/>
-      <c r="AG30" s="116"/>
-      <c r="AH30" s="116"/>
-      <c r="AI30" s="117"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="114"/>
+      <c r="Q30" s="115"/>
+      <c r="R30" s="116"/>
+      <c r="S30" s="116"/>
+      <c r="T30" s="116"/>
+      <c r="U30" s="116"/>
+      <c r="V30" s="116"/>
+      <c r="W30" s="116"/>
+      <c r="X30" s="116"/>
+      <c r="Y30" s="116"/>
+      <c r="Z30" s="116"/>
+      <c r="AA30" s="116"/>
+      <c r="AB30" s="116"/>
+      <c r="AC30" s="116"/>
+      <c r="AD30" s="116"/>
+      <c r="AE30" s="117"/>
+      <c r="AF30" s="112"/>
+      <c r="AG30" s="113"/>
+      <c r="AH30" s="113"/>
+      <c r="AI30" s="114"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="109"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="115"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="117"/>
-      <c r="Q31" s="118"/>
-      <c r="R31" s="119"/>
-      <c r="S31" s="119"/>
-      <c r="T31" s="119"/>
-      <c r="U31" s="119"/>
-      <c r="V31" s="119"/>
-      <c r="W31" s="119"/>
-      <c r="X31" s="119"/>
-      <c r="Y31" s="119"/>
-      <c r="Z31" s="119"/>
-      <c r="AA31" s="119"/>
-      <c r="AB31" s="119"/>
-      <c r="AC31" s="119"/>
-      <c r="AD31" s="119"/>
-      <c r="AE31" s="120"/>
-      <c r="AF31" s="115"/>
-      <c r="AG31" s="116"/>
-      <c r="AH31" s="116"/>
-      <c r="AI31" s="117"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="114"/>
+      <c r="Q31" s="115"/>
+      <c r="R31" s="116"/>
+      <c r="S31" s="116"/>
+      <c r="T31" s="116"/>
+      <c r="U31" s="116"/>
+      <c r="V31" s="116"/>
+      <c r="W31" s="116"/>
+      <c r="X31" s="116"/>
+      <c r="Y31" s="116"/>
+      <c r="Z31" s="116"/>
+      <c r="AA31" s="116"/>
+      <c r="AB31" s="116"/>
+      <c r="AC31" s="116"/>
+      <c r="AD31" s="116"/>
+      <c r="AE31" s="117"/>
+      <c r="AF31" s="112"/>
+      <c r="AG31" s="113"/>
+      <c r="AH31" s="113"/>
+      <c r="AI31" s="114"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="121"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="117"/>
-      <c r="Q32" s="118"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="119"/>
-      <c r="T32" s="119"/>
-      <c r="U32" s="119"/>
-      <c r="V32" s="119"/>
-      <c r="W32" s="119"/>
-      <c r="X32" s="119"/>
-      <c r="Y32" s="119"/>
-      <c r="Z32" s="119"/>
-      <c r="AA32" s="119"/>
-      <c r="AB32" s="119"/>
-      <c r="AC32" s="119"/>
-      <c r="AD32" s="119"/>
-      <c r="AE32" s="120"/>
-      <c r="AF32" s="115"/>
-      <c r="AG32" s="116"/>
-      <c r="AH32" s="116"/>
-      <c r="AI32" s="117"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="114"/>
+      <c r="Q32" s="115"/>
+      <c r="R32" s="116"/>
+      <c r="S32" s="116"/>
+      <c r="T32" s="116"/>
+      <c r="U32" s="116"/>
+      <c r="V32" s="116"/>
+      <c r="W32" s="116"/>
+      <c r="X32" s="116"/>
+      <c r="Y32" s="116"/>
+      <c r="Z32" s="116"/>
+      <c r="AA32" s="116"/>
+      <c r="AB32" s="116"/>
+      <c r="AC32" s="116"/>
+      <c r="AD32" s="116"/>
+      <c r="AE32" s="117"/>
+      <c r="AF32" s="112"/>
+      <c r="AG32" s="113"/>
+      <c r="AH32" s="113"/>
+      <c r="AI32" s="114"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="109"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="116"/>
-      <c r="P33" s="117"/>
-      <c r="Q33" s="118"/>
-      <c r="R33" s="119"/>
-      <c r="S33" s="119"/>
-      <c r="T33" s="119"/>
-      <c r="U33" s="119"/>
-      <c r="V33" s="119"/>
-      <c r="W33" s="119"/>
-      <c r="X33" s="119"/>
-      <c r="Y33" s="119"/>
-      <c r="Z33" s="119"/>
-      <c r="AA33" s="119"/>
-      <c r="AB33" s="119"/>
-      <c r="AC33" s="119"/>
-      <c r="AD33" s="119"/>
-      <c r="AE33" s="120"/>
-      <c r="AF33" s="115"/>
-      <c r="AG33" s="116"/>
-      <c r="AH33" s="116"/>
-      <c r="AI33" s="117"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="113"/>
+      <c r="P33" s="114"/>
+      <c r="Q33" s="115"/>
+      <c r="R33" s="116"/>
+      <c r="S33" s="116"/>
+      <c r="T33" s="116"/>
+      <c r="U33" s="116"/>
+      <c r="V33" s="116"/>
+      <c r="W33" s="116"/>
+      <c r="X33" s="116"/>
+      <c r="Y33" s="116"/>
+      <c r="Z33" s="116"/>
+      <c r="AA33" s="116"/>
+      <c r="AB33" s="116"/>
+      <c r="AC33" s="116"/>
+      <c r="AD33" s="116"/>
+      <c r="AE33" s="117"/>
+      <c r="AF33" s="112"/>
+      <c r="AG33" s="113"/>
+      <c r="AH33" s="113"/>
+      <c r="AI33" s="114"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4690,161 +4811,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -4855,13 +4821,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -4875,53 +4843,53 @@
     <col min="9" max="9" width="15.5" style="28" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="30.625" style="28" customWidth="1"/>
     <col min="12" max="12" width="20.625" style="28" customWidth="1"/>
-    <col min="13" max="15" width="8.625" style="28" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="28"/>
+    <col min="13" max="16" width="8.625" style="28" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="12" thickBot="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="12" thickBot="1">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -4939,53 +4907,54 @@
       <c r="O8" s="30"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="30"/>
-    </row>
-    <row r="9" spans="1:17" ht="21.75" customHeight="1" thickTop="1"/>
-    <row r="10" spans="1:17" s="33" customFormat="1">
+      <c r="R8" s="30"/>
+    </row>
+    <row r="9" spans="1:18" ht="21.75" customHeight="1" thickTop="1"/>
+    <row r="10" spans="1:18" s="33" customFormat="1">
       <c r="A10" s="32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="73" t="s">
-        <v>77</v>
+        <v>36</v>
+      </c>
+      <c r="F10" s="133" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="134" t="s">
+        <v>79</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>3</v>
+      <c r="M10" s="36" t="s">
+        <v>13</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P10" s="35" t="s">
         <v>5</v>
@@ -4993,456 +4962,475 @@
       <c r="Q10" s="35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="33" customFormat="1" ht="90">
-      <c r="A11" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="92" t="s">
+      <c r="R10" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="33" customFormat="1" ht="90">
+      <c r="A11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="152" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="152" t="s">
         <v>81</v>
       </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="154" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="155" t="s">
+        <v>83</v>
+      </c>
       <c r="J11" s="34"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="41"/>
       <c r="O11" s="41"/>
       <c r="P11" s="42"/>
-      <c r="Q11" s="40"/>
-    </row>
-    <row r="12" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A12" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="92" t="s">
-        <v>37</v>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="41"/>
+    </row>
+    <row r="12" spans="1:18" s="33" customFormat="1" ht="22.5">
+      <c r="A12" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="153" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="154" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="155" t="s">
+        <v>39</v>
       </c>
       <c r="J12" s="34"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="41"/>
       <c r="O12" s="41"/>
       <c r="P12" s="42"/>
-      <c r="Q12" s="40"/>
-    </row>
-    <row r="13" spans="1:17" s="71" customFormat="1" ht="90">
-      <c r="A13" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46" t="s">
+      <c r="Q12" s="43"/>
+      <c r="R12" s="41"/>
+    </row>
+    <row r="13" spans="1:18" s="132" customFormat="1" ht="90">
+      <c r="A13" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="93" t="s">
-        <v>82</v>
-      </c>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="53"/>
-    </row>
-    <row r="14" spans="1:17" s="71" customFormat="1" ht="22.5">
-      <c r="A14" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="68" t="s">
+      <c r="I13" s="156" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="131"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="55"/>
+    </row>
+    <row r="14" spans="1:18" s="132" customFormat="1" ht="22.5">
+      <c r="A14" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="128"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="129" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="156" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="131"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="55"/>
+    </row>
+    <row r="15" spans="1:18" s="33" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A15" s="159" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="160"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="166" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="156" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="162"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="165"/>
+      <c r="P15" s="164"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="164"/>
+    </row>
+    <row r="16" spans="1:18" s="136" customFormat="1" ht="45">
+      <c r="A16" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="135" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+    </row>
+    <row r="17" spans="1:18" s="136" customFormat="1" ht="45">
+      <c r="A17" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+    </row>
+    <row r="18" spans="1:18" s="136" customFormat="1" ht="45">
+      <c r="A18" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="128"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+    </row>
+    <row r="19" spans="1:18" s="136" customFormat="1" ht="45">
+      <c r="A19" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="53"/>
-    </row>
-    <row r="15" spans="1:17" s="33" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A15" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-    </row>
-    <row r="16" spans="1:17" s="75" customFormat="1" ht="45">
-      <c r="A16" s="48" t="s">
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+    </row>
+    <row r="20" spans="1:18" s="136" customFormat="1" ht="22.5">
+      <c r="A20" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="62"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="139"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="140"/>
+      <c r="O20" s="140"/>
+      <c r="P20" s="140"/>
+      <c r="Q20" s="140"/>
+      <c r="R20" s="140"/>
+    </row>
+    <row r="21" spans="1:18" ht="45">
+      <c r="A21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="49" t="s">
+      <c r="B21" s="62"/>
+      <c r="C21" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="65"/>
+    </row>
+    <row r="22" spans="1:18" s="136" customFormat="1" ht="45">
+      <c r="A22" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="157"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="140"/>
+      <c r="K22" s="140"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="140"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="158"/>
+    </row>
+    <row r="23" spans="1:18" ht="56.25">
+      <c r="A23" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="64"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="141" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="146"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="65"/>
+    </row>
+    <row r="24" spans="1:18" ht="56.25">
+      <c r="A24" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="64"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-    </row>
-    <row r="17" spans="1:17" s="75" customFormat="1" ht="45">
-      <c r="A17" s="48" t="s">
+      <c r="J24" s="146"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="147"/>
+      <c r="M24" s="149"/>
+      <c r="N24" s="143"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="65"/>
+    </row>
+    <row r="25" spans="1:18" s="136" customFormat="1" ht="67.5">
+      <c r="A25" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="49" t="s">
+      <c r="B25" s="45"/>
+      <c r="C25" s="168" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="169" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="170"/>
+      <c r="F25" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="158"/>
+    </row>
+    <row r="26" spans="1:18" s="136" customFormat="1">
+      <c r="A26" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-    </row>
-    <row r="18" spans="1:17" s="75" customFormat="1" ht="45">
-      <c r="A18" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-    </row>
-    <row r="19" spans="1:17" s="75" customFormat="1" ht="45">
-      <c r="A19" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-    </row>
-    <row r="20" spans="1:17" s="75" customFormat="1" ht="22.5">
-      <c r="A20" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-    </row>
-    <row r="21" spans="1:17" ht="45">
-      <c r="A21" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="63"/>
-    </row>
-    <row r="22" spans="1:17" s="75" customFormat="1" ht="45">
-      <c r="A22" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="94"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="95"/>
-    </row>
-    <row r="23" spans="1:17" ht="56.25">
-      <c r="A23" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="J23" s="84"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="63"/>
-    </row>
-    <row r="24" spans="1:17" ht="56.25">
-      <c r="A24" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="J24" s="84"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="63"/>
-    </row>
-    <row r="25" spans="1:17" s="75" customFormat="1" ht="67.5">
-      <c r="A25" s="48" t="s">
+      <c r="B26" s="67"/>
+      <c r="C26" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="157"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="105" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="106" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="107"/>
-      <c r="F25" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="H25" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="95"/>
-    </row>
-    <row r="26" spans="1:17" s="75" customFormat="1">
-      <c r="A26" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="94"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="95"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="158"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5453,6 +5441,7 @@
   </headerFooter>
   <ignoredErrors>
     <ignoredError sqref="A11:A12 A13:A14" twoDigitTextYear="1"/>
+    <ignoredError sqref="M13:M14 M16:M20 M25:M26 M22" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_取引単体(REST)_(取引ID)_(取引名).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_取引単体(REST)_(取引ID)_(取引名).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AC67E3-C084-4B05-B205-FEB95DB95AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DAF813-E050-4B96-8A28-5BCA9CB48E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="1185" windowWidth="21630" windowHeight="13725" tabRatio="445" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="990" windowWidth="21630" windowHeight="13725" tabRatio="445" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="907">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -4202,10 +4202,6 @@
     <rPh sb="27" eb="29">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メール設計書</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -14667,6 +14663,72 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -14773,72 +14835,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16369,55 +16365,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="179"/>
-      <c r="O1" s="183" t="s">
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="185"/>
-      <c r="S1" s="192" t="s">
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="207"/>
+      <c r="S1" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="193"/>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
-      <c r="Y1" s="193"/>
-      <c r="Z1" s="194"/>
-      <c r="AA1" s="174" t="s">
+      <c r="T1" s="215"/>
+      <c r="U1" s="215"/>
+      <c r="V1" s="215"/>
+      <c r="W1" s="215"/>
+      <c r="X1" s="215"/>
+      <c r="Y1" s="215"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="201" t="str">
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="223" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="202"/>
-      <c r="AE1" s="202"/>
-      <c r="AF1" s="203"/>
-      <c r="AG1" s="168">
+      <c r="AD1" s="224"/>
+      <c r="AE1" s="224"/>
+      <c r="AF1" s="225"/>
+      <c r="AG1" s="190">
         <f>IF(D8="","",D8)</f>
         <v>44795</v>
       </c>
-      <c r="AH1" s="169"/>
-      <c r="AI1" s="170"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="192"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -16425,51 +16421,51 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="179"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="188"/>
-      <c r="S2" s="195"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="197"/>
-      <c r="AA2" s="174" t="s">
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="217"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="218"/>
+      <c r="W2" s="218"/>
+      <c r="X2" s="218"/>
+      <c r="Y2" s="218"/>
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="176"/>
-      <c r="AC2" s="180" t="str">
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="202" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="168" t="str">
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="190" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="169"/>
-      <c r="AI2" s="170"/>
+      <c r="AH2" s="191"/>
+      <c r="AI2" s="192"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -16477,43 +16473,43 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="196" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
-      <c r="M3" s="178"/>
-      <c r="N3" s="179"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="190"/>
-      <c r="Q3" s="190"/>
-      <c r="R3" s="191"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="200"/>
-      <c r="AA3" s="174"/>
-      <c r="AB3" s="176"/>
-      <c r="AC3" s="201"/>
-      <c r="AD3" s="202"/>
-      <c r="AE3" s="202"/>
-      <c r="AF3" s="203"/>
-      <c r="AG3" s="168"/>
-      <c r="AH3" s="169"/>
-      <c r="AI3" s="170"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="213"/>
+      <c r="S3" s="220"/>
+      <c r="T3" s="221"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="222"/>
+      <c r="AA3" s="196"/>
+      <c r="AB3" s="198"/>
+      <c r="AC3" s="223"/>
+      <c r="AD3" s="224"/>
+      <c r="AE3" s="224"/>
+      <c r="AF3" s="225"/>
+      <c r="AG3" s="190"/>
+      <c r="AH3" s="191"/>
+      <c r="AI3" s="192"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -16550,1188 +16546,1032 @@
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="193" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="172"/>
-      <c r="D7" s="171" t="s">
+      <c r="C7" s="194"/>
+      <c r="D7" s="193" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="173"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="171" t="s">
+      <c r="E7" s="195"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="173"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="171" t="s">
+      <c r="H7" s="195"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="173"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="171" t="s">
+      <c r="K7" s="195"/>
+      <c r="L7" s="195"/>
+      <c r="M7" s="195"/>
+      <c r="N7" s="195"/>
+      <c r="O7" s="195"/>
+      <c r="P7" s="194"/>
+      <c r="Q7" s="193" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="173"/>
-      <c r="S7" s="173"/>
-      <c r="T7" s="173"/>
-      <c r="U7" s="173"/>
-      <c r="V7" s="173"/>
-      <c r="W7" s="173"/>
-      <c r="X7" s="173"/>
-      <c r="Y7" s="173"/>
-      <c r="Z7" s="173"/>
-      <c r="AA7" s="173"/>
-      <c r="AB7" s="173"/>
-      <c r="AC7" s="173"/>
-      <c r="AD7" s="173"/>
-      <c r="AE7" s="172"/>
-      <c r="AF7" s="171" t="s">
+      <c r="R7" s="195"/>
+      <c r="S7" s="195"/>
+      <c r="T7" s="195"/>
+      <c r="U7" s="195"/>
+      <c r="V7" s="195"/>
+      <c r="W7" s="195"/>
+      <c r="X7" s="195"/>
+      <c r="Y7" s="195"/>
+      <c r="Z7" s="195"/>
+      <c r="AA7" s="195"/>
+      <c r="AB7" s="195"/>
+      <c r="AC7" s="195"/>
+      <c r="AD7" s="195"/>
+      <c r="AE7" s="194"/>
+      <c r="AF7" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="AG7" s="173"/>
-      <c r="AH7" s="173"/>
-      <c r="AI7" s="172"/>
+      <c r="AG7" s="195"/>
+      <c r="AH7" s="195"/>
+      <c r="AI7" s="194"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="216" t="s">
+      <c r="B8" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="217"/>
-      <c r="D8" s="218">
+      <c r="C8" s="182"/>
+      <c r="D8" s="183">
         <v>44795</v>
       </c>
-      <c r="E8" s="219"/>
-      <c r="F8" s="220"/>
-      <c r="G8" s="216" t="s">
+      <c r="E8" s="184"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="221"/>
-      <c r="I8" s="217"/>
-      <c r="J8" s="222"/>
-      <c r="K8" s="223"/>
-      <c r="L8" s="223"/>
-      <c r="M8" s="223"/>
-      <c r="N8" s="223"/>
-      <c r="O8" s="223"/>
-      <c r="P8" s="224"/>
-      <c r="Q8" s="222" t="s">
+      <c r="H8" s="186"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="187"/>
+      <c r="K8" s="188"/>
+      <c r="L8" s="188"/>
+      <c r="M8" s="188"/>
+      <c r="N8" s="188"/>
+      <c r="O8" s="188"/>
+      <c r="P8" s="189"/>
+      <c r="Q8" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="R8" s="223"/>
-      <c r="S8" s="223"/>
-      <c r="T8" s="223"/>
-      <c r="U8" s="223"/>
-      <c r="V8" s="223"/>
-      <c r="W8" s="223"/>
-      <c r="X8" s="223"/>
-      <c r="Y8" s="223"/>
-      <c r="Z8" s="223"/>
-      <c r="AA8" s="223"/>
-      <c r="AB8" s="223"/>
-      <c r="AC8" s="223"/>
-      <c r="AD8" s="223"/>
-      <c r="AE8" s="224"/>
-      <c r="AF8" s="210" t="s">
+      <c r="R8" s="188"/>
+      <c r="S8" s="188"/>
+      <c r="T8" s="188"/>
+      <c r="U8" s="188"/>
+      <c r="V8" s="188"/>
+      <c r="W8" s="188"/>
+      <c r="X8" s="188"/>
+      <c r="Y8" s="188"/>
+      <c r="Z8" s="188"/>
+      <c r="AA8" s="188"/>
+      <c r="AB8" s="188"/>
+      <c r="AC8" s="188"/>
+      <c r="AD8" s="188"/>
+      <c r="AE8" s="189"/>
+      <c r="AF8" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="AG8" s="211"/>
-      <c r="AH8" s="211"/>
-      <c r="AI8" s="212"/>
+      <c r="AG8" s="175"/>
+      <c r="AH8" s="175"/>
+      <c r="AI8" s="176"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="204"/>
-      <c r="C9" s="205"/>
-      <c r="D9" s="206"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="208"/>
-      <c r="G9" s="206"/>
-      <c r="H9" s="209"/>
-      <c r="I9" s="205"/>
-      <c r="J9" s="210"/>
-      <c r="K9" s="211"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="211"/>
-      <c r="N9" s="211"/>
-      <c r="O9" s="211"/>
-      <c r="P9" s="212"/>
-      <c r="Q9" s="213"/>
-      <c r="R9" s="214"/>
-      <c r="S9" s="214"/>
-      <c r="T9" s="214"/>
-      <c r="U9" s="214"/>
-      <c r="V9" s="214"/>
-      <c r="W9" s="214"/>
-      <c r="X9" s="214"/>
-      <c r="Y9" s="214"/>
-      <c r="Z9" s="214"/>
-      <c r="AA9" s="214"/>
-      <c r="AB9" s="214"/>
-      <c r="AC9" s="214"/>
-      <c r="AD9" s="214"/>
-      <c r="AE9" s="215"/>
-      <c r="AF9" s="210"/>
-      <c r="AG9" s="211"/>
-      <c r="AH9" s="211"/>
-      <c r="AI9" s="212"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="175"/>
+      <c r="L9" s="175"/>
+      <c r="M9" s="175"/>
+      <c r="N9" s="175"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="178"/>
+      <c r="S9" s="178"/>
+      <c r="T9" s="178"/>
+      <c r="U9" s="178"/>
+      <c r="V9" s="178"/>
+      <c r="W9" s="178"/>
+      <c r="X9" s="178"/>
+      <c r="Y9" s="178"/>
+      <c r="Z9" s="178"/>
+      <c r="AA9" s="178"/>
+      <c r="AB9" s="178"/>
+      <c r="AC9" s="178"/>
+      <c r="AD9" s="178"/>
+      <c r="AE9" s="179"/>
+      <c r="AF9" s="174"/>
+      <c r="AG9" s="175"/>
+      <c r="AH9" s="175"/>
+      <c r="AI9" s="176"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="204"/>
-      <c r="C10" s="205"/>
-      <c r="D10" s="206"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="208"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="209"/>
-      <c r="I10" s="205"/>
-      <c r="J10" s="210"/>
-      <c r="K10" s="211"/>
-      <c r="L10" s="211"/>
-      <c r="M10" s="211"/>
-      <c r="N10" s="211"/>
-      <c r="O10" s="211"/>
-      <c r="P10" s="212"/>
-      <c r="Q10" s="213"/>
-      <c r="R10" s="214"/>
-      <c r="S10" s="214"/>
-      <c r="T10" s="214"/>
-      <c r="U10" s="214"/>
-      <c r="V10" s="214"/>
-      <c r="W10" s="214"/>
-      <c r="X10" s="214"/>
-      <c r="Y10" s="214"/>
-      <c r="Z10" s="214"/>
-      <c r="AA10" s="214"/>
-      <c r="AB10" s="214"/>
-      <c r="AC10" s="214"/>
-      <c r="AD10" s="214"/>
-      <c r="AE10" s="215"/>
-      <c r="AF10" s="210"/>
-      <c r="AG10" s="211"/>
-      <c r="AH10" s="211"/>
-      <c r="AI10" s="212"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="175"/>
+      <c r="M10" s="175"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="175"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="178"/>
+      <c r="S10" s="178"/>
+      <c r="T10" s="178"/>
+      <c r="U10" s="178"/>
+      <c r="V10" s="178"/>
+      <c r="W10" s="178"/>
+      <c r="X10" s="178"/>
+      <c r="Y10" s="178"/>
+      <c r="Z10" s="178"/>
+      <c r="AA10" s="178"/>
+      <c r="AB10" s="178"/>
+      <c r="AC10" s="178"/>
+      <c r="AD10" s="178"/>
+      <c r="AE10" s="179"/>
+      <c r="AF10" s="174"/>
+      <c r="AG10" s="175"/>
+      <c r="AH10" s="175"/>
+      <c r="AI10" s="176"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="204"/>
-      <c r="C11" s="205"/>
-      <c r="D11" s="206"/>
-      <c r="E11" s="207"/>
-      <c r="F11" s="208"/>
-      <c r="G11" s="204"/>
-      <c r="H11" s="209"/>
-      <c r="I11" s="205"/>
-      <c r="J11" s="210"/>
-      <c r="K11" s="211"/>
-      <c r="L11" s="211"/>
-      <c r="M11" s="211"/>
-      <c r="N11" s="211"/>
-      <c r="O11" s="211"/>
-      <c r="P11" s="212"/>
-      <c r="Q11" s="213"/>
-      <c r="R11" s="214"/>
-      <c r="S11" s="214"/>
-      <c r="T11" s="214"/>
-      <c r="U11" s="214"/>
-      <c r="V11" s="214"/>
-      <c r="W11" s="214"/>
-      <c r="X11" s="214"/>
-      <c r="Y11" s="214"/>
-      <c r="Z11" s="214"/>
-      <c r="AA11" s="214"/>
-      <c r="AB11" s="214"/>
-      <c r="AC11" s="214"/>
-      <c r="AD11" s="214"/>
-      <c r="AE11" s="215"/>
-      <c r="AF11" s="210"/>
-      <c r="AG11" s="211"/>
-      <c r="AH11" s="211"/>
-      <c r="AI11" s="212"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="175"/>
+      <c r="M11" s="175"/>
+      <c r="N11" s="175"/>
+      <c r="O11" s="175"/>
+      <c r="P11" s="176"/>
+      <c r="Q11" s="177"/>
+      <c r="R11" s="178"/>
+      <c r="S11" s="178"/>
+      <c r="T11" s="178"/>
+      <c r="U11" s="178"/>
+      <c r="V11" s="178"/>
+      <c r="W11" s="178"/>
+      <c r="X11" s="178"/>
+      <c r="Y11" s="178"/>
+      <c r="Z11" s="178"/>
+      <c r="AA11" s="178"/>
+      <c r="AB11" s="178"/>
+      <c r="AC11" s="178"/>
+      <c r="AD11" s="178"/>
+      <c r="AE11" s="179"/>
+      <c r="AF11" s="174"/>
+      <c r="AG11" s="175"/>
+      <c r="AH11" s="175"/>
+      <c r="AI11" s="176"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="204"/>
-      <c r="C12" s="205"/>
-      <c r="D12" s="206"/>
-      <c r="E12" s="207"/>
-      <c r="F12" s="208"/>
-      <c r="G12" s="204"/>
-      <c r="H12" s="209"/>
-      <c r="I12" s="205"/>
-      <c r="J12" s="210"/>
-      <c r="K12" s="211"/>
-      <c r="L12" s="211"/>
-      <c r="M12" s="211"/>
-      <c r="N12" s="211"/>
-      <c r="O12" s="211"/>
-      <c r="P12" s="212"/>
-      <c r="Q12" s="213"/>
-      <c r="R12" s="214"/>
-      <c r="S12" s="214"/>
-      <c r="T12" s="214"/>
-      <c r="U12" s="214"/>
-      <c r="V12" s="214"/>
-      <c r="W12" s="214"/>
-      <c r="X12" s="214"/>
-      <c r="Y12" s="214"/>
-      <c r="Z12" s="214"/>
-      <c r="AA12" s="214"/>
-      <c r="AB12" s="214"/>
-      <c r="AC12" s="214"/>
-      <c r="AD12" s="214"/>
-      <c r="AE12" s="215"/>
-      <c r="AF12" s="210"/>
-      <c r="AG12" s="211"/>
-      <c r="AH12" s="211"/>
-      <c r="AI12" s="212"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="175"/>
+      <c r="L12" s="175"/>
+      <c r="M12" s="175"/>
+      <c r="N12" s="175"/>
+      <c r="O12" s="175"/>
+      <c r="P12" s="176"/>
+      <c r="Q12" s="177"/>
+      <c r="R12" s="178"/>
+      <c r="S12" s="178"/>
+      <c r="T12" s="178"/>
+      <c r="U12" s="178"/>
+      <c r="V12" s="178"/>
+      <c r="W12" s="178"/>
+      <c r="X12" s="178"/>
+      <c r="Y12" s="178"/>
+      <c r="Z12" s="178"/>
+      <c r="AA12" s="178"/>
+      <c r="AB12" s="178"/>
+      <c r="AC12" s="178"/>
+      <c r="AD12" s="178"/>
+      <c r="AE12" s="179"/>
+      <c r="AF12" s="174"/>
+      <c r="AG12" s="175"/>
+      <c r="AH12" s="175"/>
+      <c r="AI12" s="176"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="204"/>
-      <c r="C13" s="205"/>
-      <c r="D13" s="206"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="208"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="209"/>
-      <c r="I13" s="205"/>
-      <c r="J13" s="210"/>
-      <c r="K13" s="211"/>
-      <c r="L13" s="211"/>
-      <c r="M13" s="211"/>
-      <c r="N13" s="211"/>
-      <c r="O13" s="211"/>
-      <c r="P13" s="212"/>
-      <c r="Q13" s="213"/>
-      <c r="R13" s="214"/>
-      <c r="S13" s="214"/>
-      <c r="T13" s="214"/>
-      <c r="U13" s="214"/>
-      <c r="V13" s="214"/>
-      <c r="W13" s="214"/>
-      <c r="X13" s="214"/>
-      <c r="Y13" s="214"/>
-      <c r="Z13" s="214"/>
-      <c r="AA13" s="214"/>
-      <c r="AB13" s="214"/>
-      <c r="AC13" s="214"/>
-      <c r="AD13" s="214"/>
-      <c r="AE13" s="215"/>
-      <c r="AF13" s="210"/>
-      <c r="AG13" s="211"/>
-      <c r="AH13" s="211"/>
-      <c r="AI13" s="212"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="174"/>
+      <c r="K13" s="175"/>
+      <c r="L13" s="175"/>
+      <c r="M13" s="175"/>
+      <c r="N13" s="175"/>
+      <c r="O13" s="175"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="177"/>
+      <c r="R13" s="178"/>
+      <c r="S13" s="178"/>
+      <c r="T13" s="178"/>
+      <c r="U13" s="178"/>
+      <c r="V13" s="178"/>
+      <c r="W13" s="178"/>
+      <c r="X13" s="178"/>
+      <c r="Y13" s="178"/>
+      <c r="Z13" s="178"/>
+      <c r="AA13" s="178"/>
+      <c r="AB13" s="178"/>
+      <c r="AC13" s="178"/>
+      <c r="AD13" s="178"/>
+      <c r="AE13" s="179"/>
+      <c r="AF13" s="174"/>
+      <c r="AG13" s="175"/>
+      <c r="AH13" s="175"/>
+      <c r="AI13" s="176"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="204"/>
-      <c r="C14" s="205"/>
-      <c r="D14" s="206"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="208"/>
-      <c r="G14" s="204"/>
-      <c r="H14" s="209"/>
-      <c r="I14" s="205"/>
-      <c r="J14" s="210"/>
-      <c r="K14" s="211"/>
-      <c r="L14" s="211"/>
-      <c r="M14" s="211"/>
-      <c r="N14" s="211"/>
-      <c r="O14" s="211"/>
-      <c r="P14" s="212"/>
-      <c r="Q14" s="213"/>
-      <c r="R14" s="214"/>
-      <c r="S14" s="214"/>
-      <c r="T14" s="214"/>
-      <c r="U14" s="214"/>
-      <c r="V14" s="214"/>
-      <c r="W14" s="214"/>
-      <c r="X14" s="214"/>
-      <c r="Y14" s="214"/>
-      <c r="Z14" s="214"/>
-      <c r="AA14" s="214"/>
-      <c r="AB14" s="214"/>
-      <c r="AC14" s="214"/>
-      <c r="AD14" s="214"/>
-      <c r="AE14" s="215"/>
-      <c r="AF14" s="210"/>
-      <c r="AG14" s="211"/>
-      <c r="AH14" s="211"/>
-      <c r="AI14" s="212"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="175"/>
+      <c r="M14" s="175"/>
+      <c r="N14" s="175"/>
+      <c r="O14" s="175"/>
+      <c r="P14" s="176"/>
+      <c r="Q14" s="177"/>
+      <c r="R14" s="178"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="178"/>
+      <c r="V14" s="178"/>
+      <c r="W14" s="178"/>
+      <c r="X14" s="178"/>
+      <c r="Y14" s="178"/>
+      <c r="Z14" s="178"/>
+      <c r="AA14" s="178"/>
+      <c r="AB14" s="178"/>
+      <c r="AC14" s="178"/>
+      <c r="AD14" s="178"/>
+      <c r="AE14" s="179"/>
+      <c r="AF14" s="174"/>
+      <c r="AG14" s="175"/>
+      <c r="AH14" s="175"/>
+      <c r="AI14" s="176"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="204"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="208"/>
-      <c r="G15" s="204"/>
-      <c r="H15" s="209"/>
-      <c r="I15" s="205"/>
-      <c r="J15" s="210"/>
-      <c r="K15" s="211"/>
-      <c r="L15" s="211"/>
-      <c r="M15" s="211"/>
-      <c r="N15" s="211"/>
-      <c r="O15" s="211"/>
-      <c r="P15" s="212"/>
-      <c r="Q15" s="213"/>
-      <c r="R15" s="214"/>
-      <c r="S15" s="214"/>
-      <c r="T15" s="214"/>
-      <c r="U15" s="214"/>
-      <c r="V15" s="214"/>
-      <c r="W15" s="214"/>
-      <c r="X15" s="214"/>
-      <c r="Y15" s="214"/>
-      <c r="Z15" s="214"/>
-      <c r="AA15" s="214"/>
-      <c r="AB15" s="214"/>
-      <c r="AC15" s="214"/>
-      <c r="AD15" s="214"/>
-      <c r="AE15" s="215"/>
-      <c r="AF15" s="210"/>
-      <c r="AG15" s="211"/>
-      <c r="AH15" s="211"/>
-      <c r="AI15" s="212"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="175"/>
+      <c r="M15" s="175"/>
+      <c r="N15" s="175"/>
+      <c r="O15" s="175"/>
+      <c r="P15" s="176"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="178"/>
+      <c r="S15" s="178"/>
+      <c r="T15" s="178"/>
+      <c r="U15" s="178"/>
+      <c r="V15" s="178"/>
+      <c r="W15" s="178"/>
+      <c r="X15" s="178"/>
+      <c r="Y15" s="178"/>
+      <c r="Z15" s="178"/>
+      <c r="AA15" s="178"/>
+      <c r="AB15" s="178"/>
+      <c r="AC15" s="178"/>
+      <c r="AD15" s="178"/>
+      <c r="AE15" s="179"/>
+      <c r="AF15" s="174"/>
+      <c r="AG15" s="175"/>
+      <c r="AH15" s="175"/>
+      <c r="AI15" s="176"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="204"/>
-      <c r="C16" s="205"/>
-      <c r="D16" s="206"/>
-      <c r="E16" s="207"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="209"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="210"/>
-      <c r="K16" s="211"/>
-      <c r="L16" s="211"/>
-      <c r="M16" s="211"/>
-      <c r="N16" s="211"/>
-      <c r="O16" s="211"/>
-      <c r="P16" s="212"/>
-      <c r="Q16" s="213"/>
-      <c r="R16" s="214"/>
-      <c r="S16" s="214"/>
-      <c r="T16" s="214"/>
-      <c r="U16" s="214"/>
-      <c r="V16" s="214"/>
-      <c r="W16" s="214"/>
-      <c r="X16" s="214"/>
-      <c r="Y16" s="214"/>
-      <c r="Z16" s="214"/>
-      <c r="AA16" s="214"/>
-      <c r="AB16" s="214"/>
-      <c r="AC16" s="214"/>
-      <c r="AD16" s="214"/>
-      <c r="AE16" s="215"/>
-      <c r="AF16" s="210"/>
-      <c r="AG16" s="211"/>
-      <c r="AH16" s="211"/>
-      <c r="AI16" s="212"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="175"/>
+      <c r="O16" s="175"/>
+      <c r="P16" s="176"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="178"/>
+      <c r="S16" s="178"/>
+      <c r="T16" s="178"/>
+      <c r="U16" s="178"/>
+      <c r="V16" s="178"/>
+      <c r="W16" s="178"/>
+      <c r="X16" s="178"/>
+      <c r="Y16" s="178"/>
+      <c r="Z16" s="178"/>
+      <c r="AA16" s="178"/>
+      <c r="AB16" s="178"/>
+      <c r="AC16" s="178"/>
+      <c r="AD16" s="178"/>
+      <c r="AE16" s="179"/>
+      <c r="AF16" s="174"/>
+      <c r="AG16" s="175"/>
+      <c r="AH16" s="175"/>
+      <c r="AI16" s="176"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="204"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="206"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="208"/>
-      <c r="G17" s="204"/>
-      <c r="H17" s="209"/>
-      <c r="I17" s="205"/>
-      <c r="J17" s="210"/>
-      <c r="K17" s="211"/>
-      <c r="L17" s="211"/>
-      <c r="M17" s="211"/>
-      <c r="N17" s="211"/>
-      <c r="O17" s="211"/>
-      <c r="P17" s="212"/>
-      <c r="Q17" s="213"/>
-      <c r="R17" s="214"/>
-      <c r="S17" s="214"/>
-      <c r="T17" s="214"/>
-      <c r="U17" s="214"/>
-      <c r="V17" s="214"/>
-      <c r="W17" s="214"/>
-      <c r="X17" s="214"/>
-      <c r="Y17" s="214"/>
-      <c r="Z17" s="214"/>
-      <c r="AA17" s="214"/>
-      <c r="AB17" s="214"/>
-      <c r="AC17" s="214"/>
-      <c r="AD17" s="214"/>
-      <c r="AE17" s="215"/>
-      <c r="AF17" s="210"/>
-      <c r="AG17" s="211"/>
-      <c r="AH17" s="211"/>
-      <c r="AI17" s="212"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="174"/>
+      <c r="K17" s="175"/>
+      <c r="L17" s="175"/>
+      <c r="M17" s="175"/>
+      <c r="N17" s="175"/>
+      <c r="O17" s="175"/>
+      <c r="P17" s="176"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="178"/>
+      <c r="S17" s="178"/>
+      <c r="T17" s="178"/>
+      <c r="U17" s="178"/>
+      <c r="V17" s="178"/>
+      <c r="W17" s="178"/>
+      <c r="X17" s="178"/>
+      <c r="Y17" s="178"/>
+      <c r="Z17" s="178"/>
+      <c r="AA17" s="178"/>
+      <c r="AB17" s="178"/>
+      <c r="AC17" s="178"/>
+      <c r="AD17" s="178"/>
+      <c r="AE17" s="179"/>
+      <c r="AF17" s="174"/>
+      <c r="AG17" s="175"/>
+      <c r="AH17" s="175"/>
+      <c r="AI17" s="176"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="204"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="206"/>
-      <c r="E18" s="207"/>
-      <c r="F18" s="208"/>
-      <c r="G18" s="204"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="205"/>
-      <c r="J18" s="210"/>
-      <c r="K18" s="211"/>
-      <c r="L18" s="211"/>
-      <c r="M18" s="211"/>
-      <c r="N18" s="211"/>
-      <c r="O18" s="211"/>
-      <c r="P18" s="212"/>
-      <c r="Q18" s="213"/>
-      <c r="R18" s="214"/>
-      <c r="S18" s="214"/>
-      <c r="T18" s="214"/>
-      <c r="U18" s="214"/>
-      <c r="V18" s="214"/>
-      <c r="W18" s="214"/>
-      <c r="X18" s="214"/>
-      <c r="Y18" s="214"/>
-      <c r="Z18" s="214"/>
-      <c r="AA18" s="214"/>
-      <c r="AB18" s="214"/>
-      <c r="AC18" s="214"/>
-      <c r="AD18" s="214"/>
-      <c r="AE18" s="215"/>
-      <c r="AF18" s="210"/>
-      <c r="AG18" s="211"/>
-      <c r="AH18" s="211"/>
-      <c r="AI18" s="212"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="175"/>
+      <c r="M18" s="175"/>
+      <c r="N18" s="175"/>
+      <c r="O18" s="175"/>
+      <c r="P18" s="176"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="178"/>
+      <c r="S18" s="178"/>
+      <c r="T18" s="178"/>
+      <c r="U18" s="178"/>
+      <c r="V18" s="178"/>
+      <c r="W18" s="178"/>
+      <c r="X18" s="178"/>
+      <c r="Y18" s="178"/>
+      <c r="Z18" s="178"/>
+      <c r="AA18" s="178"/>
+      <c r="AB18" s="178"/>
+      <c r="AC18" s="178"/>
+      <c r="AD18" s="178"/>
+      <c r="AE18" s="179"/>
+      <c r="AF18" s="174"/>
+      <c r="AG18" s="175"/>
+      <c r="AH18" s="175"/>
+      <c r="AI18" s="176"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="204"/>
-      <c r="C19" s="205"/>
-      <c r="D19" s="206"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="208"/>
-      <c r="G19" s="204"/>
-      <c r="H19" s="209"/>
-      <c r="I19" s="205"/>
-      <c r="J19" s="210"/>
-      <c r="K19" s="211"/>
-      <c r="L19" s="211"/>
-      <c r="M19" s="211"/>
-      <c r="N19" s="211"/>
-      <c r="O19" s="211"/>
-      <c r="P19" s="212"/>
-      <c r="Q19" s="213"/>
-      <c r="R19" s="214"/>
-      <c r="S19" s="214"/>
-      <c r="T19" s="214"/>
-      <c r="U19" s="214"/>
-      <c r="V19" s="214"/>
-      <c r="W19" s="214"/>
-      <c r="X19" s="214"/>
-      <c r="Y19" s="214"/>
-      <c r="Z19" s="214"/>
-      <c r="AA19" s="214"/>
-      <c r="AB19" s="214"/>
-      <c r="AC19" s="214"/>
-      <c r="AD19" s="214"/>
-      <c r="AE19" s="215"/>
-      <c r="AF19" s="210"/>
-      <c r="AG19" s="211"/>
-      <c r="AH19" s="211"/>
-      <c r="AI19" s="212"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="169"/>
+      <c r="J19" s="174"/>
+      <c r="K19" s="175"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="175"/>
+      <c r="N19" s="175"/>
+      <c r="O19" s="175"/>
+      <c r="P19" s="176"/>
+      <c r="Q19" s="177"/>
+      <c r="R19" s="178"/>
+      <c r="S19" s="178"/>
+      <c r="T19" s="178"/>
+      <c r="U19" s="178"/>
+      <c r="V19" s="178"/>
+      <c r="W19" s="178"/>
+      <c r="X19" s="178"/>
+      <c r="Y19" s="178"/>
+      <c r="Z19" s="178"/>
+      <c r="AA19" s="178"/>
+      <c r="AB19" s="178"/>
+      <c r="AC19" s="178"/>
+      <c r="AD19" s="178"/>
+      <c r="AE19" s="179"/>
+      <c r="AF19" s="174"/>
+      <c r="AG19" s="175"/>
+      <c r="AH19" s="175"/>
+      <c r="AI19" s="176"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="204"/>
-      <c r="C20" s="205"/>
-      <c r="D20" s="206"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="208"/>
-      <c r="G20" s="204"/>
-      <c r="H20" s="209"/>
-      <c r="I20" s="205"/>
-      <c r="J20" s="210"/>
-      <c r="K20" s="211"/>
-      <c r="L20" s="211"/>
-      <c r="M20" s="211"/>
-      <c r="N20" s="211"/>
-      <c r="O20" s="211"/>
-      <c r="P20" s="212"/>
-      <c r="Q20" s="213"/>
-      <c r="R20" s="214"/>
-      <c r="S20" s="214"/>
-      <c r="T20" s="214"/>
-      <c r="U20" s="214"/>
-      <c r="V20" s="214"/>
-      <c r="W20" s="214"/>
-      <c r="X20" s="214"/>
-      <c r="Y20" s="214"/>
-      <c r="Z20" s="214"/>
-      <c r="AA20" s="214"/>
-      <c r="AB20" s="214"/>
-      <c r="AC20" s="214"/>
-      <c r="AD20" s="214"/>
-      <c r="AE20" s="215"/>
-      <c r="AF20" s="210"/>
-      <c r="AG20" s="211"/>
-      <c r="AH20" s="211"/>
-      <c r="AI20" s="212"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="174"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="175"/>
+      <c r="M20" s="175"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="175"/>
+      <c r="P20" s="176"/>
+      <c r="Q20" s="177"/>
+      <c r="R20" s="178"/>
+      <c r="S20" s="178"/>
+      <c r="T20" s="178"/>
+      <c r="U20" s="178"/>
+      <c r="V20" s="178"/>
+      <c r="W20" s="178"/>
+      <c r="X20" s="178"/>
+      <c r="Y20" s="178"/>
+      <c r="Z20" s="178"/>
+      <c r="AA20" s="178"/>
+      <c r="AB20" s="178"/>
+      <c r="AC20" s="178"/>
+      <c r="AD20" s="178"/>
+      <c r="AE20" s="179"/>
+      <c r="AF20" s="174"/>
+      <c r="AG20" s="175"/>
+      <c r="AH20" s="175"/>
+      <c r="AI20" s="176"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="204"/>
-      <c r="C21" s="205"/>
-      <c r="D21" s="206"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="208"/>
-      <c r="G21" s="204"/>
-      <c r="H21" s="209"/>
-      <c r="I21" s="205"/>
-      <c r="J21" s="210"/>
-      <c r="K21" s="211"/>
-      <c r="L21" s="211"/>
-      <c r="M21" s="211"/>
-      <c r="N21" s="211"/>
-      <c r="O21" s="211"/>
-      <c r="P21" s="212"/>
-      <c r="Q21" s="213"/>
-      <c r="R21" s="214"/>
-      <c r="S21" s="214"/>
-      <c r="T21" s="214"/>
-      <c r="U21" s="214"/>
-      <c r="V21" s="214"/>
-      <c r="W21" s="214"/>
-      <c r="X21" s="214"/>
-      <c r="Y21" s="214"/>
-      <c r="Z21" s="214"/>
-      <c r="AA21" s="214"/>
-      <c r="AB21" s="214"/>
-      <c r="AC21" s="214"/>
-      <c r="AD21" s="214"/>
-      <c r="AE21" s="215"/>
-      <c r="AF21" s="210"/>
-      <c r="AG21" s="211"/>
-      <c r="AH21" s="211"/>
-      <c r="AI21" s="212"/>
+      <c r="B21" s="168"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="174"/>
+      <c r="K21" s="175"/>
+      <c r="L21" s="175"/>
+      <c r="M21" s="175"/>
+      <c r="N21" s="175"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="176"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="178"/>
+      <c r="S21" s="178"/>
+      <c r="T21" s="178"/>
+      <c r="U21" s="178"/>
+      <c r="V21" s="178"/>
+      <c r="W21" s="178"/>
+      <c r="X21" s="178"/>
+      <c r="Y21" s="178"/>
+      <c r="Z21" s="178"/>
+      <c r="AA21" s="178"/>
+      <c r="AB21" s="178"/>
+      <c r="AC21" s="178"/>
+      <c r="AD21" s="178"/>
+      <c r="AE21" s="179"/>
+      <c r="AF21" s="174"/>
+      <c r="AG21" s="175"/>
+      <c r="AH21" s="175"/>
+      <c r="AI21" s="176"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="204"/>
-      <c r="C22" s="205"/>
-      <c r="D22" s="206"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="208"/>
-      <c r="G22" s="204"/>
-      <c r="H22" s="209"/>
-      <c r="I22" s="205"/>
-      <c r="J22" s="210"/>
-      <c r="K22" s="211"/>
-      <c r="L22" s="211"/>
-      <c r="M22" s="211"/>
-      <c r="N22" s="211"/>
-      <c r="O22" s="211"/>
-      <c r="P22" s="212"/>
-      <c r="Q22" s="213"/>
-      <c r="R22" s="214"/>
-      <c r="S22" s="214"/>
-      <c r="T22" s="214"/>
-      <c r="U22" s="214"/>
-      <c r="V22" s="214"/>
-      <c r="W22" s="214"/>
-      <c r="X22" s="214"/>
-      <c r="Y22" s="214"/>
-      <c r="Z22" s="214"/>
-      <c r="AA22" s="214"/>
-      <c r="AB22" s="214"/>
-      <c r="AC22" s="214"/>
-      <c r="AD22" s="214"/>
-      <c r="AE22" s="215"/>
-      <c r="AF22" s="210"/>
-      <c r="AG22" s="211"/>
-      <c r="AH22" s="211"/>
-      <c r="AI22" s="212"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="175"/>
+      <c r="M22" s="175"/>
+      <c r="N22" s="175"/>
+      <c r="O22" s="175"/>
+      <c r="P22" s="176"/>
+      <c r="Q22" s="177"/>
+      <c r="R22" s="178"/>
+      <c r="S22" s="178"/>
+      <c r="T22" s="178"/>
+      <c r="U22" s="178"/>
+      <c r="V22" s="178"/>
+      <c r="W22" s="178"/>
+      <c r="X22" s="178"/>
+      <c r="Y22" s="178"/>
+      <c r="Z22" s="178"/>
+      <c r="AA22" s="178"/>
+      <c r="AB22" s="178"/>
+      <c r="AC22" s="178"/>
+      <c r="AD22" s="178"/>
+      <c r="AE22" s="179"/>
+      <c r="AF22" s="174"/>
+      <c r="AG22" s="175"/>
+      <c r="AH22" s="175"/>
+      <c r="AI22" s="176"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="204"/>
-      <c r="C23" s="205"/>
-      <c r="D23" s="206"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="208"/>
-      <c r="G23" s="204"/>
-      <c r="H23" s="209"/>
-      <c r="I23" s="205"/>
-      <c r="J23" s="210"/>
-      <c r="K23" s="211"/>
-      <c r="L23" s="211"/>
-      <c r="M23" s="211"/>
-      <c r="N23" s="211"/>
-      <c r="O23" s="211"/>
-      <c r="P23" s="212"/>
-      <c r="Q23" s="213"/>
-      <c r="R23" s="214"/>
-      <c r="S23" s="214"/>
-      <c r="T23" s="214"/>
-      <c r="U23" s="214"/>
-      <c r="V23" s="214"/>
-      <c r="W23" s="214"/>
-      <c r="X23" s="214"/>
-      <c r="Y23" s="214"/>
-      <c r="Z23" s="214"/>
-      <c r="AA23" s="214"/>
-      <c r="AB23" s="214"/>
-      <c r="AC23" s="214"/>
-      <c r="AD23" s="214"/>
-      <c r="AE23" s="215"/>
-      <c r="AF23" s="210"/>
-      <c r="AG23" s="211"/>
-      <c r="AH23" s="211"/>
-      <c r="AI23" s="212"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="174"/>
+      <c r="K23" s="175"/>
+      <c r="L23" s="175"/>
+      <c r="M23" s="175"/>
+      <c r="N23" s="175"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="176"/>
+      <c r="Q23" s="177"/>
+      <c r="R23" s="178"/>
+      <c r="S23" s="178"/>
+      <c r="T23" s="178"/>
+      <c r="U23" s="178"/>
+      <c r="V23" s="178"/>
+      <c r="W23" s="178"/>
+      <c r="X23" s="178"/>
+      <c r="Y23" s="178"/>
+      <c r="Z23" s="178"/>
+      <c r="AA23" s="178"/>
+      <c r="AB23" s="178"/>
+      <c r="AC23" s="178"/>
+      <c r="AD23" s="178"/>
+      <c r="AE23" s="179"/>
+      <c r="AF23" s="174"/>
+      <c r="AG23" s="175"/>
+      <c r="AH23" s="175"/>
+      <c r="AI23" s="176"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="204"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="206"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="208"/>
-      <c r="G24" s="204"/>
-      <c r="H24" s="209"/>
-      <c r="I24" s="205"/>
-      <c r="J24" s="210"/>
-      <c r="K24" s="211"/>
-      <c r="L24" s="211"/>
-      <c r="M24" s="211"/>
-      <c r="N24" s="211"/>
-      <c r="O24" s="211"/>
-      <c r="P24" s="212"/>
-      <c r="Q24" s="213"/>
-      <c r="R24" s="214"/>
-      <c r="S24" s="214"/>
-      <c r="T24" s="214"/>
-      <c r="U24" s="214"/>
-      <c r="V24" s="214"/>
-      <c r="W24" s="214"/>
-      <c r="X24" s="214"/>
-      <c r="Y24" s="214"/>
-      <c r="Z24" s="214"/>
-      <c r="AA24" s="214"/>
-      <c r="AB24" s="214"/>
-      <c r="AC24" s="214"/>
-      <c r="AD24" s="214"/>
-      <c r="AE24" s="215"/>
-      <c r="AF24" s="210"/>
-      <c r="AG24" s="211"/>
-      <c r="AH24" s="211"/>
-      <c r="AI24" s="212"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="175"/>
+      <c r="M24" s="175"/>
+      <c r="N24" s="175"/>
+      <c r="O24" s="175"/>
+      <c r="P24" s="176"/>
+      <c r="Q24" s="177"/>
+      <c r="R24" s="178"/>
+      <c r="S24" s="178"/>
+      <c r="T24" s="178"/>
+      <c r="U24" s="178"/>
+      <c r="V24" s="178"/>
+      <c r="W24" s="178"/>
+      <c r="X24" s="178"/>
+      <c r="Y24" s="178"/>
+      <c r="Z24" s="178"/>
+      <c r="AA24" s="178"/>
+      <c r="AB24" s="178"/>
+      <c r="AC24" s="178"/>
+      <c r="AD24" s="178"/>
+      <c r="AE24" s="179"/>
+      <c r="AF24" s="174"/>
+      <c r="AG24" s="175"/>
+      <c r="AH24" s="175"/>
+      <c r="AI24" s="176"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="204"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="206"/>
-      <c r="E25" s="207"/>
-      <c r="F25" s="208"/>
-      <c r="G25" s="204"/>
-      <c r="H25" s="209"/>
-      <c r="I25" s="205"/>
-      <c r="J25" s="210"/>
-      <c r="K25" s="211"/>
-      <c r="L25" s="211"/>
-      <c r="M25" s="211"/>
-      <c r="N25" s="211"/>
-      <c r="O25" s="211"/>
-      <c r="P25" s="212"/>
-      <c r="Q25" s="213"/>
-      <c r="R25" s="214"/>
-      <c r="S25" s="214"/>
-      <c r="T25" s="214"/>
-      <c r="U25" s="214"/>
-      <c r="V25" s="214"/>
-      <c r="W25" s="214"/>
-      <c r="X25" s="214"/>
-      <c r="Y25" s="214"/>
-      <c r="Z25" s="214"/>
-      <c r="AA25" s="214"/>
-      <c r="AB25" s="214"/>
-      <c r="AC25" s="214"/>
-      <c r="AD25" s="214"/>
-      <c r="AE25" s="215"/>
-      <c r="AF25" s="210"/>
-      <c r="AG25" s="211"/>
-      <c r="AH25" s="211"/>
-      <c r="AI25" s="212"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="174"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="175"/>
+      <c r="M25" s="175"/>
+      <c r="N25" s="175"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="176"/>
+      <c r="Q25" s="177"/>
+      <c r="R25" s="178"/>
+      <c r="S25" s="178"/>
+      <c r="T25" s="178"/>
+      <c r="U25" s="178"/>
+      <c r="V25" s="178"/>
+      <c r="W25" s="178"/>
+      <c r="X25" s="178"/>
+      <c r="Y25" s="178"/>
+      <c r="Z25" s="178"/>
+      <c r="AA25" s="178"/>
+      <c r="AB25" s="178"/>
+      <c r="AC25" s="178"/>
+      <c r="AD25" s="178"/>
+      <c r="AE25" s="179"/>
+      <c r="AF25" s="174"/>
+      <c r="AG25" s="175"/>
+      <c r="AH25" s="175"/>
+      <c r="AI25" s="176"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="204"/>
-      <c r="C26" s="205"/>
-      <c r="D26" s="206"/>
-      <c r="E26" s="207"/>
-      <c r="F26" s="208"/>
-      <c r="G26" s="204"/>
-      <c r="H26" s="209"/>
-      <c r="I26" s="205"/>
-      <c r="J26" s="210"/>
-      <c r="K26" s="211"/>
-      <c r="L26" s="211"/>
-      <c r="M26" s="211"/>
-      <c r="N26" s="211"/>
-      <c r="O26" s="211"/>
-      <c r="P26" s="212"/>
-      <c r="Q26" s="213"/>
-      <c r="R26" s="214"/>
-      <c r="S26" s="214"/>
-      <c r="T26" s="214"/>
-      <c r="U26" s="214"/>
-      <c r="V26" s="214"/>
-      <c r="W26" s="214"/>
-      <c r="X26" s="214"/>
-      <c r="Y26" s="214"/>
-      <c r="Z26" s="214"/>
-      <c r="AA26" s="214"/>
-      <c r="AB26" s="214"/>
-      <c r="AC26" s="214"/>
-      <c r="AD26" s="214"/>
-      <c r="AE26" s="215"/>
-      <c r="AF26" s="210"/>
-      <c r="AG26" s="211"/>
-      <c r="AH26" s="211"/>
-      <c r="AI26" s="212"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="174"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="175"/>
+      <c r="M26" s="175"/>
+      <c r="N26" s="175"/>
+      <c r="O26" s="175"/>
+      <c r="P26" s="176"/>
+      <c r="Q26" s="177"/>
+      <c r="R26" s="178"/>
+      <c r="S26" s="178"/>
+      <c r="T26" s="178"/>
+      <c r="U26" s="178"/>
+      <c r="V26" s="178"/>
+      <c r="W26" s="178"/>
+      <c r="X26" s="178"/>
+      <c r="Y26" s="178"/>
+      <c r="Z26" s="178"/>
+      <c r="AA26" s="178"/>
+      <c r="AB26" s="178"/>
+      <c r="AC26" s="178"/>
+      <c r="AD26" s="178"/>
+      <c r="AE26" s="179"/>
+      <c r="AF26" s="174"/>
+      <c r="AG26" s="175"/>
+      <c r="AH26" s="175"/>
+      <c r="AI26" s="176"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="204"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="206"/>
-      <c r="E27" s="207"/>
-      <c r="F27" s="208"/>
-      <c r="G27" s="204"/>
-      <c r="H27" s="209"/>
-      <c r="I27" s="205"/>
-      <c r="J27" s="210"/>
-      <c r="K27" s="211"/>
-      <c r="L27" s="211"/>
-      <c r="M27" s="211"/>
-      <c r="N27" s="211"/>
-      <c r="O27" s="211"/>
-      <c r="P27" s="212"/>
-      <c r="Q27" s="213"/>
-      <c r="R27" s="214"/>
-      <c r="S27" s="214"/>
-      <c r="T27" s="214"/>
-      <c r="U27" s="214"/>
-      <c r="V27" s="214"/>
-      <c r="W27" s="214"/>
-      <c r="X27" s="214"/>
-      <c r="Y27" s="214"/>
-      <c r="Z27" s="214"/>
-      <c r="AA27" s="214"/>
-      <c r="AB27" s="214"/>
-      <c r="AC27" s="214"/>
-      <c r="AD27" s="214"/>
-      <c r="AE27" s="215"/>
-      <c r="AF27" s="210"/>
-      <c r="AG27" s="211"/>
-      <c r="AH27" s="211"/>
-      <c r="AI27" s="212"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="169"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="172"/>
+      <c r="G27" s="168"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="175"/>
+      <c r="M27" s="175"/>
+      <c r="N27" s="175"/>
+      <c r="O27" s="175"/>
+      <c r="P27" s="176"/>
+      <c r="Q27" s="177"/>
+      <c r="R27" s="178"/>
+      <c r="S27" s="178"/>
+      <c r="T27" s="178"/>
+      <c r="U27" s="178"/>
+      <c r="V27" s="178"/>
+      <c r="W27" s="178"/>
+      <c r="X27" s="178"/>
+      <c r="Y27" s="178"/>
+      <c r="Z27" s="178"/>
+      <c r="AA27" s="178"/>
+      <c r="AB27" s="178"/>
+      <c r="AC27" s="178"/>
+      <c r="AD27" s="178"/>
+      <c r="AE27" s="179"/>
+      <c r="AF27" s="174"/>
+      <c r="AG27" s="175"/>
+      <c r="AH27" s="175"/>
+      <c r="AI27" s="176"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="204"/>
-      <c r="C28" s="205"/>
-      <c r="D28" s="206"/>
-      <c r="E28" s="207"/>
-      <c r="F28" s="208"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="209"/>
-      <c r="I28" s="205"/>
-      <c r="J28" s="210"/>
-      <c r="K28" s="211"/>
-      <c r="L28" s="211"/>
-      <c r="M28" s="211"/>
-      <c r="N28" s="211"/>
-      <c r="O28" s="211"/>
-      <c r="P28" s="212"/>
-      <c r="Q28" s="213"/>
-      <c r="R28" s="214"/>
-      <c r="S28" s="214"/>
-      <c r="T28" s="214"/>
-      <c r="U28" s="214"/>
-      <c r="V28" s="214"/>
-      <c r="W28" s="214"/>
-      <c r="X28" s="214"/>
-      <c r="Y28" s="214"/>
-      <c r="Z28" s="214"/>
-      <c r="AA28" s="214"/>
-      <c r="AB28" s="214"/>
-      <c r="AC28" s="214"/>
-      <c r="AD28" s="214"/>
-      <c r="AE28" s="215"/>
-      <c r="AF28" s="210"/>
-      <c r="AG28" s="211"/>
-      <c r="AH28" s="211"/>
-      <c r="AI28" s="212"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="174"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="175"/>
+      <c r="M28" s="175"/>
+      <c r="N28" s="175"/>
+      <c r="O28" s="175"/>
+      <c r="P28" s="176"/>
+      <c r="Q28" s="177"/>
+      <c r="R28" s="178"/>
+      <c r="S28" s="178"/>
+      <c r="T28" s="178"/>
+      <c r="U28" s="178"/>
+      <c r="V28" s="178"/>
+      <c r="W28" s="178"/>
+      <c r="X28" s="178"/>
+      <c r="Y28" s="178"/>
+      <c r="Z28" s="178"/>
+      <c r="AA28" s="178"/>
+      <c r="AB28" s="178"/>
+      <c r="AC28" s="178"/>
+      <c r="AD28" s="178"/>
+      <c r="AE28" s="179"/>
+      <c r="AF28" s="174"/>
+      <c r="AG28" s="175"/>
+      <c r="AH28" s="175"/>
+      <c r="AI28" s="176"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="204"/>
-      <c r="C29" s="205"/>
-      <c r="D29" s="206"/>
-      <c r="E29" s="207"/>
-      <c r="F29" s="208"/>
-      <c r="G29" s="204"/>
-      <c r="H29" s="209"/>
-      <c r="I29" s="205"/>
-      <c r="J29" s="210"/>
-      <c r="K29" s="211"/>
-      <c r="L29" s="211"/>
-      <c r="M29" s="211"/>
-      <c r="N29" s="211"/>
-      <c r="O29" s="211"/>
-      <c r="P29" s="212"/>
-      <c r="Q29" s="213"/>
-      <c r="R29" s="214"/>
-      <c r="S29" s="214"/>
-      <c r="T29" s="214"/>
-      <c r="U29" s="214"/>
-      <c r="V29" s="214"/>
-      <c r="W29" s="214"/>
-      <c r="X29" s="214"/>
-      <c r="Y29" s="214"/>
-      <c r="Z29" s="214"/>
-      <c r="AA29" s="214"/>
-      <c r="AB29" s="214"/>
-      <c r="AC29" s="214"/>
-      <c r="AD29" s="214"/>
-      <c r="AE29" s="215"/>
-      <c r="AF29" s="210"/>
-      <c r="AG29" s="211"/>
-      <c r="AH29" s="211"/>
-      <c r="AI29" s="212"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="169"/>
+      <c r="J29" s="174"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="175"/>
+      <c r="M29" s="175"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="176"/>
+      <c r="Q29" s="177"/>
+      <c r="R29" s="178"/>
+      <c r="S29" s="178"/>
+      <c r="T29" s="178"/>
+      <c r="U29" s="178"/>
+      <c r="V29" s="178"/>
+      <c r="W29" s="178"/>
+      <c r="X29" s="178"/>
+      <c r="Y29" s="178"/>
+      <c r="Z29" s="178"/>
+      <c r="AA29" s="178"/>
+      <c r="AB29" s="178"/>
+      <c r="AC29" s="178"/>
+      <c r="AD29" s="178"/>
+      <c r="AE29" s="179"/>
+      <c r="AF29" s="174"/>
+      <c r="AG29" s="175"/>
+      <c r="AH29" s="175"/>
+      <c r="AI29" s="176"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="204"/>
-      <c r="C30" s="205"/>
-      <c r="D30" s="206"/>
-      <c r="E30" s="207"/>
-      <c r="F30" s="208"/>
-      <c r="G30" s="204"/>
-      <c r="H30" s="209"/>
-      <c r="I30" s="205"/>
-      <c r="J30" s="210"/>
-      <c r="K30" s="211"/>
-      <c r="L30" s="211"/>
-      <c r="M30" s="211"/>
-      <c r="N30" s="211"/>
-      <c r="O30" s="211"/>
-      <c r="P30" s="212"/>
-      <c r="Q30" s="213"/>
-      <c r="R30" s="214"/>
-      <c r="S30" s="214"/>
-      <c r="T30" s="214"/>
-      <c r="U30" s="214"/>
-      <c r="V30" s="214"/>
-      <c r="W30" s="214"/>
-      <c r="X30" s="214"/>
-      <c r="Y30" s="214"/>
-      <c r="Z30" s="214"/>
-      <c r="AA30" s="214"/>
-      <c r="AB30" s="214"/>
-      <c r="AC30" s="214"/>
-      <c r="AD30" s="214"/>
-      <c r="AE30" s="215"/>
-      <c r="AF30" s="210"/>
-      <c r="AG30" s="211"/>
-      <c r="AH30" s="211"/>
-      <c r="AI30" s="212"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="169"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="175"/>
+      <c r="L30" s="175"/>
+      <c r="M30" s="175"/>
+      <c r="N30" s="175"/>
+      <c r="O30" s="175"/>
+      <c r="P30" s="176"/>
+      <c r="Q30" s="177"/>
+      <c r="R30" s="178"/>
+      <c r="S30" s="178"/>
+      <c r="T30" s="178"/>
+      <c r="U30" s="178"/>
+      <c r="V30" s="178"/>
+      <c r="W30" s="178"/>
+      <c r="X30" s="178"/>
+      <c r="Y30" s="178"/>
+      <c r="Z30" s="178"/>
+      <c r="AA30" s="178"/>
+      <c r="AB30" s="178"/>
+      <c r="AC30" s="178"/>
+      <c r="AD30" s="178"/>
+      <c r="AE30" s="179"/>
+      <c r="AF30" s="174"/>
+      <c r="AG30" s="175"/>
+      <c r="AH30" s="175"/>
+      <c r="AI30" s="176"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="204"/>
-      <c r="C31" s="205"/>
-      <c r="D31" s="206"/>
-      <c r="E31" s="207"/>
-      <c r="F31" s="208"/>
-      <c r="G31" s="204"/>
-      <c r="H31" s="209"/>
-      <c r="I31" s="205"/>
-      <c r="J31" s="210"/>
-      <c r="K31" s="211"/>
-      <c r="L31" s="211"/>
-      <c r="M31" s="211"/>
-      <c r="N31" s="211"/>
-      <c r="O31" s="211"/>
-      <c r="P31" s="212"/>
-      <c r="Q31" s="213"/>
-      <c r="R31" s="214"/>
-      <c r="S31" s="214"/>
-      <c r="T31" s="214"/>
-      <c r="U31" s="214"/>
-      <c r="V31" s="214"/>
-      <c r="W31" s="214"/>
-      <c r="X31" s="214"/>
-      <c r="Y31" s="214"/>
-      <c r="Z31" s="214"/>
-      <c r="AA31" s="214"/>
-      <c r="AB31" s="214"/>
-      <c r="AC31" s="214"/>
-      <c r="AD31" s="214"/>
-      <c r="AE31" s="215"/>
-      <c r="AF31" s="210"/>
-      <c r="AG31" s="211"/>
-      <c r="AH31" s="211"/>
-      <c r="AI31" s="212"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="169"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="169"/>
+      <c r="J31" s="174"/>
+      <c r="K31" s="175"/>
+      <c r="L31" s="175"/>
+      <c r="M31" s="175"/>
+      <c r="N31" s="175"/>
+      <c r="O31" s="175"/>
+      <c r="P31" s="176"/>
+      <c r="Q31" s="177"/>
+      <c r="R31" s="178"/>
+      <c r="S31" s="178"/>
+      <c r="T31" s="178"/>
+      <c r="U31" s="178"/>
+      <c r="V31" s="178"/>
+      <c r="W31" s="178"/>
+      <c r="X31" s="178"/>
+      <c r="Y31" s="178"/>
+      <c r="Z31" s="178"/>
+      <c r="AA31" s="178"/>
+      <c r="AB31" s="178"/>
+      <c r="AC31" s="178"/>
+      <c r="AD31" s="178"/>
+      <c r="AE31" s="179"/>
+      <c r="AF31" s="174"/>
+      <c r="AG31" s="175"/>
+      <c r="AH31" s="175"/>
+      <c r="AI31" s="176"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="204"/>
-      <c r="C32" s="205"/>
-      <c r="D32" s="206"/>
-      <c r="E32" s="207"/>
-      <c r="F32" s="208"/>
-      <c r="G32" s="204"/>
-      <c r="H32" s="209"/>
-      <c r="I32" s="205"/>
-      <c r="J32" s="210"/>
-      <c r="K32" s="225"/>
-      <c r="L32" s="211"/>
-      <c r="M32" s="211"/>
-      <c r="N32" s="211"/>
-      <c r="O32" s="211"/>
-      <c r="P32" s="212"/>
-      <c r="Q32" s="213"/>
-      <c r="R32" s="214"/>
-      <c r="S32" s="214"/>
-      <c r="T32" s="214"/>
-      <c r="U32" s="214"/>
-      <c r="V32" s="214"/>
-      <c r="W32" s="214"/>
-      <c r="X32" s="214"/>
-      <c r="Y32" s="214"/>
-      <c r="Z32" s="214"/>
-      <c r="AA32" s="214"/>
-      <c r="AB32" s="214"/>
-      <c r="AC32" s="214"/>
-      <c r="AD32" s="214"/>
-      <c r="AE32" s="215"/>
-      <c r="AF32" s="210"/>
-      <c r="AG32" s="211"/>
-      <c r="AH32" s="211"/>
-      <c r="AI32" s="212"/>
+      <c r="B32" s="168"/>
+      <c r="C32" s="169"/>
+      <c r="D32" s="170"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="169"/>
+      <c r="J32" s="174"/>
+      <c r="K32" s="180"/>
+      <c r="L32" s="175"/>
+      <c r="M32" s="175"/>
+      <c r="N32" s="175"/>
+      <c r="O32" s="175"/>
+      <c r="P32" s="176"/>
+      <c r="Q32" s="177"/>
+      <c r="R32" s="178"/>
+      <c r="S32" s="178"/>
+      <c r="T32" s="178"/>
+      <c r="U32" s="178"/>
+      <c r="V32" s="178"/>
+      <c r="W32" s="178"/>
+      <c r="X32" s="178"/>
+      <c r="Y32" s="178"/>
+      <c r="Z32" s="178"/>
+      <c r="AA32" s="178"/>
+      <c r="AB32" s="178"/>
+      <c r="AC32" s="178"/>
+      <c r="AD32" s="178"/>
+      <c r="AE32" s="179"/>
+      <c r="AF32" s="174"/>
+      <c r="AG32" s="175"/>
+      <c r="AH32" s="175"/>
+      <c r="AI32" s="176"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="204"/>
-      <c r="C33" s="205"/>
-      <c r="D33" s="206"/>
-      <c r="E33" s="207"/>
-      <c r="F33" s="208"/>
-      <c r="G33" s="204"/>
-      <c r="H33" s="209"/>
-      <c r="I33" s="205"/>
-      <c r="J33" s="210"/>
-      <c r="K33" s="211"/>
-      <c r="L33" s="211"/>
-      <c r="M33" s="211"/>
-      <c r="N33" s="211"/>
-      <c r="O33" s="211"/>
-      <c r="P33" s="212"/>
-      <c r="Q33" s="213"/>
-      <c r="R33" s="214"/>
-      <c r="S33" s="214"/>
-      <c r="T33" s="214"/>
-      <c r="U33" s="214"/>
-      <c r="V33" s="214"/>
-      <c r="W33" s="214"/>
-      <c r="X33" s="214"/>
-      <c r="Y33" s="214"/>
-      <c r="Z33" s="214"/>
-      <c r="AA33" s="214"/>
-      <c r="AB33" s="214"/>
-      <c r="AC33" s="214"/>
-      <c r="AD33" s="214"/>
-      <c r="AE33" s="215"/>
-      <c r="AF33" s="210"/>
-      <c r="AG33" s="211"/>
-      <c r="AH33" s="211"/>
-      <c r="AI33" s="212"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="170"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="174"/>
+      <c r="K33" s="175"/>
+      <c r="L33" s="175"/>
+      <c r="M33" s="175"/>
+      <c r="N33" s="175"/>
+      <c r="O33" s="175"/>
+      <c r="P33" s="176"/>
+      <c r="Q33" s="177"/>
+      <c r="R33" s="178"/>
+      <c r="S33" s="178"/>
+      <c r="T33" s="178"/>
+      <c r="U33" s="178"/>
+      <c r="V33" s="178"/>
+      <c r="W33" s="178"/>
+      <c r="X33" s="178"/>
+      <c r="Y33" s="178"/>
+      <c r="Z33" s="178"/>
+      <c r="AA33" s="178"/>
+      <c r="AB33" s="178"/>
+      <c r="AC33" s="178"/>
+      <c r="AD33" s="178"/>
+      <c r="AE33" s="179"/>
+      <c r="AF33" s="174"/>
+      <c r="AG33" s="175"/>
+      <c r="AH33" s="175"/>
+      <c r="AI33" s="176"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -17755,6 +17595,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -17772,8 +17768,8 @@
   <dimension ref="A1:P298"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C304" sqref="C304"/>
+      <pane ySplit="10" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -17794,7 +17790,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="25" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -17836,7 +17832,7 @@
     </row>
     <row r="8" spans="1:16" ht="12" thickBot="1">
       <c r="A8" s="27" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -17860,19 +17856,19 @@
         <v>29</v>
       </c>
       <c r="B10" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>567</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="D10" s="37" t="s">
         <v>568</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="E10" s="37" t="s">
         <v>569</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="F10" s="37" t="s">
         <v>570</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>571</v>
       </c>
       <c r="G10" s="37" t="s">
         <v>7</v>
@@ -17922,19 +17918,19 @@
         <v>54</v>
       </c>
       <c r="C11" s="163" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D11" s="114" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="115" t="s">
+        <v>572</v>
+      </c>
+      <c r="F11" s="115" t="s">
         <v>573</v>
       </c>
-      <c r="F11" s="115" t="s">
+      <c r="G11" s="49" t="s">
         <v>574</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>575</v>
       </c>
       <c r="H11" s="49"/>
       <c r="I11" s="116"/>
@@ -17963,13 +17959,13 @@
       <c r="C12" s="30"/>
       <c r="D12" s="110"/>
       <c r="E12" s="115" t="s">
+        <v>575</v>
+      </c>
+      <c r="F12" s="115" t="s">
         <v>576</v>
       </c>
-      <c r="F12" s="115" t="s">
-        <v>577</v>
-      </c>
       <c r="G12" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="116"/>
@@ -17997,16 +17993,16 @@
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="114" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E13" s="114" t="s">
         <v>63</v>
       </c>
       <c r="F13" s="115" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H13" s="49"/>
       <c r="I13" s="116"/>
@@ -18036,10 +18032,10 @@
       <c r="D14" s="121"/>
       <c r="E14" s="121"/>
       <c r="F14" s="122" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H14" s="122"/>
       <c r="I14" s="116"/>
@@ -18069,10 +18065,10 @@
       <c r="D15" s="121"/>
       <c r="E15" s="121"/>
       <c r="F15" s="122" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H15" s="122"/>
       <c r="I15" s="116"/>
@@ -18102,10 +18098,10 @@
       <c r="D16" s="121"/>
       <c r="E16" s="121"/>
       <c r="F16" s="122" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H16" s="122"/>
       <c r="I16" s="116"/>
@@ -18135,10 +18131,10 @@
       <c r="D17" s="123"/>
       <c r="E17" s="123"/>
       <c r="F17" s="122" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G17" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H17" s="122"/>
       <c r="I17" s="116"/>
@@ -18166,16 +18162,16 @@
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="124" t="s">
+        <v>583</v>
+      </c>
+      <c r="E18" s="125" t="s">
         <v>584</v>
       </c>
-      <c r="E18" s="125" t="s">
+      <c r="F18" s="126" t="s">
         <v>585</v>
       </c>
-      <c r="F18" s="126" t="s">
-        <v>586</v>
-      </c>
       <c r="G18" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H18" s="122"/>
       <c r="I18" s="116"/>
@@ -18205,10 +18201,10 @@
       <c r="D19" s="121"/>
       <c r="E19" s="127"/>
       <c r="F19" s="126" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G19" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H19" s="122"/>
       <c r="I19" s="116"/>
@@ -18238,10 +18234,10 @@
       <c r="D20" s="121"/>
       <c r="E20" s="128"/>
       <c r="F20" s="126" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G20" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H20" s="122"/>
       <c r="I20" s="116"/>
@@ -18270,13 +18266,13 @@
       <c r="C21" s="30"/>
       <c r="D21" s="121"/>
       <c r="E21" s="125" t="s">
+        <v>588</v>
+      </c>
+      <c r="F21" s="126" t="s">
         <v>589</v>
       </c>
-      <c r="F21" s="126" t="s">
-        <v>590</v>
-      </c>
       <c r="G21" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H21" s="122"/>
       <c r="I21" s="116"/>
@@ -18306,10 +18302,10 @@
       <c r="D22" s="121"/>
       <c r="E22" s="127"/>
       <c r="F22" s="126" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G22" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H22" s="122"/>
       <c r="I22" s="116"/>
@@ -18339,10 +18335,10 @@
       <c r="D23" s="121"/>
       <c r="E23" s="127"/>
       <c r="F23" s="126" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H23" s="122"/>
       <c r="I23" s="116"/>
@@ -18372,10 +18368,10 @@
       <c r="D24" s="123"/>
       <c r="E24" s="128"/>
       <c r="F24" s="126" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H24" s="122"/>
       <c r="I24" s="116"/>
@@ -18403,16 +18399,16 @@
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="124" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E25" s="125" t="s">
         <v>63</v>
       </c>
       <c r="F25" s="126" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H25" s="122"/>
       <c r="I25" s="116"/>
@@ -18442,10 +18438,10 @@
       <c r="D26" s="123"/>
       <c r="E26" s="128"/>
       <c r="F26" s="126" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G26" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H26" s="122"/>
       <c r="I26" s="116"/>
@@ -18473,16 +18469,16 @@
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="164" t="s">
+        <v>596</v>
+      </c>
+      <c r="E27" s="125" t="s">
         <v>597</v>
       </c>
-      <c r="E27" s="125" t="s">
+      <c r="F27" s="126" t="s">
         <v>598</v>
       </c>
-      <c r="F27" s="126" t="s">
-        <v>599</v>
-      </c>
       <c r="G27" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H27" s="122"/>
       <c r="I27" s="116"/>
@@ -18512,10 +18508,10 @@
       <c r="D28" s="31"/>
       <c r="E28" s="128"/>
       <c r="F28" s="126" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H28" s="122"/>
       <c r="I28" s="116"/>
@@ -18544,13 +18540,13 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="125" t="s">
+        <v>600</v>
+      </c>
+      <c r="F29" s="126" t="s">
         <v>601</v>
       </c>
-      <c r="F29" s="126" t="s">
-        <v>602</v>
-      </c>
       <c r="G29" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H29" s="122"/>
       <c r="I29" s="116"/>
@@ -18580,10 +18576,10 @@
       <c r="D30" s="31"/>
       <c r="E30" s="127"/>
       <c r="F30" s="126" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G30" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H30" s="122"/>
       <c r="I30" s="116"/>
@@ -18613,10 +18609,10 @@
       <c r="D31" s="31"/>
       <c r="E31" s="127"/>
       <c r="F31" s="126" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G31" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H31" s="122"/>
       <c r="I31" s="116"/>
@@ -18646,10 +18642,10 @@
       <c r="D32" s="31"/>
       <c r="E32" s="128"/>
       <c r="F32" s="126" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G32" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H32" s="122"/>
       <c r="I32" s="116"/>
@@ -18681,10 +18677,10 @@
         <v>91</v>
       </c>
       <c r="F33" s="126" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G33" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H33" s="122"/>
       <c r="I33" s="116"/>
@@ -18714,10 +18710,10 @@
       <c r="D34" s="31"/>
       <c r="E34" s="128"/>
       <c r="F34" s="126" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G34" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H34" s="122"/>
       <c r="I34" s="116"/>
@@ -18746,13 +18742,13 @@
       <c r="C35" s="130"/>
       <c r="D35" s="131"/>
       <c r="E35" s="132" t="s">
+        <v>607</v>
+      </c>
+      <c r="F35" s="132" t="s">
         <v>608</v>
       </c>
-      <c r="F35" s="132" t="s">
+      <c r="G35" s="133" t="s">
         <v>609</v>
-      </c>
-      <c r="G35" s="133" t="s">
-        <v>610</v>
       </c>
       <c r="H35" s="133"/>
       <c r="I35" s="134"/>
@@ -18779,7 +18775,7 @@
       </c>
       <c r="B36" s="129"/>
       <c r="C36" s="136" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D36" s="137" t="s">
         <v>63</v>
@@ -18788,10 +18784,10 @@
         <v>63</v>
       </c>
       <c r="F36" s="132" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G36" s="133" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H36" s="133"/>
       <c r="I36" s="134"/>
@@ -18824,7 +18820,7 @@
         <v>99</v>
       </c>
       <c r="G37" s="133" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H37" s="133"/>
       <c r="I37" s="134"/>
@@ -18854,10 +18850,10 @@
       <c r="D38" s="139"/>
       <c r="E38" s="140"/>
       <c r="F38" s="132" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G38" s="133" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H38" s="133"/>
       <c r="I38" s="134"/>
@@ -18887,10 +18883,10 @@
       <c r="D39" s="131"/>
       <c r="E39" s="141"/>
       <c r="F39" s="132" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G39" s="133" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H39" s="133"/>
       <c r="I39" s="134"/>
@@ -18918,7 +18914,7 @@
       <c r="B40" s="120"/>
       <c r="C40" s="120"/>
       <c r="D40" s="124" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E40" s="125" t="s">
         <v>63</v>
@@ -18927,7 +18923,7 @@
         <v>103</v>
       </c>
       <c r="G40" s="122" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H40" s="122"/>
       <c r="I40" s="116"/>
@@ -18960,7 +18956,7 @@
         <v>104</v>
       </c>
       <c r="G41" s="122" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H41" s="122"/>
       <c r="I41" s="116"/>
@@ -18986,22 +18982,22 @@
         <v>13-1-1</v>
       </c>
       <c r="B42" s="113" t="s">
+        <v>615</v>
+      </c>
+      <c r="C42" s="113" t="s">
         <v>616</v>
       </c>
-      <c r="C42" s="113" t="s">
+      <c r="D42" s="124" t="s">
         <v>617</v>
       </c>
-      <c r="D42" s="124" t="s">
+      <c r="E42" s="125" t="s">
         <v>618</v>
       </c>
-      <c r="E42" s="125" t="s">
+      <c r="F42" s="125" t="s">
         <v>619</v>
       </c>
-      <c r="F42" s="125" t="s">
+      <c r="G42" s="122" t="s">
         <v>620</v>
-      </c>
-      <c r="G42" s="122" t="s">
-        <v>621</v>
       </c>
       <c r="H42" s="142"/>
       <c r="I42" s="143"/>
@@ -19031,10 +19027,10 @@
       <c r="D43" s="121"/>
       <c r="E43" s="127"/>
       <c r="F43" s="125" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G43" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H43" s="142"/>
       <c r="I43" s="143"/>
@@ -19064,10 +19060,10 @@
       <c r="D44" s="121"/>
       <c r="E44" s="128"/>
       <c r="F44" s="126" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G44" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H44" s="122"/>
       <c r="I44" s="118"/>
@@ -19096,13 +19092,13 @@
       <c r="C45" s="120"/>
       <c r="D45" s="121"/>
       <c r="E45" s="125" t="s">
+        <v>623</v>
+      </c>
+      <c r="F45" s="126" t="s">
         <v>624</v>
       </c>
-      <c r="F45" s="126" t="s">
-        <v>625</v>
-      </c>
       <c r="G45" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H45" s="122"/>
       <c r="I45" s="118"/>
@@ -19132,10 +19128,10 @@
       <c r="D46" s="121"/>
       <c r="E46" s="127"/>
       <c r="F46" s="126" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G46" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H46" s="122"/>
       <c r="I46" s="118"/>
@@ -19165,10 +19161,10 @@
       <c r="D47" s="121"/>
       <c r="E47" s="128"/>
       <c r="F47" s="126" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G47" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H47" s="122"/>
       <c r="I47" s="118"/>
@@ -19197,13 +19193,13 @@
       <c r="C48" s="120"/>
       <c r="D48" s="121"/>
       <c r="E48" s="125" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F48" s="126" t="s">
         <v>116</v>
       </c>
       <c r="G48" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H48" s="122"/>
       <c r="I48" s="118"/>
@@ -19236,7 +19232,7 @@
         <v>117</v>
       </c>
       <c r="G49" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H49" s="122"/>
       <c r="I49" s="118"/>
@@ -19265,13 +19261,13 @@
       <c r="C50" s="120"/>
       <c r="D50" s="121"/>
       <c r="E50" s="125" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F50" s="126" t="s">
         <v>119</v>
       </c>
       <c r="G50" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H50" s="122"/>
       <c r="I50" s="118"/>
@@ -19304,7 +19300,7 @@
         <v>120</v>
       </c>
       <c r="G51" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H51" s="122"/>
       <c r="I51" s="118"/>
@@ -19337,7 +19333,7 @@
         <v>121</v>
       </c>
       <c r="G52" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H52" s="122"/>
       <c r="I52" s="118"/>
@@ -19370,7 +19366,7 @@
         <v>122</v>
       </c>
       <c r="G53" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H53" s="122"/>
       <c r="I53" s="118"/>
@@ -19403,7 +19399,7 @@
         <v>123</v>
       </c>
       <c r="G54" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H54" s="122"/>
       <c r="I54" s="118"/>
@@ -19436,7 +19432,7 @@
         <v>124</v>
       </c>
       <c r="G55" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H55" s="122"/>
       <c r="I55" s="118"/>
@@ -19465,13 +19461,13 @@
       <c r="C56" s="120"/>
       <c r="D56" s="121"/>
       <c r="E56" s="126" t="s">
+        <v>628</v>
+      </c>
+      <c r="F56" s="126" t="s">
         <v>629</v>
       </c>
-      <c r="F56" s="126" t="s">
-        <v>630</v>
-      </c>
       <c r="G56" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H56" s="122"/>
       <c r="I56" s="118"/>
@@ -19503,10 +19499,10 @@
         <v>127</v>
       </c>
       <c r="F57" s="126" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G57" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H57" s="122"/>
       <c r="I57" s="118"/>
@@ -19535,13 +19531,13 @@
       <c r="C58" s="120"/>
       <c r="D58" s="123"/>
       <c r="E58" s="126" t="s">
+        <v>631</v>
+      </c>
+      <c r="F58" s="126" t="s">
         <v>632</v>
       </c>
-      <c r="F58" s="126" t="s">
-        <v>633</v>
-      </c>
       <c r="G58" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H58" s="122"/>
       <c r="I58" s="118"/>
@@ -19569,7 +19565,7 @@
       <c r="B59" s="120"/>
       <c r="C59" s="120"/>
       <c r="D59" s="124" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E59" s="125" t="s">
         <v>63</v>
@@ -19578,7 +19574,7 @@
         <v>132</v>
       </c>
       <c r="G59" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H59" s="122"/>
       <c r="I59" s="118"/>
@@ -19611,7 +19607,7 @@
         <v>133</v>
       </c>
       <c r="G60" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H60" s="122"/>
       <c r="I60" s="118"/>
@@ -19644,7 +19640,7 @@
         <v>134</v>
       </c>
       <c r="G61" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H61" s="122"/>
       <c r="I61" s="118"/>
@@ -19677,7 +19673,7 @@
         <v>135</v>
       </c>
       <c r="G62" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H62" s="122"/>
       <c r="I62" s="118"/>
@@ -19707,10 +19703,10 @@
       <c r="D63" s="121"/>
       <c r="E63" s="128"/>
       <c r="F63" s="126" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G63" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H63" s="122"/>
       <c r="I63" s="118"/>
@@ -19739,13 +19735,13 @@
       <c r="C64" s="120"/>
       <c r="D64" s="121"/>
       <c r="E64" s="125" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F64" s="126" t="s">
         <v>138</v>
       </c>
       <c r="G64" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H64" s="122"/>
       <c r="I64" s="118"/>
@@ -19775,10 +19771,10 @@
       <c r="D65" s="121"/>
       <c r="E65" s="127"/>
       <c r="F65" s="126" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G65" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H65" s="122"/>
       <c r="I65" s="118"/>
@@ -19808,10 +19804,10 @@
       <c r="D66" s="121"/>
       <c r="E66" s="127"/>
       <c r="F66" s="126" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G66" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H66" s="122"/>
       <c r="I66" s="118"/>
@@ -19841,10 +19837,10 @@
       <c r="D67" s="121"/>
       <c r="E67" s="127"/>
       <c r="F67" s="126" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G67" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H67" s="122"/>
       <c r="I67" s="118"/>
@@ -19874,10 +19870,10 @@
       <c r="D68" s="121"/>
       <c r="E68" s="127"/>
       <c r="F68" s="126" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G68" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H68" s="122"/>
       <c r="I68" s="118"/>
@@ -19907,10 +19903,10 @@
       <c r="D69" s="121"/>
       <c r="E69" s="127"/>
       <c r="F69" s="126" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G69" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H69" s="122"/>
       <c r="I69" s="118"/>
@@ -19940,10 +19936,10 @@
       <c r="D70" s="121"/>
       <c r="E70" s="127"/>
       <c r="F70" s="126" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G70" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H70" s="122"/>
       <c r="I70" s="118"/>
@@ -19973,10 +19969,10 @@
       <c r="D71" s="121"/>
       <c r="E71" s="128"/>
       <c r="F71" s="126" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G71" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H71" s="122"/>
       <c r="I71" s="118"/>
@@ -20005,13 +20001,13 @@
       <c r="C72" s="120"/>
       <c r="D72" s="121"/>
       <c r="E72" s="126" t="s">
+        <v>643</v>
+      </c>
+      <c r="F72" s="126" t="s">
         <v>644</v>
       </c>
-      <c r="F72" s="126" t="s">
-        <v>645</v>
-      </c>
       <c r="G72" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H72" s="122"/>
       <c r="I72" s="118"/>
@@ -20040,13 +20036,13 @@
       <c r="C73" s="120"/>
       <c r="D73" s="121"/>
       <c r="E73" s="125" t="s">
+        <v>645</v>
+      </c>
+      <c r="F73" s="126" t="s">
         <v>646</v>
       </c>
-      <c r="F73" s="126" t="s">
-        <v>647</v>
-      </c>
       <c r="G73" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H73" s="122"/>
       <c r="I73" s="118"/>
@@ -20076,10 +20072,10 @@
       <c r="D74" s="121"/>
       <c r="E74" s="127"/>
       <c r="F74" s="126" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G74" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H74" s="122"/>
       <c r="I74" s="118"/>
@@ -20109,10 +20105,10 @@
       <c r="D75" s="121"/>
       <c r="E75" s="127"/>
       <c r="F75" s="126" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G75" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H75" s="122"/>
       <c r="I75" s="118"/>
@@ -20142,10 +20138,10 @@
       <c r="D76" s="121"/>
       <c r="E76" s="127"/>
       <c r="F76" s="126" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G76" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H76" s="122"/>
       <c r="I76" s="118"/>
@@ -20175,10 +20171,10 @@
       <c r="D77" s="123"/>
       <c r="E77" s="128"/>
       <c r="F77" s="126" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G77" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H77" s="122"/>
       <c r="I77" s="118"/>
@@ -20205,19 +20201,19 @@
       </c>
       <c r="B78" s="120"/>
       <c r="C78" s="113" t="s">
+        <v>651</v>
+      </c>
+      <c r="D78" s="124" t="s">
         <v>652</v>
-      </c>
-      <c r="D78" s="124" t="s">
-        <v>653</v>
       </c>
       <c r="E78" s="125" t="s">
         <v>63</v>
       </c>
       <c r="F78" s="125" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G78" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H78" s="145"/>
       <c r="I78" s="143"/>
@@ -20248,7 +20244,7 @@
       <c r="E79" s="127"/>
       <c r="F79" s="128"/>
       <c r="G79" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H79" s="145"/>
       <c r="I79" s="143"/>
@@ -20278,10 +20274,10 @@
       <c r="D80" s="121"/>
       <c r="E80" s="128"/>
       <c r="F80" s="126" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G80" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H80" s="145"/>
       <c r="I80" s="143"/>
@@ -20310,13 +20306,13 @@
       <c r="C81" s="120"/>
       <c r="D81" s="121"/>
       <c r="E81" s="126" t="s">
+        <v>655</v>
+      </c>
+      <c r="F81" s="126" t="s">
         <v>656</v>
       </c>
-      <c r="F81" s="126" t="s">
-        <v>657</v>
-      </c>
       <c r="G81" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H81" s="122"/>
       <c r="I81" s="118"/>
@@ -20345,13 +20341,13 @@
       <c r="C82" s="120"/>
       <c r="D82" s="121"/>
       <c r="E82" s="125" t="s">
+        <v>657</v>
+      </c>
+      <c r="F82" s="126" t="s">
         <v>658</v>
       </c>
-      <c r="F82" s="126" t="s">
-        <v>659</v>
-      </c>
       <c r="G82" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H82" s="122"/>
       <c r="I82" s="118"/>
@@ -20381,10 +20377,10 @@
       <c r="D83" s="121"/>
       <c r="E83" s="128"/>
       <c r="F83" s="126" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G83" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H83" s="122"/>
       <c r="I83" s="118"/>
@@ -20413,13 +20409,13 @@
       <c r="C84" s="120"/>
       <c r="D84" s="121"/>
       <c r="E84" s="126" t="s">
+        <v>660</v>
+      </c>
+      <c r="F84" s="126" t="s">
         <v>661</v>
       </c>
-      <c r="F84" s="126" t="s">
-        <v>662</v>
-      </c>
       <c r="G84" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H84" s="145"/>
       <c r="I84" s="143"/>
@@ -20448,13 +20444,13 @@
       <c r="C85" s="144"/>
       <c r="D85" s="123"/>
       <c r="E85" s="126" t="s">
+        <v>662</v>
+      </c>
+      <c r="F85" s="126" t="s">
         <v>663</v>
       </c>
-      <c r="F85" s="126" t="s">
-        <v>664</v>
-      </c>
       <c r="G85" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H85" s="122"/>
       <c r="I85" s="118"/>
@@ -20484,16 +20480,16 @@
         <v>167</v>
       </c>
       <c r="D86" s="124" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E86" s="126" t="s">
         <v>63</v>
       </c>
       <c r="F86" s="126" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G86" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H86" s="122"/>
       <c r="I86" s="118"/>
@@ -20522,13 +20518,13 @@
       <c r="C87" s="120"/>
       <c r="D87" s="121"/>
       <c r="E87" s="126" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F87" s="126" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G87" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H87" s="122"/>
       <c r="I87" s="118"/>
@@ -20560,10 +20556,10 @@
         <v>170</v>
       </c>
       <c r="F88" s="126" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G88" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H88" s="122"/>
       <c r="I88" s="118"/>
@@ -20593,16 +20589,16 @@
         <v>172</v>
       </c>
       <c r="D89" s="124" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E89" s="125" t="s">
         <v>63</v>
       </c>
       <c r="F89" s="126" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G89" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H89" s="122"/>
       <c r="I89" s="118"/>
@@ -20632,10 +20628,10 @@
       <c r="D90" s="121"/>
       <c r="E90" s="128"/>
       <c r="F90" s="126" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G90" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H90" s="122"/>
       <c r="I90" s="118"/>
@@ -20664,13 +20660,13 @@
       <c r="C91" s="120"/>
       <c r="D91" s="121"/>
       <c r="E91" s="126" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F91" s="126" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G91" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H91" s="122"/>
       <c r="I91" s="118"/>
@@ -20699,13 +20695,13 @@
       <c r="C92" s="120"/>
       <c r="D92" s="121"/>
       <c r="E92" s="125" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F92" s="126" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G92" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H92" s="122"/>
       <c r="I92" s="118"/>
@@ -20735,10 +20731,10 @@
       <c r="D93" s="121"/>
       <c r="E93" s="128"/>
       <c r="F93" s="126" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G93" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H93" s="122"/>
       <c r="I93" s="118"/>
@@ -20770,10 +20766,10 @@
         <v>170</v>
       </c>
       <c r="F94" s="126" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G94" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H94" s="122"/>
       <c r="I94" s="118"/>
@@ -20803,16 +20799,16 @@
         <v>179</v>
       </c>
       <c r="D95" s="124" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E95" s="125" t="s">
         <v>180</v>
       </c>
       <c r="F95" s="126" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G95" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H95" s="122"/>
       <c r="I95" s="118"/>
@@ -20842,10 +20838,10 @@
       <c r="D96" s="121"/>
       <c r="E96" s="127"/>
       <c r="F96" s="126" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G96" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H96" s="122"/>
       <c r="I96" s="118"/>
@@ -20875,10 +20871,10 @@
       <c r="D97" s="121"/>
       <c r="E97" s="127"/>
       <c r="F97" s="126" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G97" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H97" s="122"/>
       <c r="I97" s="118"/>
@@ -20908,10 +20904,10 @@
       <c r="D98" s="121"/>
       <c r="E98" s="127"/>
       <c r="F98" s="126" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G98" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H98" s="122"/>
       <c r="I98" s="118"/>
@@ -20941,10 +20937,10 @@
       <c r="D99" s="121"/>
       <c r="E99" s="128"/>
       <c r="F99" s="126" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G99" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H99" s="122"/>
       <c r="I99" s="118"/>
@@ -20976,10 +20972,10 @@
         <v>186</v>
       </c>
       <c r="F100" s="126" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G100" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H100" s="122"/>
       <c r="I100" s="118"/>
@@ -21009,10 +21005,10 @@
       <c r="D101" s="121"/>
       <c r="E101" s="127"/>
       <c r="F101" s="126" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G101" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H101" s="122"/>
       <c r="I101" s="118"/>
@@ -21042,10 +21038,10 @@
       <c r="D102" s="121"/>
       <c r="E102" s="127"/>
       <c r="F102" s="126" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G102" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H102" s="122"/>
       <c r="I102" s="118"/>
@@ -21075,10 +21071,10 @@
       <c r="D103" s="121"/>
       <c r="E103" s="127"/>
       <c r="F103" s="126" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G103" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H103" s="122"/>
       <c r="I103" s="118"/>
@@ -21108,10 +21104,10 @@
       <c r="D104" s="121"/>
       <c r="E104" s="128"/>
       <c r="F104" s="126" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G104" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H104" s="122"/>
       <c r="I104" s="118"/>
@@ -21143,10 +21139,10 @@
         <v>170</v>
       </c>
       <c r="F105" s="126" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G105" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H105" s="122"/>
       <c r="I105" s="118"/>
@@ -21172,10 +21168,10 @@
         <v>39-1-1</v>
       </c>
       <c r="B106" s="113" t="s">
+        <v>684</v>
+      </c>
+      <c r="C106" s="146" t="s">
         <v>685</v>
-      </c>
-      <c r="C106" s="146" t="s">
-        <v>686</v>
       </c>
       <c r="D106" s="122" t="s">
         <v>63</v>
@@ -21184,10 +21180,10 @@
         <v>63</v>
       </c>
       <c r="F106" s="126" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G106" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H106" s="122"/>
       <c r="I106" s="118"/>
@@ -21214,7 +21210,7 @@
       </c>
       <c r="B107" s="120"/>
       <c r="C107" s="113" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D107" s="124" t="s">
         <v>63</v>
@@ -21223,10 +21219,10 @@
         <v>63</v>
       </c>
       <c r="F107" s="126" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G107" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H107" s="122"/>
       <c r="I107" s="118"/>
@@ -21256,10 +21252,10 @@
       <c r="D108" s="123"/>
       <c r="E108" s="128"/>
       <c r="F108" s="126" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G108" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H108" s="122"/>
       <c r="I108" s="118"/>
@@ -21295,10 +21291,10 @@
         <v>63</v>
       </c>
       <c r="F109" s="126" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G109" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H109" s="122"/>
       <c r="I109" s="118"/>
@@ -21334,10 +21330,10 @@
         <v>63</v>
       </c>
       <c r="F110" s="126" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G110" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H110" s="122"/>
       <c r="I110" s="118"/>
@@ -21367,10 +21363,10 @@
       <c r="D111" s="123"/>
       <c r="E111" s="128"/>
       <c r="F111" s="126" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G111" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H111" s="122"/>
       <c r="I111" s="118"/>
@@ -21396,10 +21392,10 @@
         <v>43-1-1</v>
       </c>
       <c r="B112" s="113" t="s">
+        <v>693</v>
+      </c>
+      <c r="C112" s="113" t="s">
         <v>694</v>
-      </c>
-      <c r="C112" s="113" t="s">
-        <v>695</v>
       </c>
       <c r="D112" s="124" t="s">
         <v>63</v>
@@ -21408,10 +21404,10 @@
         <v>63</v>
       </c>
       <c r="F112" s="126" t="s">
+        <v>695</v>
+      </c>
+      <c r="G112" s="122" t="s">
         <v>696</v>
-      </c>
-      <c r="G112" s="122" t="s">
-        <v>697</v>
       </c>
       <c r="H112" s="122"/>
       <c r="I112" s="118"/>
@@ -21443,10 +21439,10 @@
       <c r="D113" s="121"/>
       <c r="E113" s="127"/>
       <c r="F113" s="126" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G113" s="122" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H113" s="122"/>
       <c r="I113" s="118"/>
@@ -21476,10 +21472,10 @@
       <c r="D114" s="121"/>
       <c r="E114" s="127"/>
       <c r="F114" s="126" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G114" s="122" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H114" s="122"/>
       <c r="I114" s="118"/>
@@ -21509,10 +21505,10 @@
       <c r="D115" s="121"/>
       <c r="E115" s="128"/>
       <c r="F115" s="126" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G115" s="122" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H115" s="122"/>
       <c r="I115" s="118"/>
@@ -21541,13 +21537,13 @@
       <c r="C116" s="120"/>
       <c r="D116" s="121"/>
       <c r="E116" s="125" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F116" s="126" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G116" s="122" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H116" s="122"/>
       <c r="I116" s="118"/>
@@ -21577,10 +21573,10 @@
       <c r="D117" s="121"/>
       <c r="E117" s="127"/>
       <c r="F117" s="126" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G117" s="122" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H117" s="122"/>
       <c r="I117" s="118"/>
@@ -21610,10 +21606,10 @@
       <c r="D118" s="121"/>
       <c r="E118" s="127"/>
       <c r="F118" s="126" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G118" s="122" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H118" s="122"/>
       <c r="I118" s="118"/>
@@ -21643,10 +21639,10 @@
       <c r="D119" s="121"/>
       <c r="E119" s="127"/>
       <c r="F119" s="126" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G119" s="122" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H119" s="122"/>
       <c r="I119" s="118"/>
@@ -21676,10 +21672,10 @@
       <c r="D120" s="121"/>
       <c r="E120" s="128"/>
       <c r="F120" s="126" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G120" s="122" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H120" s="122"/>
       <c r="I120" s="118"/>
@@ -21708,13 +21704,13 @@
       <c r="C121" s="120"/>
       <c r="D121" s="121"/>
       <c r="E121" s="125" t="s">
+        <v>705</v>
+      </c>
+      <c r="F121" s="126" t="s">
         <v>706</v>
       </c>
-      <c r="F121" s="126" t="s">
-        <v>707</v>
-      </c>
       <c r="G121" s="122" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H121" s="122"/>
       <c r="I121" s="118"/>
@@ -21744,10 +21740,10 @@
       <c r="D122" s="121"/>
       <c r="E122" s="127"/>
       <c r="F122" s="148" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G122" s="122" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H122" s="149"/>
       <c r="I122" s="118"/>
@@ -21777,10 +21773,10 @@
       <c r="D123" s="121"/>
       <c r="E123" s="127"/>
       <c r="F123" s="153" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G123" s="122" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H123" s="145"/>
       <c r="I123" s="118"/>
@@ -21810,10 +21806,10 @@
       <c r="D124" s="121"/>
       <c r="E124" s="127"/>
       <c r="F124" s="153" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G124" s="122" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H124" s="145"/>
       <c r="I124" s="118"/>
@@ -21843,10 +21839,10 @@
       <c r="D125" s="121"/>
       <c r="E125" s="128"/>
       <c r="F125" s="153" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G125" s="122" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H125" s="145"/>
       <c r="I125" s="118"/>
@@ -21875,13 +21871,13 @@
       <c r="C126" s="120"/>
       <c r="D126" s="123"/>
       <c r="E126" s="153" t="s">
+        <v>711</v>
+      </c>
+      <c r="F126" s="153" t="s">
         <v>712</v>
       </c>
-      <c r="F126" s="153" t="s">
-        <v>713</v>
-      </c>
       <c r="G126" s="122" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H126" s="145"/>
       <c r="I126" s="118"/>
@@ -21912,13 +21908,13 @@
         <v>170</v>
       </c>
       <c r="E127" s="153" t="s">
+        <v>713</v>
+      </c>
+      <c r="F127" s="153" t="s">
         <v>714</v>
       </c>
-      <c r="F127" s="153" t="s">
-        <v>715</v>
-      </c>
       <c r="G127" s="122" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H127" s="145"/>
       <c r="I127" s="118"/>
@@ -21948,16 +21944,16 @@
         <v>54</v>
       </c>
       <c r="D128" s="124" t="s">
+        <v>715</v>
+      </c>
+      <c r="E128" s="153" t="s">
         <v>716</v>
       </c>
-      <c r="E128" s="153" t="s">
+      <c r="F128" s="153" t="s">
         <v>717</v>
       </c>
-      <c r="F128" s="153" t="s">
-        <v>718</v>
-      </c>
       <c r="G128" s="122" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H128" s="145"/>
       <c r="I128" s="118"/>
@@ -21986,13 +21982,13 @@
       <c r="C129" s="120"/>
       <c r="D129" s="121"/>
       <c r="E129" s="155" t="s">
+        <v>718</v>
+      </c>
+      <c r="F129" s="153" t="s">
         <v>719</v>
       </c>
-      <c r="F129" s="153" t="s">
-        <v>720</v>
-      </c>
       <c r="G129" s="122" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H129" s="145"/>
       <c r="I129" s="118"/>
@@ -22022,10 +22018,10 @@
       <c r="D130" s="121"/>
       <c r="E130" s="156"/>
       <c r="F130" s="153" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G130" s="122" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H130" s="145"/>
       <c r="I130" s="118"/>
@@ -22055,10 +22051,10 @@
       <c r="D131" s="123"/>
       <c r="E131" s="148"/>
       <c r="F131" s="153" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G131" s="122" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H131" s="145"/>
       <c r="I131" s="118"/>
@@ -22084,22 +22080,22 @@
         <v>50-1-1</v>
       </c>
       <c r="B132" s="158" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C132" s="113" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D132" s="124" t="s">
         <v>63</v>
       </c>
       <c r="E132" s="155" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F132" s="153" t="s">
+        <v>723</v>
+      </c>
+      <c r="G132" s="122" t="s">
         <v>724</v>
-      </c>
-      <c r="G132" s="122" t="s">
-        <v>725</v>
       </c>
       <c r="H132" s="145"/>
       <c r="I132" s="143"/>
@@ -22125,16 +22121,16 @@
         <v>50-2-1</v>
       </c>
       <c r="B133" s="159" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C133" s="120"/>
       <c r="D133" s="121"/>
       <c r="E133" s="156"/>
       <c r="F133" s="153" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G133" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H133" s="145"/>
       <c r="I133" s="143"/>
@@ -22164,10 +22160,10 @@
       <c r="D134" s="121"/>
       <c r="E134" s="156"/>
       <c r="F134" s="153" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G134" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H134" s="145"/>
       <c r="I134" s="143"/>
@@ -22197,10 +22193,10 @@
       <c r="D135" s="121"/>
       <c r="E135" s="148"/>
       <c r="F135" s="153" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G135" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H135" s="145"/>
       <c r="I135" s="143"/>
@@ -22229,13 +22225,13 @@
       <c r="C136" s="120"/>
       <c r="D136" s="121"/>
       <c r="E136" s="155" t="s">
+        <v>729</v>
+      </c>
+      <c r="F136" s="153" t="s">
         <v>730</v>
       </c>
-      <c r="F136" s="153" t="s">
-        <v>731</v>
-      </c>
       <c r="G136" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H136" s="145"/>
       <c r="I136" s="143"/>
@@ -22265,10 +22261,10 @@
       <c r="D137" s="123"/>
       <c r="E137" s="148"/>
       <c r="F137" s="153" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G137" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H137" s="145"/>
       <c r="I137" s="143"/>
@@ -22299,13 +22295,13 @@
         <v>170</v>
       </c>
       <c r="E138" s="153" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F138" s="153" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G138" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H138" s="145"/>
       <c r="I138" s="143"/>
@@ -22332,19 +22328,19 @@
       </c>
       <c r="B139" s="147"/>
       <c r="C139" s="113" t="s">
+        <v>733</v>
+      </c>
+      <c r="D139" s="124" t="s">
+        <v>715</v>
+      </c>
+      <c r="E139" s="153" t="s">
         <v>734</v>
       </c>
-      <c r="D139" s="124" t="s">
-        <v>716</v>
-      </c>
-      <c r="E139" s="153" t="s">
+      <c r="F139" s="153" t="s">
         <v>735</v>
       </c>
-      <c r="F139" s="153" t="s">
-        <v>736</v>
-      </c>
       <c r="G139" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H139" s="145"/>
       <c r="I139" s="143"/>
@@ -22373,13 +22369,13 @@
       <c r="C140" s="120"/>
       <c r="D140" s="121"/>
       <c r="E140" s="153" t="s">
+        <v>736</v>
+      </c>
+      <c r="F140" s="153" t="s">
         <v>737</v>
       </c>
-      <c r="F140" s="153" t="s">
-        <v>738</v>
-      </c>
       <c r="G140" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H140" s="145"/>
       <c r="I140" s="143"/>
@@ -22408,13 +22404,13 @@
       <c r="C141" s="120"/>
       <c r="D141" s="121"/>
       <c r="E141" s="153" t="s">
+        <v>738</v>
+      </c>
+      <c r="F141" s="153" t="s">
         <v>739</v>
       </c>
-      <c r="F141" s="153" t="s">
-        <v>740</v>
-      </c>
       <c r="G141" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H141" s="145"/>
       <c r="I141" s="143"/>
@@ -22443,13 +22439,13 @@
       <c r="C142" s="120"/>
       <c r="D142" s="121"/>
       <c r="E142" s="153" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F142" s="153" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G142" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H142" s="145"/>
       <c r="I142" s="143"/>
@@ -22478,13 +22474,13 @@
       <c r="C143" s="120"/>
       <c r="D143" s="121"/>
       <c r="E143" s="153" t="s">
+        <v>741</v>
+      </c>
+      <c r="F143" s="153" t="s">
         <v>742</v>
       </c>
-      <c r="F143" s="153" t="s">
-        <v>743</v>
-      </c>
       <c r="G143" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H143" s="145"/>
       <c r="I143" s="143"/>
@@ -22513,13 +22509,13 @@
       <c r="C144" s="120"/>
       <c r="D144" s="121"/>
       <c r="E144" s="155" t="s">
+        <v>743</v>
+      </c>
+      <c r="F144" s="153" t="s">
         <v>744</v>
       </c>
-      <c r="F144" s="153" t="s">
-        <v>745</v>
-      </c>
       <c r="G144" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H144" s="145"/>
       <c r="I144" s="143"/>
@@ -22549,10 +22545,10 @@
       <c r="D145" s="121"/>
       <c r="E145" s="156"/>
       <c r="F145" s="153" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G145" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H145" s="145"/>
       <c r="I145" s="143"/>
@@ -22582,10 +22578,10 @@
       <c r="D146" s="121"/>
       <c r="E146" s="156"/>
       <c r="F146" s="153" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G146" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H146" s="145"/>
       <c r="I146" s="143"/>
@@ -22615,10 +22611,10 @@
       <c r="D147" s="121"/>
       <c r="E147" s="156"/>
       <c r="F147" s="153" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G147" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H147" s="145"/>
       <c r="I147" s="143"/>
@@ -22648,10 +22644,10 @@
       <c r="D148" s="121"/>
       <c r="E148" s="156"/>
       <c r="F148" s="153" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G148" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H148" s="145"/>
       <c r="I148" s="143"/>
@@ -22681,10 +22677,10 @@
       <c r="D149" s="123"/>
       <c r="E149" s="148"/>
       <c r="F149" s="153" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G149" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H149" s="145"/>
       <c r="I149" s="143"/>
@@ -22712,16 +22708,16 @@
       <c r="B150" s="147"/>
       <c r="C150" s="120"/>
       <c r="D150" s="124" t="s">
+        <v>750</v>
+      </c>
+      <c r="E150" s="155" t="s">
+        <v>713</v>
+      </c>
+      <c r="F150" s="125" t="s">
         <v>751</v>
       </c>
-      <c r="E150" s="155" t="s">
-        <v>714</v>
-      </c>
-      <c r="F150" s="125" t="s">
-        <v>752</v>
-      </c>
       <c r="G150" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H150" s="145"/>
       <c r="I150" s="143"/>
@@ -22751,10 +22747,10 @@
       <c r="D151" s="121"/>
       <c r="E151" s="148"/>
       <c r="F151" s="153" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G151" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H151" s="145"/>
       <c r="I151" s="143"/>
@@ -22783,13 +22779,13 @@
       <c r="C152" s="120"/>
       <c r="D152" s="121"/>
       <c r="E152" s="155" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F152" s="153" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G152" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H152" s="145"/>
       <c r="I152" s="143"/>
@@ -22819,10 +22815,10 @@
       <c r="D153" s="121"/>
       <c r="E153" s="156"/>
       <c r="F153" s="153" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G153" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H153" s="145"/>
       <c r="I153" s="143"/>
@@ -22852,10 +22848,10 @@
       <c r="D154" s="121"/>
       <c r="E154" s="156"/>
       <c r="F154" s="153" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G154" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H154" s="145"/>
       <c r="I154" s="143"/>
@@ -22885,10 +22881,10 @@
       <c r="D155" s="121"/>
       <c r="E155" s="156"/>
       <c r="F155" s="153" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G155" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H155" s="145"/>
       <c r="I155" s="143"/>
@@ -22918,10 +22914,10 @@
       <c r="D156" s="121"/>
       <c r="E156" s="156"/>
       <c r="F156" s="153" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G156" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H156" s="145"/>
       <c r="I156" s="143"/>
@@ -22951,10 +22947,10 @@
       <c r="D157" s="121"/>
       <c r="E157" s="156"/>
       <c r="F157" s="153" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G157" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H157" s="145"/>
       <c r="I157" s="143"/>
@@ -22984,10 +22980,10 @@
       <c r="D158" s="121"/>
       <c r="E158" s="156"/>
       <c r="F158" s="153" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G158" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H158" s="145"/>
       <c r="I158" s="143"/>
@@ -23017,10 +23013,10 @@
       <c r="D159" s="121"/>
       <c r="E159" s="156"/>
       <c r="F159" s="153" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G159" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H159" s="145"/>
       <c r="I159" s="143"/>
@@ -23050,10 +23046,10 @@
       <c r="D160" s="121"/>
       <c r="E160" s="156"/>
       <c r="F160" s="153" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G160" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H160" s="145"/>
       <c r="I160" s="143"/>
@@ -23083,10 +23079,10 @@
       <c r="D161" s="121"/>
       <c r="E161" s="156"/>
       <c r="F161" s="153" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G161" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H161" s="145"/>
       <c r="I161" s="143"/>
@@ -23116,10 +23112,10 @@
       <c r="D162" s="121"/>
       <c r="E162" s="148"/>
       <c r="F162" s="153" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G162" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H162" s="145"/>
       <c r="I162" s="143"/>
@@ -23148,13 +23144,13 @@
       <c r="C163" s="120"/>
       <c r="D163" s="121"/>
       <c r="E163" s="155" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F163" s="125" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G163" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H163" s="145"/>
       <c r="I163" s="143"/>
@@ -23184,10 +23180,10 @@
       <c r="D164" s="121"/>
       <c r="E164" s="156"/>
       <c r="F164" s="125" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G164" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H164" s="145"/>
       <c r="I164" s="143"/>
@@ -23217,10 +23213,10 @@
       <c r="D165" s="121"/>
       <c r="E165" s="156"/>
       <c r="F165" s="125" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G165" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H165" s="145"/>
       <c r="I165" s="143"/>
@@ -23251,7 +23247,7 @@
       <c r="E166" s="156"/>
       <c r="F166" s="128"/>
       <c r="G166" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H166" s="145"/>
       <c r="I166" s="143"/>
@@ -23281,10 +23277,10 @@
       <c r="D167" s="121"/>
       <c r="E167" s="156"/>
       <c r="F167" s="153" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G167" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H167" s="145"/>
       <c r="I167" s="143"/>
@@ -23314,10 +23310,10 @@
       <c r="D168" s="121"/>
       <c r="E168" s="156"/>
       <c r="F168" s="153" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G168" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H168" s="145"/>
       <c r="I168" s="143"/>
@@ -23347,10 +23343,10 @@
       <c r="D169" s="121"/>
       <c r="E169" s="156"/>
       <c r="F169" s="153" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G169" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H169" s="145"/>
       <c r="I169" s="143"/>
@@ -23380,10 +23376,10 @@
       <c r="D170" s="121"/>
       <c r="E170" s="148"/>
       <c r="F170" s="153" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G170" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H170" s="145"/>
       <c r="I170" s="143"/>
@@ -23412,13 +23408,13 @@
       <c r="C171" s="120"/>
       <c r="D171" s="121"/>
       <c r="E171" s="155" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F171" s="153" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G171" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H171" s="145"/>
       <c r="I171" s="143"/>
@@ -23448,10 +23444,10 @@
       <c r="D172" s="121"/>
       <c r="E172" s="156"/>
       <c r="F172" s="153" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G172" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H172" s="145"/>
       <c r="I172" s="143"/>
@@ -23481,10 +23477,10 @@
       <c r="D173" s="121"/>
       <c r="E173" s="156"/>
       <c r="F173" s="153" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G173" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H173" s="145"/>
       <c r="I173" s="143"/>
@@ -23514,10 +23510,10 @@
       <c r="D174" s="121"/>
       <c r="E174" s="156"/>
       <c r="F174" s="153" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G174" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H174" s="145"/>
       <c r="I174" s="143"/>
@@ -23547,10 +23543,10 @@
       <c r="D175" s="121"/>
       <c r="E175" s="156"/>
       <c r="F175" s="153" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G175" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H175" s="145"/>
       <c r="I175" s="143"/>
@@ -23580,10 +23576,10 @@
       <c r="D176" s="121"/>
       <c r="E176" s="156"/>
       <c r="F176" s="153" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G176" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H176" s="145"/>
       <c r="I176" s="143"/>
@@ -23613,10 +23609,10 @@
       <c r="D177" s="121"/>
       <c r="E177" s="156"/>
       <c r="F177" s="153" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G177" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H177" s="145"/>
       <c r="I177" s="143"/>
@@ -23646,10 +23642,10 @@
       <c r="D178" s="121"/>
       <c r="E178" s="156"/>
       <c r="F178" s="153" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G178" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H178" s="145"/>
       <c r="I178" s="143"/>
@@ -23679,10 +23675,10 @@
       <c r="D179" s="121"/>
       <c r="E179" s="148"/>
       <c r="F179" s="153" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G179" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H179" s="145"/>
       <c r="I179" s="143"/>
@@ -23711,13 +23707,13 @@
       <c r="C180" s="120"/>
       <c r="D180" s="121"/>
       <c r="E180" s="153" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F180" s="153" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G180" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H180" s="145"/>
       <c r="I180" s="143"/>
@@ -23746,13 +23742,13 @@
       <c r="C181" s="144"/>
       <c r="D181" s="123"/>
       <c r="E181" s="153" t="s">
+        <v>781</v>
+      </c>
+      <c r="F181" s="153" t="s">
         <v>782</v>
       </c>
-      <c r="F181" s="153" t="s">
-        <v>783</v>
-      </c>
       <c r="G181" s="122" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H181" s="145"/>
       <c r="I181" s="143"/>
@@ -23778,22 +23774,22 @@
         <v>65-1-1</v>
       </c>
       <c r="B182" s="160" t="s">
+        <v>783</v>
+      </c>
+      <c r="C182" s="113" t="s">
+        <v>694</v>
+      </c>
+      <c r="D182" s="154" t="s">
         <v>784</v>
       </c>
-      <c r="C182" s="113" t="s">
-        <v>695</v>
-      </c>
-      <c r="D182" s="154" t="s">
+      <c r="E182" s="153" t="s">
+        <v>713</v>
+      </c>
+      <c r="F182" s="153" t="s">
         <v>785</v>
       </c>
-      <c r="E182" s="153" t="s">
-        <v>714</v>
-      </c>
-      <c r="F182" s="153" t="s">
+      <c r="G182" s="122" t="s">
         <v>786</v>
-      </c>
-      <c r="G182" s="122" t="s">
-        <v>787</v>
       </c>
       <c r="H182" s="145"/>
       <c r="I182" s="143"/>
@@ -23821,16 +23817,16 @@
       <c r="B183" s="147"/>
       <c r="C183" s="120"/>
       <c r="D183" s="154" t="s">
+        <v>787</v>
+      </c>
+      <c r="E183" s="153" t="s">
+        <v>713</v>
+      </c>
+      <c r="F183" s="153" t="s">
         <v>788</v>
       </c>
-      <c r="E183" s="153" t="s">
-        <v>714</v>
-      </c>
-      <c r="F183" s="153" t="s">
-        <v>789</v>
-      </c>
       <c r="G183" s="122" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H183" s="145"/>
       <c r="I183" s="143"/>
@@ -23861,13 +23857,13 @@
         <v>302</v>
       </c>
       <c r="E184" s="153" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F184" s="153" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G184" s="122" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H184" s="145"/>
       <c r="I184" s="143"/>
@@ -23893,22 +23889,22 @@
         <v>68-1-1</v>
       </c>
       <c r="B185" s="160" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C185" s="113" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D185" s="124" t="s">
         <v>63</v>
       </c>
       <c r="E185" s="153" t="s">
+        <v>791</v>
+      </c>
+      <c r="F185" s="153" t="s">
         <v>792</v>
       </c>
-      <c r="F185" s="153" t="s">
+      <c r="G185" s="122" t="s">
         <v>793</v>
-      </c>
-      <c r="G185" s="122" t="s">
-        <v>794</v>
       </c>
       <c r="H185" s="145"/>
       <c r="I185" s="143"/>
@@ -23937,13 +23933,13 @@
       <c r="C186" s="120"/>
       <c r="D186" s="121"/>
       <c r="E186" s="155" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F186" s="153" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G186" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H186" s="145"/>
       <c r="I186" s="143"/>
@@ -23973,10 +23969,10 @@
       <c r="D187" s="121"/>
       <c r="E187" s="148"/>
       <c r="F187" s="153" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G187" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H187" s="145"/>
       <c r="I187" s="143"/>
@@ -24005,13 +24001,13 @@
       <c r="C188" s="120"/>
       <c r="D188" s="121"/>
       <c r="E188" s="155" t="s">
+        <v>796</v>
+      </c>
+      <c r="F188" s="153" t="s">
         <v>797</v>
       </c>
-      <c r="F188" s="153" t="s">
-        <v>798</v>
-      </c>
       <c r="G188" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H188" s="145"/>
       <c r="I188" s="143"/>
@@ -24041,10 +24037,10 @@
       <c r="D189" s="123"/>
       <c r="E189" s="148"/>
       <c r="F189" s="153" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G189" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H189" s="145"/>
       <c r="I189" s="143"/>
@@ -24078,10 +24074,10 @@
         <v>63</v>
       </c>
       <c r="F190" s="153" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G190" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H190" s="145"/>
       <c r="I190" s="143"/>
@@ -24108,19 +24104,19 @@
       </c>
       <c r="B191" s="147"/>
       <c r="C191" s="113" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D191" s="124" t="s">
         <v>315</v>
       </c>
       <c r="E191" s="155" t="s">
+        <v>801</v>
+      </c>
+      <c r="F191" s="153" t="s">
         <v>802</v>
       </c>
-      <c r="F191" s="153" t="s">
-        <v>803</v>
-      </c>
       <c r="G191" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H191" s="145"/>
       <c r="I191" s="143"/>
@@ -24150,10 +24146,10 @@
       <c r="D192" s="121"/>
       <c r="E192" s="156"/>
       <c r="F192" s="153" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G192" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H192" s="145"/>
       <c r="I192" s="143"/>
@@ -24183,10 +24179,10 @@
       <c r="D193" s="121"/>
       <c r="E193" s="156"/>
       <c r="F193" s="153" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G193" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H193" s="145"/>
       <c r="I193" s="143"/>
@@ -24216,10 +24212,10 @@
       <c r="D194" s="121"/>
       <c r="E194" s="156"/>
       <c r="F194" s="153" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G194" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H194" s="145"/>
       <c r="I194" s="143"/>
@@ -24249,10 +24245,10 @@
       <c r="D195" s="121"/>
       <c r="E195" s="156"/>
       <c r="F195" s="153" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G195" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H195" s="145"/>
       <c r="I195" s="143"/>
@@ -24282,10 +24278,10 @@
       <c r="D196" s="121"/>
       <c r="E196" s="156"/>
       <c r="F196" s="153" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G196" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H196" s="145"/>
       <c r="I196" s="143"/>
@@ -24315,10 +24311,10 @@
       <c r="D197" s="121"/>
       <c r="E197" s="148"/>
       <c r="F197" s="153" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G197" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H197" s="145"/>
       <c r="I197" s="143"/>
@@ -24347,13 +24343,13 @@
       <c r="C198" s="120"/>
       <c r="D198" s="123"/>
       <c r="E198" s="153" t="s">
+        <v>324</v>
+      </c>
+      <c r="F198" s="153" t="s">
         <v>325</v>
       </c>
-      <c r="F198" s="153" t="s">
-        <v>326</v>
-      </c>
       <c r="G198" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H198" s="145"/>
       <c r="I198" s="143"/>
@@ -24381,16 +24377,16 @@
       <c r="B199" s="147"/>
       <c r="C199" s="120"/>
       <c r="D199" s="124" t="s">
+        <v>809</v>
+      </c>
+      <c r="E199" s="125" t="s">
+        <v>635</v>
+      </c>
+      <c r="F199" s="153" t="s">
         <v>810</v>
       </c>
-      <c r="E199" s="125" t="s">
-        <v>636</v>
-      </c>
-      <c r="F199" s="153" t="s">
-        <v>811</v>
-      </c>
       <c r="G199" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H199" s="145"/>
       <c r="I199" s="143"/>
@@ -24420,10 +24416,10 @@
       <c r="D200" s="121"/>
       <c r="E200" s="127"/>
       <c r="F200" s="153" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G200" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H200" s="145"/>
       <c r="I200" s="143"/>
@@ -24453,10 +24449,10 @@
       <c r="D201" s="121"/>
       <c r="E201" s="127"/>
       <c r="F201" s="153" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G201" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H201" s="145"/>
       <c r="I201" s="143"/>
@@ -24486,10 +24482,10 @@
       <c r="D202" s="121"/>
       <c r="E202" s="127"/>
       <c r="F202" s="153" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G202" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H202" s="145"/>
       <c r="I202" s="143"/>
@@ -24519,10 +24515,10 @@
       <c r="D203" s="121"/>
       <c r="E203" s="127"/>
       <c r="F203" s="153" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G203" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H203" s="145"/>
       <c r="I203" s="143"/>
@@ -24552,10 +24548,10 @@
       <c r="D204" s="121"/>
       <c r="E204" s="127"/>
       <c r="F204" s="153" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G204" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H204" s="145"/>
       <c r="I204" s="143"/>
@@ -24585,10 +24581,10 @@
       <c r="D205" s="121"/>
       <c r="E205" s="127"/>
       <c r="F205" s="153" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G205" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H205" s="145"/>
       <c r="I205" s="143"/>
@@ -24618,10 +24614,10 @@
       <c r="D206" s="121"/>
       <c r="E206" s="127"/>
       <c r="F206" s="153" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G206" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H206" s="145"/>
       <c r="I206" s="143"/>
@@ -24651,10 +24647,10 @@
       <c r="D207" s="121"/>
       <c r="E207" s="127"/>
       <c r="F207" s="153" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G207" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H207" s="145"/>
       <c r="I207" s="143"/>
@@ -24684,10 +24680,10 @@
       <c r="D208" s="121"/>
       <c r="E208" s="127"/>
       <c r="F208" s="153" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G208" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H208" s="145"/>
       <c r="I208" s="143"/>
@@ -24717,10 +24713,10 @@
       <c r="D209" s="121"/>
       <c r="E209" s="127"/>
       <c r="F209" s="153" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G209" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H209" s="145"/>
       <c r="I209" s="143"/>
@@ -24750,10 +24746,10 @@
       <c r="D210" s="121"/>
       <c r="E210" s="127"/>
       <c r="F210" s="153" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G210" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H210" s="145"/>
       <c r="I210" s="143"/>
@@ -24783,10 +24779,10 @@
       <c r="D211" s="123"/>
       <c r="E211" s="128"/>
       <c r="F211" s="153" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G211" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H211" s="145"/>
       <c r="I211" s="143"/>
@@ -24814,16 +24810,16 @@
       <c r="B212" s="147"/>
       <c r="C212" s="120"/>
       <c r="D212" s="124" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E212" s="155" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F212" s="153" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G212" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H212" s="145"/>
       <c r="I212" s="143"/>
@@ -24853,10 +24849,10 @@
       <c r="D213" s="121"/>
       <c r="E213" s="156"/>
       <c r="F213" s="153" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G213" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H213" s="145"/>
       <c r="I213" s="143"/>
@@ -24886,10 +24882,10 @@
       <c r="D214" s="121"/>
       <c r="E214" s="156"/>
       <c r="F214" s="153" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G214" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H214" s="145"/>
       <c r="I214" s="143"/>
@@ -24919,10 +24915,10 @@
       <c r="D215" s="121"/>
       <c r="E215" s="156"/>
       <c r="F215" s="153" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G215" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H215" s="145"/>
       <c r="I215" s="143"/>
@@ -24952,10 +24948,10 @@
       <c r="D216" s="121"/>
       <c r="E216" s="156"/>
       <c r="F216" s="153" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G216" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H216" s="145"/>
       <c r="I216" s="143"/>
@@ -24985,10 +24981,10 @@
       <c r="D217" s="121"/>
       <c r="E217" s="156"/>
       <c r="F217" s="153" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G217" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H217" s="145"/>
       <c r="I217" s="143"/>
@@ -25018,10 +25014,10 @@
       <c r="D218" s="121"/>
       <c r="E218" s="156"/>
       <c r="F218" s="153" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G218" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H218" s="145"/>
       <c r="I218" s="143"/>
@@ -25051,10 +25047,10 @@
       <c r="D219" s="121"/>
       <c r="E219" s="156"/>
       <c r="F219" s="153" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G219" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H219" s="145"/>
       <c r="I219" s="143"/>
@@ -25084,10 +25080,10 @@
       <c r="D220" s="121"/>
       <c r="E220" s="156"/>
       <c r="F220" s="153" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G220" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H220" s="145"/>
       <c r="I220" s="143"/>
@@ -25117,10 +25113,10 @@
       <c r="D221" s="121"/>
       <c r="E221" s="156"/>
       <c r="F221" s="153" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G221" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H221" s="145"/>
       <c r="I221" s="143"/>
@@ -25150,10 +25146,10 @@
       <c r="D222" s="121"/>
       <c r="E222" s="156"/>
       <c r="F222" s="153" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G222" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H222" s="145"/>
       <c r="I222" s="143"/>
@@ -25183,10 +25179,10 @@
       <c r="D223" s="121"/>
       <c r="E223" s="156"/>
       <c r="F223" s="153" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G223" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H223" s="145"/>
       <c r="I223" s="143"/>
@@ -25216,10 +25212,10 @@
       <c r="D224" s="121"/>
       <c r="E224" s="156"/>
       <c r="F224" s="153" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G224" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H224" s="145"/>
       <c r="I224" s="143"/>
@@ -25249,10 +25245,10 @@
       <c r="D225" s="121"/>
       <c r="E225" s="127"/>
       <c r="F225" s="153" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G225" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H225" s="145"/>
       <c r="I225" s="143"/>
@@ -25282,10 +25278,10 @@
       <c r="D226" s="121"/>
       <c r="E226" s="128"/>
       <c r="F226" s="153" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G226" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H226" s="145"/>
       <c r="I226" s="143"/>
@@ -25314,13 +25310,13 @@
       <c r="C227" s="120"/>
       <c r="D227" s="121"/>
       <c r="E227" s="155" t="s">
+        <v>828</v>
+      </c>
+      <c r="F227" s="153" t="s">
         <v>829</v>
       </c>
-      <c r="F227" s="153" t="s">
-        <v>830</v>
-      </c>
       <c r="G227" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H227" s="145"/>
       <c r="I227" s="143"/>
@@ -25350,10 +25346,10 @@
       <c r="D228" s="121"/>
       <c r="E228" s="156"/>
       <c r="F228" s="153" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G228" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H228" s="145"/>
       <c r="I228" s="143"/>
@@ -25383,10 +25379,10 @@
       <c r="D229" s="121"/>
       <c r="E229" s="148"/>
       <c r="F229" s="153" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G229" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H229" s="145"/>
       <c r="I229" s="143"/>
@@ -25415,13 +25411,13 @@
       <c r="C230" s="120"/>
       <c r="D230" s="121"/>
       <c r="E230" s="153" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F230" s="153" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G230" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H230" s="145"/>
       <c r="I230" s="143"/>
@@ -25450,13 +25446,13 @@
       <c r="C231" s="144"/>
       <c r="D231" s="123"/>
       <c r="E231" s="153" t="s">
+        <v>832</v>
+      </c>
+      <c r="F231" s="153" t="s">
         <v>833</v>
       </c>
-      <c r="F231" s="153" t="s">
-        <v>834</v>
-      </c>
       <c r="G231" s="122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H231" s="145"/>
       <c r="I231" s="143"/>
@@ -25482,10 +25478,10 @@
         <v>79-1-1</v>
       </c>
       <c r="B232" s="160" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C232" s="113" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D232" s="124" t="s">
         <v>63</v>
@@ -25494,10 +25490,10 @@
         <v>63</v>
       </c>
       <c r="F232" s="153" t="s">
+        <v>835</v>
+      </c>
+      <c r="G232" s="122" t="s">
         <v>836</v>
-      </c>
-      <c r="G232" s="122" t="s">
-        <v>837</v>
       </c>
       <c r="H232" s="145"/>
       <c r="I232" s="143"/>
@@ -25526,13 +25522,13 @@
       <c r="C233" s="120"/>
       <c r="D233" s="121"/>
       <c r="E233" s="155" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F233" s="153" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G233" s="122" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H233" s="145"/>
       <c r="I233" s="143"/>
@@ -25562,10 +25558,10 @@
       <c r="D234" s="121"/>
       <c r="E234" s="156"/>
       <c r="F234" s="153" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G234" s="122" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H234" s="145"/>
       <c r="I234" s="143"/>
@@ -25595,10 +25591,10 @@
       <c r="D235" s="121"/>
       <c r="E235" s="156"/>
       <c r="F235" s="153" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G235" s="122" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H235" s="145"/>
       <c r="I235" s="143"/>
@@ -25628,10 +25624,10 @@
       <c r="D236" s="121"/>
       <c r="E236" s="156"/>
       <c r="F236" s="153" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G236" s="122" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H236" s="145"/>
       <c r="I236" s="143"/>
@@ -25661,10 +25657,10 @@
       <c r="D237" s="121"/>
       <c r="E237" s="148"/>
       <c r="F237" s="153" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G237" s="122" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H237" s="145"/>
       <c r="I237" s="143"/>
@@ -25693,13 +25689,13 @@
       <c r="C238" s="120"/>
       <c r="D238" s="121"/>
       <c r="E238" s="155" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F238" s="153" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G238" s="122" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H238" s="145"/>
       <c r="I238" s="143"/>
@@ -25729,10 +25725,10 @@
       <c r="D239" s="121"/>
       <c r="E239" s="156"/>
       <c r="F239" s="153" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G239" s="122" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H239" s="145"/>
       <c r="I239" s="143"/>
@@ -25762,10 +25758,10 @@
       <c r="D240" s="121"/>
       <c r="E240" s="156"/>
       <c r="F240" s="153" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G240" s="122" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H240" s="145"/>
       <c r="I240" s="143"/>
@@ -25795,10 +25791,10 @@
       <c r="D241" s="121"/>
       <c r="E241" s="156"/>
       <c r="F241" s="153" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G241" s="122" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H241" s="145"/>
       <c r="I241" s="143"/>
@@ -25828,10 +25824,10 @@
       <c r="D242" s="121"/>
       <c r="E242" s="148"/>
       <c r="F242" s="153" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G242" s="122" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H242" s="145"/>
       <c r="I242" s="143"/>
@@ -25863,10 +25859,10 @@
         <v>224</v>
       </c>
       <c r="F243" s="153" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G243" s="122" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H243" s="145"/>
       <c r="I243" s="143"/>
@@ -25896,16 +25892,16 @@
         <v>54</v>
       </c>
       <c r="D244" s="154" t="s">
+        <v>715</v>
+      </c>
+      <c r="E244" s="153" t="s">
         <v>716</v>
       </c>
-      <c r="E244" s="153" t="s">
-        <v>717</v>
-      </c>
       <c r="F244" s="153" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G244" s="122" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H244" s="145"/>
       <c r="I244" s="143"/>
@@ -25931,10 +25927,10 @@
         <v>84-1-1</v>
       </c>
       <c r="B245" s="160" t="s">
+        <v>849</v>
+      </c>
+      <c r="C245" s="113" t="s">
         <v>850</v>
-      </c>
-      <c r="C245" s="113" t="s">
-        <v>851</v>
       </c>
       <c r="D245" s="124" t="s">
         <v>63</v>
@@ -25943,10 +25939,10 @@
         <v>63</v>
       </c>
       <c r="F245" s="153" t="s">
+        <v>851</v>
+      </c>
+      <c r="G245" s="122" t="s">
         <v>852</v>
-      </c>
-      <c r="G245" s="122" t="s">
-        <v>853</v>
       </c>
       <c r="H245" s="145"/>
       <c r="I245" s="143"/>
@@ -25976,10 +25972,10 @@
       <c r="D246" s="123"/>
       <c r="E246" s="128"/>
       <c r="F246" s="153" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G246" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H246" s="145"/>
       <c r="I246" s="143"/>
@@ -26013,10 +26009,10 @@
         <v>63</v>
       </c>
       <c r="F247" s="153" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G247" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H247" s="145"/>
       <c r="I247" s="143"/>
@@ -26046,10 +26042,10 @@
       <c r="D248" s="123"/>
       <c r="E248" s="128"/>
       <c r="F248" s="153" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G248" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H248" s="145"/>
       <c r="I248" s="143"/>
@@ -26076,19 +26072,19 @@
       </c>
       <c r="B249" s="147"/>
       <c r="C249" s="113" t="s">
+        <v>856</v>
+      </c>
+      <c r="D249" s="124" t="s">
+        <v>715</v>
+      </c>
+      <c r="E249" s="153" t="s">
+        <v>734</v>
+      </c>
+      <c r="F249" s="153" t="s">
         <v>857</v>
       </c>
-      <c r="D249" s="124" t="s">
-        <v>716</v>
-      </c>
-      <c r="E249" s="153" t="s">
-        <v>735</v>
-      </c>
-      <c r="F249" s="153" t="s">
-        <v>858</v>
-      </c>
       <c r="G249" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H249" s="145"/>
       <c r="I249" s="143"/>
@@ -26117,13 +26113,13 @@
       <c r="C250" s="120"/>
       <c r="D250" s="121"/>
       <c r="E250" s="153" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F250" s="153" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G250" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H250" s="145"/>
       <c r="I250" s="143"/>
@@ -26152,13 +26148,13 @@
       <c r="C251" s="120"/>
       <c r="D251" s="121"/>
       <c r="E251" s="153" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F251" s="153" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G251" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H251" s="145"/>
       <c r="I251" s="143"/>
@@ -26190,10 +26186,10 @@
         <v>254</v>
       </c>
       <c r="F252" s="153" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G252" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H252" s="145"/>
       <c r="I252" s="143"/>
@@ -26221,16 +26217,16 @@
       <c r="B253" s="147"/>
       <c r="C253" s="120"/>
       <c r="D253" s="124" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E253" s="125" t="s">
         <v>63</v>
       </c>
       <c r="F253" s="153" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G253" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H253" s="145"/>
       <c r="I253" s="143"/>
@@ -26260,10 +26256,10 @@
       <c r="D254" s="121"/>
       <c r="E254" s="128"/>
       <c r="F254" s="153" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G254" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H254" s="145"/>
       <c r="I254" s="143"/>
@@ -26292,13 +26288,13 @@
       <c r="C255" s="120"/>
       <c r="D255" s="121"/>
       <c r="E255" s="125" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F255" s="153" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G255" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H255" s="145"/>
       <c r="I255" s="143"/>
@@ -26328,10 +26324,10 @@
       <c r="D256" s="121"/>
       <c r="E256" s="127"/>
       <c r="F256" s="153" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G256" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H256" s="145"/>
       <c r="I256" s="143"/>
@@ -26361,10 +26357,10 @@
       <c r="D257" s="121"/>
       <c r="E257" s="127"/>
       <c r="F257" s="153" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G257" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H257" s="145"/>
       <c r="I257" s="143"/>
@@ -26394,10 +26390,10 @@
       <c r="D258" s="121"/>
       <c r="E258" s="127"/>
       <c r="F258" s="153" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G258" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H258" s="145"/>
       <c r="I258" s="143"/>
@@ -26427,10 +26423,10 @@
       <c r="D259" s="121"/>
       <c r="E259" s="127"/>
       <c r="F259" s="153" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G259" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H259" s="145"/>
       <c r="I259" s="143"/>
@@ -26460,10 +26456,10 @@
       <c r="D260" s="121"/>
       <c r="E260" s="127"/>
       <c r="F260" s="153" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G260" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H260" s="145"/>
       <c r="I260" s="143"/>
@@ -26493,10 +26489,10 @@
       <c r="D261" s="121"/>
       <c r="E261" s="127"/>
       <c r="F261" s="153" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G261" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H261" s="145"/>
       <c r="I261" s="143"/>
@@ -26526,10 +26522,10 @@
       <c r="D262" s="121"/>
       <c r="E262" s="127"/>
       <c r="F262" s="153" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G262" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H262" s="145"/>
       <c r="I262" s="143"/>
@@ -26559,10 +26555,10 @@
       <c r="D263" s="121"/>
       <c r="E263" s="127"/>
       <c r="F263" s="153" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G263" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H263" s="145"/>
       <c r="I263" s="143"/>
@@ -26592,10 +26588,10 @@
       <c r="D264" s="121"/>
       <c r="E264" s="127"/>
       <c r="F264" s="153" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G264" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H264" s="145"/>
       <c r="I264" s="143"/>
@@ -26625,10 +26621,10 @@
       <c r="D265" s="121"/>
       <c r="E265" s="128"/>
       <c r="F265" s="153" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G265" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H265" s="145"/>
       <c r="I265" s="143"/>
@@ -26657,13 +26653,13 @@
       <c r="C266" s="120"/>
       <c r="D266" s="121"/>
       <c r="E266" s="125" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F266" s="153" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G266" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H266" s="145"/>
       <c r="I266" s="143"/>
@@ -26693,10 +26689,10 @@
       <c r="D267" s="121"/>
       <c r="E267" s="127"/>
       <c r="F267" s="153" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G267" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H267" s="145"/>
       <c r="I267" s="143"/>
@@ -26726,10 +26722,10 @@
       <c r="D268" s="121"/>
       <c r="E268" s="127"/>
       <c r="F268" s="153" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G268" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H268" s="145"/>
       <c r="I268" s="143"/>
@@ -26759,10 +26755,10 @@
       <c r="D269" s="121"/>
       <c r="E269" s="127"/>
       <c r="F269" s="153" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G269" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H269" s="145"/>
       <c r="I269" s="143"/>
@@ -26792,10 +26788,10 @@
       <c r="D270" s="121"/>
       <c r="E270" s="127"/>
       <c r="F270" s="153" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G270" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H270" s="145"/>
       <c r="I270" s="143"/>
@@ -26825,10 +26821,10 @@
       <c r="D271" s="121"/>
       <c r="E271" s="128"/>
       <c r="F271" s="153" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G271" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H271" s="145"/>
       <c r="I271" s="143"/>
@@ -26857,13 +26853,13 @@
       <c r="C272" s="120"/>
       <c r="D272" s="121"/>
       <c r="E272" s="125" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F272" s="153" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G272" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H272" s="145"/>
       <c r="I272" s="143"/>
@@ -26893,10 +26889,10 @@
       <c r="D273" s="121"/>
       <c r="E273" s="127"/>
       <c r="F273" s="153" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G273" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H273" s="145"/>
       <c r="I273" s="143"/>
@@ -26926,10 +26922,10 @@
       <c r="D274" s="121"/>
       <c r="E274" s="127"/>
       <c r="F274" s="153" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G274" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H274" s="145"/>
       <c r="I274" s="143"/>
@@ -26959,10 +26955,10 @@
       <c r="D275" s="121"/>
       <c r="E275" s="127"/>
       <c r="F275" s="153" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G275" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H275" s="145"/>
       <c r="I275" s="143"/>
@@ -26992,10 +26988,10 @@
       <c r="D276" s="121"/>
       <c r="E276" s="127"/>
       <c r="F276" s="153" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G276" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H276" s="145"/>
       <c r="I276" s="143"/>
@@ -27025,10 +27021,10 @@
       <c r="D277" s="121"/>
       <c r="E277" s="127"/>
       <c r="F277" s="153" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G277" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H277" s="145"/>
       <c r="I277" s="143"/>
@@ -27058,10 +27054,10 @@
       <c r="D278" s="121"/>
       <c r="E278" s="127"/>
       <c r="F278" s="153" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G278" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H278" s="145"/>
       <c r="I278" s="143"/>
@@ -27091,10 +27087,10 @@
       <c r="D279" s="121"/>
       <c r="E279" s="128"/>
       <c r="F279" s="153" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G279" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H279" s="145"/>
       <c r="I279" s="143"/>
@@ -27126,10 +27122,10 @@
         <v>254</v>
       </c>
       <c r="F280" s="153" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G280" s="122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H280" s="145"/>
       <c r="I280" s="143"/>
@@ -27155,10 +27151,10 @@
         <v>95-1-1</v>
       </c>
       <c r="B281" s="160" t="s">
+        <v>886</v>
+      </c>
+      <c r="C281" s="113" t="s">
         <v>887</v>
-      </c>
-      <c r="C281" s="113" t="s">
-        <v>888</v>
       </c>
       <c r="D281" s="124" t="s">
         <v>63</v>
@@ -27167,10 +27163,10 @@
         <v>63</v>
       </c>
       <c r="F281" s="153" t="s">
+        <v>888</v>
+      </c>
+      <c r="G281" s="122" t="s">
         <v>889</v>
-      </c>
-      <c r="G281" s="122" t="s">
-        <v>890</v>
       </c>
       <c r="H281" s="145"/>
       <c r="I281" s="145"/>
@@ -27200,10 +27196,10 @@
       <c r="D282" s="121"/>
       <c r="E282" s="127"/>
       <c r="F282" s="153" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G282" s="122" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H282" s="145"/>
       <c r="I282" s="145"/>
@@ -27233,10 +27229,10 @@
       <c r="D283" s="121"/>
       <c r="E283" s="127"/>
       <c r="F283" s="153" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G283" s="122" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H283" s="145"/>
       <c r="I283" s="145"/>
@@ -27266,10 +27262,10 @@
       <c r="D284" s="123"/>
       <c r="E284" s="128"/>
       <c r="F284" s="153" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G284" s="122" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H284" s="145"/>
       <c r="I284" s="145"/>
@@ -27296,19 +27292,19 @@
       </c>
       <c r="B285" s="147"/>
       <c r="C285" s="113" t="s">
+        <v>893</v>
+      </c>
+      <c r="D285" s="124" t="s">
+        <v>715</v>
+      </c>
+      <c r="E285" s="153" t="s">
+        <v>734</v>
+      </c>
+      <c r="F285" s="153" t="s">
         <v>894</v>
       </c>
-      <c r="D285" s="124" t="s">
-        <v>716</v>
-      </c>
-      <c r="E285" s="153" t="s">
-        <v>735</v>
-      </c>
-      <c r="F285" s="153" t="s">
-        <v>895</v>
-      </c>
       <c r="G285" s="122" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H285" s="145"/>
       <c r="I285" s="145"/>
@@ -27337,13 +27333,13 @@
       <c r="C286" s="120"/>
       <c r="D286" s="121"/>
       <c r="E286" s="153" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F286" s="153" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G286" s="122" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H286" s="145"/>
       <c r="I286" s="145"/>
@@ -27372,13 +27368,13 @@
       <c r="C287" s="120"/>
       <c r="D287" s="121"/>
       <c r="E287" s="153" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F287" s="153" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G287" s="122" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H287" s="145"/>
       <c r="I287" s="145"/>
@@ -27407,13 +27403,13 @@
       <c r="C288" s="120"/>
       <c r="D288" s="123"/>
       <c r="E288" s="153" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F288" s="153" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G288" s="122" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H288" s="145"/>
       <c r="I288" s="145"/>
@@ -27441,16 +27437,16 @@
       <c r="B289" s="147"/>
       <c r="C289" s="120"/>
       <c r="D289" s="124" t="s">
+        <v>898</v>
+      </c>
+      <c r="E289" s="155" t="s">
         <v>899</v>
       </c>
-      <c r="E289" s="155" t="s">
+      <c r="F289" s="153" t="s">
         <v>900</v>
       </c>
-      <c r="F289" s="153" t="s">
-        <v>901</v>
-      </c>
       <c r="G289" s="122" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H289" s="145"/>
       <c r="I289" s="143"/>
@@ -27480,10 +27476,10 @@
       <c r="D290" s="121"/>
       <c r="E290" s="156"/>
       <c r="F290" s="153" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G290" s="122" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H290" s="145"/>
       <c r="I290" s="143"/>
@@ -27513,10 +27509,10 @@
       <c r="D291" s="121"/>
       <c r="E291" s="156"/>
       <c r="F291" s="153" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G291" s="122" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H291" s="145"/>
       <c r="I291" s="143"/>
@@ -27549,7 +27545,7 @@
         <v>268</v>
       </c>
       <c r="G292" s="122" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H292" s="145"/>
       <c r="I292" s="143"/>
@@ -27582,7 +27578,7 @@
         <v>269</v>
       </c>
       <c r="G293" s="122" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H293" s="145"/>
       <c r="I293" s="143"/>
@@ -27615,7 +27611,7 @@
         <v>270</v>
       </c>
       <c r="G294" s="122" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H294" s="145"/>
       <c r="I294" s="143"/>
@@ -27645,10 +27641,10 @@
       <c r="D295" s="121"/>
       <c r="E295" s="156"/>
       <c r="F295" s="153" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G295" s="122" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H295" s="145"/>
       <c r="I295" s="143"/>
@@ -27678,10 +27674,10 @@
       <c r="D296" s="121"/>
       <c r="E296" s="156"/>
       <c r="F296" s="153" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G296" s="122" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H296" s="145"/>
       <c r="I296" s="143"/>
@@ -27711,10 +27707,10 @@
       <c r="D297" s="123"/>
       <c r="E297" s="148"/>
       <c r="F297" s="153" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G297" s="122" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H297" s="145"/>
       <c r="I297" s="143"/>
@@ -27760,7 +27756,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomLeft" activeCell="F212" sqref="F212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -27788,7 +27784,7 @@
     </row>
     <row r="2" spans="1:965">
       <c r="A2" s="25" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="4" spans="1:965">
@@ -38932,7 +38928,7 @@
         <v>281</v>
       </c>
       <c r="G166" s="137" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H166" s="76"/>
       <c r="I166" s="44"/>
@@ -38965,7 +38961,7 @@
         <v>282</v>
       </c>
       <c r="G167" s="137" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H167" s="76"/>
       <c r="I167" s="44"/>
@@ -38998,7 +38994,7 @@
         <v>283</v>
       </c>
       <c r="G168" s="137" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H168" s="76"/>
       <c r="I168" s="44"/>
@@ -39031,7 +39027,7 @@
         <v>284</v>
       </c>
       <c r="G169" s="137" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H169" s="76"/>
       <c r="I169" s="44"/>
@@ -39768,7 +39764,7 @@
         <v>317</v>
       </c>
       <c r="G190" s="76" t="s">
-        <v>318</v>
+        <v>526</v>
       </c>
       <c r="H190" s="76"/>
       <c r="I190" s="44"/>
@@ -39798,10 +39794,10 @@
       <c r="D191" s="73"/>
       <c r="E191" s="73"/>
       <c r="F191" s="76" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G191" s="76" t="s">
-        <v>318</v>
+        <v>526</v>
       </c>
       <c r="H191" s="76"/>
       <c r="I191" s="44"/>
@@ -39831,10 +39827,10 @@
       <c r="D192" s="73"/>
       <c r="E192" s="73"/>
       <c r="F192" s="76" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G192" s="76" t="s">
-        <v>318</v>
+        <v>526</v>
       </c>
       <c r="H192" s="76"/>
       <c r="I192" s="44"/>
@@ -39864,10 +39860,10 @@
       <c r="D193" s="73"/>
       <c r="E193" s="73"/>
       <c r="F193" s="76" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G193" s="76" t="s">
-        <v>318</v>
+        <v>526</v>
       </c>
       <c r="H193" s="76"/>
       <c r="I193" s="44"/>
@@ -39897,10 +39893,10 @@
       <c r="D194" s="73"/>
       <c r="E194" s="73"/>
       <c r="F194" s="76" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G194" s="76" t="s">
-        <v>318</v>
+        <v>526</v>
       </c>
       <c r="H194" s="76"/>
       <c r="I194" s="44"/>
@@ -39930,10 +39926,10 @@
       <c r="D195" s="73"/>
       <c r="E195" s="73"/>
       <c r="F195" s="76" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G195" s="76" t="s">
-        <v>318</v>
+        <v>526</v>
       </c>
       <c r="H195" s="76"/>
       <c r="I195" s="44"/>
@@ -39963,10 +39959,10 @@
       <c r="D196" s="73"/>
       <c r="E196" s="86"/>
       <c r="F196" s="76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G196" s="76" t="s">
-        <v>318</v>
+        <v>526</v>
       </c>
       <c r="H196" s="76"/>
       <c r="I196" s="44"/>
@@ -39995,13 +39991,13 @@
       <c r="C197" s="92"/>
       <c r="D197" s="86"/>
       <c r="E197" s="86" t="s">
+        <v>324</v>
+      </c>
+      <c r="F197" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="F197" s="76" t="s">
-        <v>326</v>
-      </c>
       <c r="G197" s="76" t="s">
-        <v>318</v>
+        <v>526</v>
       </c>
       <c r="H197" s="76"/>
       <c r="I197" s="44"/>
@@ -40029,16 +40025,16 @@
       <c r="B198" s="92"/>
       <c r="C198" s="92"/>
       <c r="D198" s="73" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E198" s="73" t="s">
         <v>137</v>
       </c>
       <c r="F198" s="76" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G198" s="76" t="s">
-        <v>318</v>
+        <v>526</v>
       </c>
       <c r="H198" s="76"/>
       <c r="I198" s="44"/>
@@ -40068,10 +40064,10 @@
       <c r="D199" s="73"/>
       <c r="E199" s="73"/>
       <c r="F199" s="76" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G199" s="76" t="s">
-        <v>318</v>
+        <v>526</v>
       </c>
       <c r="H199" s="76"/>
       <c r="I199" s="44"/>
@@ -40101,10 +40097,10 @@
       <c r="D200" s="73"/>
       <c r="E200" s="73"/>
       <c r="F200" s="76" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G200" s="76" t="s">
-        <v>318</v>
+        <v>526</v>
       </c>
       <c r="H200" s="76"/>
       <c r="I200" s="44"/>
@@ -40134,10 +40130,10 @@
       <c r="D201" s="73"/>
       <c r="E201" s="73"/>
       <c r="F201" s="76" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G201" s="76" t="s">
-        <v>318</v>
+        <v>526</v>
       </c>
       <c r="H201" s="76"/>
       <c r="I201" s="44"/>
@@ -40167,10 +40163,10 @@
       <c r="D202" s="73"/>
       <c r="E202" s="73"/>
       <c r="F202" s="76" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G202" s="76" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="H202" s="76"/>
       <c r="I202" s="44"/>
@@ -40200,10 +40196,10 @@
       <c r="D203" s="73"/>
       <c r="E203" s="73"/>
       <c r="F203" s="76" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G203" s="76" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="H203" s="76"/>
       <c r="I203" s="44"/>
@@ -40233,10 +40229,10 @@
       <c r="D204" s="73"/>
       <c r="E204" s="73"/>
       <c r="F204" s="76" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G204" s="76" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="H204" s="76"/>
       <c r="I204" s="44"/>
@@ -40266,10 +40262,10 @@
       <c r="D205" s="73"/>
       <c r="E205" s="73"/>
       <c r="F205" s="76" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G205" s="76" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="H205" s="76"/>
       <c r="I205" s="44"/>
@@ -40299,10 +40295,10 @@
       <c r="D206" s="73"/>
       <c r="E206" s="73"/>
       <c r="F206" s="76" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G206" s="76" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="H206" s="76"/>
       <c r="I206" s="44"/>
@@ -40314,7 +40310,7 @@
       <c r="O206" s="83"/>
       <c r="P206" s="83"/>
     </row>
-    <row r="207" spans="1:16" ht="33.75">
+    <row r="207" spans="1:16" ht="22.5">
       <c r="A207" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A207" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E207),
@@ -40332,10 +40328,10 @@
       <c r="D207" s="73"/>
       <c r="E207" s="73"/>
       <c r="F207" s="76" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G207" s="76" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="H207" s="76"/>
       <c r="I207" s="44"/>
@@ -40347,7 +40343,7 @@
       <c r="O207" s="83"/>
       <c r="P207" s="83"/>
     </row>
-    <row r="208" spans="1:16" ht="33.75">
+    <row r="208" spans="1:16" ht="22.5">
       <c r="A208" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A208" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E208),
@@ -40365,10 +40361,10 @@
       <c r="D208" s="73"/>
       <c r="E208" s="73"/>
       <c r="F208" s="76" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G208" s="76" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="H208" s="76"/>
       <c r="I208" s="44"/>
@@ -40380,7 +40376,7 @@
       <c r="O208" s="83"/>
       <c r="P208" s="83"/>
     </row>
-    <row r="209" spans="1:16" ht="33.75">
+    <row r="209" spans="1:16" ht="22.5">
       <c r="A209" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E209),
@@ -40398,10 +40394,10 @@
       <c r="D209" s="73"/>
       <c r="E209" s="73"/>
       <c r="F209" s="76" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G209" s="76" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="H209" s="76"/>
       <c r="I209" s="44"/>
@@ -40431,10 +40427,10 @@
       <c r="D210" s="86"/>
       <c r="E210" s="86"/>
       <c r="F210" s="76" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G210" s="76" t="s">
-        <v>318</v>
+        <v>526</v>
       </c>
       <c r="H210" s="76"/>
       <c r="I210" s="44"/>
@@ -40446,7 +40442,7 @@
       <c r="O210" s="83"/>
       <c r="P210" s="83"/>
     </row>
-    <row r="211" spans="1:16" ht="33.75">
+    <row r="211" spans="1:16" ht="22.5">
       <c r="A211" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A211" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E211),
@@ -40462,16 +40458,16 @@
       <c r="B211" s="73"/>
       <c r="C211" s="92"/>
       <c r="D211" s="46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E211" s="46" t="s">
         <v>137</v>
       </c>
       <c r="F211" s="76" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G211" s="76" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="H211" s="76"/>
       <c r="I211" s="44"/>
@@ -40483,7 +40479,7 @@
       <c r="O211" s="83"/>
       <c r="P211" s="83"/>
     </row>
-    <row r="212" spans="1:16" ht="33.75">
+    <row r="212" spans="1:16" ht="22.5">
       <c r="A212" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E212),
@@ -40501,10 +40497,10 @@
       <c r="D212" s="73"/>
       <c r="E212" s="73"/>
       <c r="F212" s="76" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G212" s="76" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="H212" s="76"/>
       <c r="I212" s="44"/>
@@ -40516,7 +40512,7 @@
       <c r="O212" s="83"/>
       <c r="P212" s="83"/>
     </row>
-    <row r="213" spans="1:16" ht="33.75">
+    <row r="213" spans="1:16" ht="22.5">
       <c r="A213" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A213" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E213),
@@ -40534,10 +40530,10 @@
       <c r="D213" s="73"/>
       <c r="E213" s="73"/>
       <c r="F213" s="76" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G213" s="76" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="H213" s="76"/>
       <c r="I213" s="44"/>
@@ -40549,7 +40545,7 @@
       <c r="O213" s="83"/>
       <c r="P213" s="83"/>
     </row>
-    <row r="214" spans="1:16" ht="33.75">
+    <row r="214" spans="1:16" ht="22.5">
       <c r="A214" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E214),
@@ -40567,10 +40563,10 @@
       <c r="D214" s="73"/>
       <c r="E214" s="73"/>
       <c r="F214" s="76" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G214" s="76" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="H214" s="76"/>
       <c r="I214" s="44"/>
@@ -40582,7 +40578,7 @@
       <c r="O214" s="83"/>
       <c r="P214" s="83"/>
     </row>
-    <row r="215" spans="1:16" ht="33.75">
+    <row r="215" spans="1:16" ht="22.5">
       <c r="A215" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A215" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E215),
@@ -40600,10 +40596,10 @@
       <c r="D215" s="73"/>
       <c r="E215" s="73"/>
       <c r="F215" s="76" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G215" s="76" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="H215" s="76"/>
       <c r="I215" s="44"/>
@@ -40633,10 +40629,10 @@
       <c r="D216" s="73"/>
       <c r="E216" s="73"/>
       <c r="F216" s="76" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G216" s="76" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="H216" s="76"/>
       <c r="I216" s="44"/>
@@ -40666,10 +40662,10 @@
       <c r="D217" s="73"/>
       <c r="E217" s="73"/>
       <c r="F217" s="76" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G217" s="76" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="H217" s="76"/>
       <c r="I217" s="44"/>
@@ -40699,10 +40695,10 @@
       <c r="D218" s="73"/>
       <c r="E218" s="73"/>
       <c r="F218" s="76" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G218" s="76" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="H218" s="76"/>
       <c r="I218" s="44"/>
@@ -40732,10 +40728,10 @@
       <c r="D219" s="73"/>
       <c r="E219" s="73"/>
       <c r="F219" s="76" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G219" s="76" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="H219" s="76"/>
       <c r="I219" s="44"/>
@@ -40765,10 +40761,10 @@
       <c r="D220" s="73"/>
       <c r="E220" s="73"/>
       <c r="F220" s="76" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G220" s="76" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="H220" s="76"/>
       <c r="I220" s="44"/>
@@ -40798,10 +40794,10 @@
       <c r="D221" s="73"/>
       <c r="E221" s="73"/>
       <c r="F221" s="76" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G221" s="76" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="H221" s="76"/>
       <c r="I221" s="44"/>
@@ -40813,7 +40809,7 @@
       <c r="O221" s="83"/>
       <c r="P221" s="83"/>
     </row>
-    <row r="222" spans="1:16" ht="33.75">
+    <row r="222" spans="1:16" ht="22.5">
       <c r="A222" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A222" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E222),
@@ -40831,10 +40827,10 @@
       <c r="D222" s="73"/>
       <c r="E222" s="73"/>
       <c r="F222" s="76" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G222" s="76" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="H222" s="76"/>
       <c r="I222" s="44"/>
@@ -40846,7 +40842,7 @@
       <c r="O222" s="83"/>
       <c r="P222" s="83"/>
     </row>
-    <row r="223" spans="1:16" ht="33.75">
+    <row r="223" spans="1:16" ht="22.5">
       <c r="A223" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A223" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E223),
@@ -40864,10 +40860,10 @@
       <c r="D223" s="73"/>
       <c r="E223" s="73"/>
       <c r="F223" s="76" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G223" s="76" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="H223" s="76"/>
       <c r="I223" s="44"/>
@@ -40879,7 +40875,7 @@
       <c r="O223" s="83"/>
       <c r="P223" s="83"/>
     </row>
-    <row r="224" spans="1:16" ht="33.75">
+    <row r="224" spans="1:16" ht="22.5">
       <c r="A224" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A224" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E224),
@@ -40897,10 +40893,10 @@
       <c r="D224" s="73"/>
       <c r="E224" s="73"/>
       <c r="F224" s="76" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G224" s="76" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="H224" s="76"/>
       <c r="I224" s="44"/>
@@ -40912,7 +40908,7 @@
       <c r="O224" s="83"/>
       <c r="P224" s="83"/>
     </row>
-    <row r="225" spans="1:16" ht="33.75">
+    <row r="225" spans="1:16" ht="22.5">
       <c r="A225" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A225" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E225),
@@ -40930,10 +40926,10 @@
       <c r="D225" s="73"/>
       <c r="E225" s="86"/>
       <c r="F225" s="76" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G225" s="76" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="H225" s="76"/>
       <c r="I225" s="44"/>
@@ -40962,10 +40958,10 @@
       <c r="C226" s="92"/>
       <c r="D226" s="73"/>
       <c r="E226" s="73" t="s">
+        <v>353</v>
+      </c>
+      <c r="F226" s="76" t="s">
         <v>354</v>
-      </c>
-      <c r="F226" s="76" t="s">
-        <v>355</v>
       </c>
       <c r="G226" s="76" t="s">
         <v>96</v>
@@ -40998,7 +40994,7 @@
       <c r="D227" s="73"/>
       <c r="E227" s="73"/>
       <c r="F227" s="76" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G227" s="76" t="s">
         <v>96</v>
@@ -41031,7 +41027,7 @@
       <c r="D228" s="73"/>
       <c r="E228" s="86"/>
       <c r="F228" s="76" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G228" s="76" t="s">
         <v>96</v>
@@ -41066,7 +41062,7 @@
         <v>163</v>
       </c>
       <c r="F229" s="76" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G229" s="76" t="s">
         <v>96</v>
@@ -41098,10 +41094,10 @@
       <c r="C230" s="86"/>
       <c r="D230" s="86"/>
       <c r="E230" s="100" t="s">
+        <v>358</v>
+      </c>
+      <c r="F230" s="76" t="s">
         <v>359</v>
-      </c>
-      <c r="F230" s="76" t="s">
-        <v>360</v>
       </c>
       <c r="G230" s="76" t="s">
         <v>96</v>
@@ -41130,7 +41126,7 @@
         <v>78-1-1</v>
       </c>
       <c r="B231" s="46" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C231" s="46" t="s">
         <v>206</v>
@@ -41142,7 +41138,7 @@
         <v>63</v>
       </c>
       <c r="F231" s="76" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G231" s="76" t="s">
         <v>96</v>
@@ -41177,7 +41173,7 @@
         <v>148</v>
       </c>
       <c r="F232" s="76" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G232" s="76" t="s">
         <v>96</v>
@@ -41210,7 +41206,7 @@
       <c r="D233" s="73"/>
       <c r="E233" s="73"/>
       <c r="F233" s="76" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G233" s="76" t="s">
         <v>96</v>
@@ -41243,7 +41239,7 @@
       <c r="D234" s="73"/>
       <c r="E234" s="73"/>
       <c r="F234" s="76" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G234" s="76" t="s">
         <v>96</v>
@@ -41276,7 +41272,7 @@
       <c r="D235" s="73"/>
       <c r="E235" s="73"/>
       <c r="F235" s="76" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G235" s="76" t="s">
         <v>96</v>
@@ -41309,7 +41305,7 @@
       <c r="D236" s="73"/>
       <c r="E236" s="86"/>
       <c r="F236" s="76" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G236" s="76" t="s">
         <v>96</v>
@@ -41344,7 +41340,7 @@
         <v>218</v>
       </c>
       <c r="F237" s="76" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G237" s="76" t="s">
         <v>96</v>
@@ -41377,7 +41373,7 @@
       <c r="D238" s="73"/>
       <c r="E238" s="73"/>
       <c r="F238" s="76" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G238" s="76" t="s">
         <v>96</v>
@@ -41410,7 +41406,7 @@
       <c r="D239" s="73"/>
       <c r="E239" s="73"/>
       <c r="F239" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G239" s="76" t="s">
         <v>96</v>
@@ -41443,7 +41439,7 @@
       <c r="D240" s="73"/>
       <c r="E240" s="73"/>
       <c r="F240" s="76" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G240" s="76" t="s">
         <v>96</v>
@@ -41476,7 +41472,7 @@
       <c r="D241" s="73"/>
       <c r="E241" s="86"/>
       <c r="F241" s="76" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G241" s="76" t="s">
         <v>96</v>
@@ -41511,7 +41507,7 @@
         <v>224</v>
       </c>
       <c r="F242" s="76" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G242" s="76" t="s">
         <v>198</v>
@@ -41550,7 +41546,7 @@
         <v>229</v>
       </c>
       <c r="F243" s="76" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G243" s="76" t="s">
         <v>231</v>
@@ -41579,10 +41575,10 @@
         <v>83-1-1</v>
       </c>
       <c r="B244" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="C244" s="46" t="s">
         <v>375</v>
-      </c>
-      <c r="C244" s="46" t="s">
-        <v>376</v>
       </c>
       <c r="D244" s="46" t="s">
         <v>63</v>
@@ -41591,7 +41587,7 @@
         <v>63</v>
       </c>
       <c r="F244" s="76" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G244" s="76" t="s">
         <v>96</v>
@@ -41624,7 +41620,7 @@
       <c r="D245" s="86"/>
       <c r="E245" s="86"/>
       <c r="F245" s="76" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G245" s="76" t="s">
         <v>96</v>
@@ -41661,7 +41657,7 @@
         <v>63</v>
       </c>
       <c r="F246" s="76" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G246" s="76" t="s">
         <v>96</v>
@@ -41694,7 +41690,7 @@
       <c r="D247" s="86"/>
       <c r="E247" s="86"/>
       <c r="F247" s="76" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G247" s="76" t="s">
         <v>96</v>
@@ -41724,7 +41720,7 @@
       </c>
       <c r="B248" s="92"/>
       <c r="C248" s="72" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D248" s="73" t="s">
         <v>228</v>
@@ -41733,7 +41729,7 @@
         <v>247</v>
       </c>
       <c r="F248" s="76" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G248" s="76" t="s">
         <v>96</v>
@@ -41768,7 +41764,7 @@
         <v>251</v>
       </c>
       <c r="F249" s="76" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G249" s="76" t="s">
         <v>96</v>
@@ -41803,7 +41799,7 @@
         <v>229</v>
       </c>
       <c r="F250" s="76" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G250" s="76" t="s">
         <v>96</v>
@@ -41838,7 +41834,7 @@
         <v>254</v>
       </c>
       <c r="F251" s="76" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G251" s="76" t="s">
         <v>96</v>
@@ -41875,7 +41871,7 @@
         <v>63</v>
       </c>
       <c r="F252" s="76" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G252" s="76" t="s">
         <v>96</v>
@@ -41908,7 +41904,7 @@
       <c r="D253" s="72"/>
       <c r="E253" s="86"/>
       <c r="F253" s="76" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G253" s="76" t="s">
         <v>96</v>
@@ -41943,7 +41939,7 @@
         <v>137</v>
       </c>
       <c r="F254" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G254" s="76" t="s">
         <v>96</v>
@@ -41976,7 +41972,7 @@
       <c r="D255" s="72"/>
       <c r="E255" s="73"/>
       <c r="F255" s="76" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G255" s="76" t="s">
         <v>96</v>
@@ -42009,7 +42005,7 @@
       <c r="D256" s="72"/>
       <c r="E256" s="73"/>
       <c r="F256" s="76" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G256" s="76" t="s">
         <v>96</v>
@@ -42042,7 +42038,7 @@
       <c r="D257" s="72"/>
       <c r="E257" s="73"/>
       <c r="F257" s="76" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G257" s="76" t="s">
         <v>96</v>
@@ -42075,7 +42071,7 @@
       <c r="D258" s="73"/>
       <c r="E258" s="92"/>
       <c r="F258" s="76" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G258" s="76" t="s">
         <v>96</v>
@@ -42108,7 +42104,7 @@
       <c r="D259" s="73"/>
       <c r="E259" s="92"/>
       <c r="F259" s="76" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G259" s="76" t="s">
         <v>96</v>
@@ -42141,7 +42137,7 @@
       <c r="D260" s="73"/>
       <c r="E260" s="92"/>
       <c r="F260" s="76" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G260" s="76" t="s">
         <v>96</v>
@@ -42174,7 +42170,7 @@
       <c r="D261" s="73"/>
       <c r="E261" s="92"/>
       <c r="F261" s="76" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G261" s="76" t="s">
         <v>96</v>
@@ -42207,7 +42203,7 @@
       <c r="D262" s="73"/>
       <c r="E262" s="92"/>
       <c r="F262" s="76" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G262" s="76" t="s">
         <v>96</v>
@@ -42240,7 +42236,7 @@
       <c r="D263" s="73"/>
       <c r="E263" s="73"/>
       <c r="F263" s="76" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G263" s="76" t="s">
         <v>96</v>
@@ -42273,7 +42269,7 @@
       <c r="D264" s="73"/>
       <c r="E264" s="86"/>
       <c r="F264" s="76" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G264" s="76" t="s">
         <v>96</v>
@@ -42308,7 +42304,7 @@
         <v>70</v>
       </c>
       <c r="F265" s="76" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G265" s="76" t="s">
         <v>96</v>
@@ -42341,7 +42337,7 @@
       <c r="D266" s="73"/>
       <c r="E266" s="73"/>
       <c r="F266" s="76" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G266" s="76" t="s">
         <v>96</v>
@@ -42374,7 +42370,7 @@
       <c r="D267" s="73"/>
       <c r="E267" s="73"/>
       <c r="F267" s="76" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G267" s="76" t="s">
         <v>96</v>
@@ -42407,7 +42403,7 @@
       <c r="D268" s="72"/>
       <c r="E268" s="73"/>
       <c r="F268" s="76" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G268" s="76" t="s">
         <v>96</v>
@@ -42440,7 +42436,7 @@
       <c r="D269" s="72"/>
       <c r="E269" s="73"/>
       <c r="F269" s="76" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G269" s="76" t="s">
         <v>96</v>
@@ -42473,7 +42469,7 @@
       <c r="D270" s="72"/>
       <c r="E270" s="86"/>
       <c r="F270" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G270" s="76" t="s">
         <v>96</v>
@@ -42508,7 +42504,7 @@
         <v>218</v>
       </c>
       <c r="F271" s="76" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G271" s="76" t="s">
         <v>96</v>
@@ -42541,7 +42537,7 @@
       <c r="D272" s="72"/>
       <c r="E272" s="73"/>
       <c r="F272" s="76" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G272" s="76" t="s">
         <v>96</v>
@@ -42574,7 +42570,7 @@
       <c r="D273" s="72"/>
       <c r="E273" s="73"/>
       <c r="F273" s="76" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G273" s="76" t="s">
         <v>96</v>
@@ -42607,7 +42603,7 @@
       <c r="D274" s="72"/>
       <c r="E274" s="73"/>
       <c r="F274" s="76" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G274" s="76" t="s">
         <v>96</v>
@@ -42640,7 +42636,7 @@
       <c r="D275" s="72"/>
       <c r="E275" s="73"/>
       <c r="F275" s="76" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G275" s="76" t="s">
         <v>96</v>
@@ -42673,7 +42669,7 @@
       <c r="D276" s="72"/>
       <c r="E276" s="73"/>
       <c r="F276" s="76" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G276" s="76" t="s">
         <v>96</v>
@@ -42706,7 +42702,7 @@
       <c r="D277" s="72"/>
       <c r="E277" s="73"/>
       <c r="F277" s="76" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G277" s="76" t="s">
         <v>96</v>
@@ -42739,7 +42735,7 @@
       <c r="D278" s="72"/>
       <c r="E278" s="86"/>
       <c r="F278" s="76" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G278" s="76" t="s">
         <v>96</v>
@@ -42774,7 +42770,7 @@
         <v>254</v>
       </c>
       <c r="F279" s="76" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G279" s="76" t="s">
         <v>96</v>
@@ -42803,10 +42799,10 @@
         <v>94-1-1</v>
       </c>
       <c r="B280" s="45" t="s">
+        <v>413</v>
+      </c>
+      <c r="C280" s="46" t="s">
         <v>414</v>
-      </c>
-      <c r="C280" s="46" t="s">
-        <v>415</v>
       </c>
       <c r="D280" s="46" t="s">
         <v>63</v>
@@ -42815,7 +42811,7 @@
         <v>63</v>
       </c>
       <c r="F280" s="76" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G280" s="76" t="s">
         <v>198</v>
@@ -42848,7 +42844,7 @@
       <c r="D281" s="73"/>
       <c r="E281" s="73"/>
       <c r="F281" s="76" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G281" s="76" t="s">
         <v>198</v>
@@ -42881,7 +42877,7 @@
       <c r="D282" s="73"/>
       <c r="E282" s="73"/>
       <c r="F282" s="76" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G282" s="76" t="s">
         <v>198</v>
@@ -42914,7 +42910,7 @@
       <c r="D283" s="86"/>
       <c r="E283" s="86"/>
       <c r="F283" s="76" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G283" s="76" t="s">
         <v>198</v>
@@ -42944,7 +42940,7 @@
       </c>
       <c r="B284" s="56"/>
       <c r="C284" s="73" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D284" s="73" t="s">
         <v>228</v>
@@ -42953,7 +42949,7 @@
         <v>247</v>
       </c>
       <c r="F284" s="76" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G284" s="76" t="s">
         <v>198</v>
@@ -42988,7 +42984,7 @@
         <v>249</v>
       </c>
       <c r="F285" s="76" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G285" s="76" t="s">
         <v>198</v>
@@ -43023,7 +43019,7 @@
         <v>251</v>
       </c>
       <c r="F286" s="76" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G286" s="76" t="s">
         <v>198</v>
@@ -43058,7 +43054,7 @@
         <v>163</v>
       </c>
       <c r="F287" s="76" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G287" s="76" t="s">
         <v>198</v>
@@ -43089,16 +43085,16 @@
       <c r="B288" s="56"/>
       <c r="C288" s="56"/>
       <c r="D288" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="E288" s="73" t="s">
         <v>425</v>
       </c>
-      <c r="E288" s="73" t="s">
+      <c r="F288" s="76" t="s">
         <v>426</v>
       </c>
-      <c r="F288" s="76" t="s">
+      <c r="G288" s="76" t="s">
         <v>427</v>
-      </c>
-      <c r="G288" s="76" t="s">
-        <v>428</v>
       </c>
       <c r="H288" s="76"/>
       <c r="I288" s="44"/>
@@ -43128,10 +43124,10 @@
       <c r="D289" s="72"/>
       <c r="E289" s="73"/>
       <c r="F289" s="76" t="s">
+        <v>428</v>
+      </c>
+      <c r="G289" s="76" t="s">
         <v>429</v>
-      </c>
-      <c r="G289" s="76" t="s">
-        <v>430</v>
       </c>
       <c r="H289" s="76"/>
       <c r="I289" s="44"/>
@@ -43161,7 +43157,7 @@
       <c r="D290" s="72"/>
       <c r="E290" s="73"/>
       <c r="F290" s="76" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G290" s="76" t="s">
         <v>96</v>
@@ -43293,7 +43289,7 @@
       <c r="D294" s="72"/>
       <c r="E294" s="73"/>
       <c r="F294" s="76" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G294" s="76" t="s">
         <v>96</v>
@@ -43326,7 +43322,7 @@
       <c r="D295" s="72"/>
       <c r="E295" s="73"/>
       <c r="F295" s="76" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G295" s="76" t="s">
         <v>96</v>
@@ -43359,7 +43355,7 @@
       <c r="D296" s="85"/>
       <c r="E296" s="86"/>
       <c r="F296" s="76" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G296" s="76" t="s">
         <v>96</v>
@@ -43388,25 +43384,25 @@
         <v>100-1-1</v>
       </c>
       <c r="B297" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="C297" s="71" t="s">
         <v>435</v>
       </c>
-      <c r="C297" s="71" t="s">
+      <c r="D297" s="73" t="s">
         <v>436</v>
-      </c>
-      <c r="D297" s="73" t="s">
-        <v>437</v>
       </c>
       <c r="E297" s="46" t="s">
         <v>63</v>
       </c>
       <c r="F297" s="76" t="s">
+        <v>437</v>
+      </c>
+      <c r="G297" s="76" t="s">
         <v>438</v>
       </c>
-      <c r="G297" s="76" t="s">
+      <c r="H297" s="76" t="s">
         <v>439</v>
-      </c>
-      <c r="H297" s="76" t="s">
-        <v>440</v>
       </c>
       <c r="I297" s="89"/>
       <c r="J297" s="89"/>
@@ -43435,13 +43431,13 @@
       <c r="D298" s="73"/>
       <c r="E298" s="73"/>
       <c r="F298" s="76" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G298" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="H298" s="76" t="s">
         <v>439</v>
-      </c>
-      <c r="H298" s="76" t="s">
-        <v>440</v>
       </c>
       <c r="I298" s="89"/>
       <c r="J298" s="89"/>
@@ -43470,13 +43466,13 @@
       <c r="D299" s="73"/>
       <c r="E299" s="73"/>
       <c r="F299" s="76" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G299" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="H299" s="76" t="s">
         <v>439</v>
-      </c>
-      <c r="H299" s="76" t="s">
-        <v>440</v>
       </c>
       <c r="I299" s="76"/>
       <c r="J299" s="89"/>
@@ -43506,13 +43502,13 @@
       <c r="D300" s="73"/>
       <c r="E300" s="73"/>
       <c r="F300" s="76" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G300" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="H300" s="76" t="s">
         <v>439</v>
-      </c>
-      <c r="H300" s="76" t="s">
-        <v>440</v>
       </c>
       <c r="I300" s="76"/>
       <c r="J300" s="89"/>
@@ -43541,13 +43537,13 @@
       <c r="D301" s="73"/>
       <c r="E301" s="73"/>
       <c r="F301" s="76" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G301" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="H301" s="76" t="s">
         <v>439</v>
-      </c>
-      <c r="H301" s="76" t="s">
-        <v>440</v>
       </c>
       <c r="I301" s="76"/>
       <c r="J301" s="89"/>
@@ -43576,13 +43572,13 @@
       <c r="D302" s="73"/>
       <c r="E302" s="73"/>
       <c r="F302" s="76" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G302" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="H302" s="76" t="s">
         <v>439</v>
-      </c>
-      <c r="H302" s="76" t="s">
-        <v>440</v>
       </c>
       <c r="I302" s="76"/>
       <c r="J302" s="89"/>
@@ -43612,13 +43608,13 @@
       <c r="D303" s="73"/>
       <c r="E303" s="73"/>
       <c r="F303" s="76" t="s">
+        <v>445</v>
+      </c>
+      <c r="G303" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="H303" s="76" t="s">
         <v>446</v>
-      </c>
-      <c r="G303" s="76" t="s">
-        <v>439</v>
-      </c>
-      <c r="H303" s="76" t="s">
-        <v>447</v>
       </c>
       <c r="I303" s="76"/>
       <c r="J303" s="89"/>
@@ -43647,13 +43643,13 @@
       <c r="D304" s="73"/>
       <c r="E304" s="73"/>
       <c r="F304" s="76" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G304" s="76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H304" s="76" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I304" s="76"/>
       <c r="J304" s="89"/>
@@ -43682,13 +43678,13 @@
       <c r="D305" s="73"/>
       <c r="E305" s="73"/>
       <c r="F305" s="76" t="s">
+        <v>448</v>
+      </c>
+      <c r="G305" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="H305" s="76" t="s">
         <v>449</v>
-      </c>
-      <c r="G305" s="76" t="s">
-        <v>439</v>
-      </c>
-      <c r="H305" s="76" t="s">
-        <v>450</v>
       </c>
       <c r="I305" s="76"/>
       <c r="J305" s="89"/>
@@ -43717,13 +43713,13 @@
       <c r="D306" s="73"/>
       <c r="E306" s="73"/>
       <c r="F306" s="76" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G306" s="76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H306" s="76" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I306" s="76"/>
       <c r="J306" s="89"/>
@@ -43752,13 +43748,13 @@
       <c r="D307" s="73"/>
       <c r="E307" s="73"/>
       <c r="F307" s="76" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G307" s="76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H307" s="76" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I307" s="76"/>
       <c r="J307" s="89"/>
@@ -43787,13 +43783,13 @@
       <c r="D308" s="73"/>
       <c r="E308" s="73"/>
       <c r="F308" s="76" t="s">
+        <v>452</v>
+      </c>
+      <c r="G308" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="H308" s="76" t="s">
         <v>453</v>
-      </c>
-      <c r="G308" s="76" t="s">
-        <v>439</v>
-      </c>
-      <c r="H308" s="76" t="s">
-        <v>454</v>
       </c>
       <c r="I308" s="76"/>
       <c r="J308" s="89"/>
@@ -43822,13 +43818,13 @@
       <c r="D309" s="73"/>
       <c r="E309" s="73"/>
       <c r="F309" s="76" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G309" s="76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H309" s="76" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I309" s="76"/>
       <c r="J309" s="89"/>
@@ -43858,13 +43854,13 @@
       <c r="D310" s="73"/>
       <c r="E310" s="73"/>
       <c r="F310" s="46" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G310" s="76" t="s">
         <v>10</v>
       </c>
       <c r="H310" s="76" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I310" s="76"/>
       <c r="J310" s="89"/>
@@ -43897,7 +43893,7 @@
         <v>10</v>
       </c>
       <c r="H311" s="76" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I311" s="76"/>
       <c r="J311" s="89"/>
@@ -43926,13 +43922,13 @@
       <c r="D312" s="73"/>
       <c r="E312" s="73"/>
       <c r="F312" s="76" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G312" s="76" t="s">
         <v>10</v>
       </c>
       <c r="H312" s="76" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I312" s="76"/>
       <c r="J312" s="89"/>
@@ -43961,13 +43957,13 @@
       <c r="D313" s="73"/>
       <c r="E313" s="73"/>
       <c r="F313" s="76" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G313" s="76" t="s">
         <v>10</v>
       </c>
       <c r="H313" s="76" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I313" s="89"/>
       <c r="J313" s="89"/>
@@ -43996,13 +43992,13 @@
       <c r="D314" s="73"/>
       <c r="E314" s="73"/>
       <c r="F314" s="46" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G314" s="76" t="s">
         <v>10</v>
       </c>
       <c r="H314" s="76" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I314" s="76"/>
       <c r="J314" s="89"/>
@@ -44031,13 +44027,13 @@
       <c r="D315" s="73"/>
       <c r="E315" s="73"/>
       <c r="F315" s="46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G315" s="76" t="s">
         <v>10</v>
       </c>
       <c r="H315" s="76" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I315" s="76"/>
       <c r="J315" s="89"/>
@@ -44067,13 +44063,13 @@
       <c r="D316" s="73"/>
       <c r="E316" s="73"/>
       <c r="F316" s="46" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G316" s="76" t="s">
         <v>10</v>
       </c>
       <c r="H316" s="76" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I316" s="76"/>
       <c r="J316" s="89"/>
@@ -44107,7 +44103,7 @@
         <v>10</v>
       </c>
       <c r="H317" s="76" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I317" s="76"/>
       <c r="J317" s="89"/>
@@ -44137,13 +44133,13 @@
       <c r="D318" s="73"/>
       <c r="E318" s="73"/>
       <c r="F318" s="76" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G318" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="H318" s="76" t="s">
         <v>439</v>
-      </c>
-      <c r="H318" s="76" t="s">
-        <v>440</v>
       </c>
       <c r="I318" s="89"/>
       <c r="J318" s="44"/>
@@ -44172,13 +44168,13 @@
       <c r="D319" s="73"/>
       <c r="E319" s="86"/>
       <c r="F319" s="76" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G319" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="H319" s="76" t="s">
         <v>439</v>
-      </c>
-      <c r="H319" s="76" t="s">
-        <v>440</v>
       </c>
       <c r="I319" s="89"/>
       <c r="J319" s="44"/>
@@ -44206,16 +44202,16 @@
       <c r="C320" s="75"/>
       <c r="D320" s="73"/>
       <c r="E320" s="73" t="s">
+        <v>465</v>
+      </c>
+      <c r="F320" s="76" t="s">
         <v>466</v>
       </c>
-      <c r="F320" s="76" t="s">
-        <v>467</v>
-      </c>
       <c r="G320" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="H320" s="76" t="s">
         <v>439</v>
-      </c>
-      <c r="H320" s="76" t="s">
-        <v>440</v>
       </c>
       <c r="I320" s="89"/>
       <c r="J320" s="44"/>
@@ -44244,13 +44240,13 @@
       <c r="D321" s="73"/>
       <c r="E321" s="86"/>
       <c r="F321" s="76" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G321" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="H321" s="76" t="s">
         <v>439</v>
-      </c>
-      <c r="H321" s="76" t="s">
-        <v>440</v>
       </c>
       <c r="I321" s="89"/>
       <c r="J321" s="44"/>
@@ -44278,16 +44274,16 @@
       <c r="C322" s="97"/>
       <c r="D322" s="73"/>
       <c r="E322" s="73" t="s">
+        <v>468</v>
+      </c>
+      <c r="F322" s="76" t="s">
         <v>469</v>
       </c>
-      <c r="F322" s="76" t="s">
-        <v>470</v>
-      </c>
       <c r="G322" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="H322" s="76" t="s">
         <v>439</v>
-      </c>
-      <c r="H322" s="76" t="s">
-        <v>440</v>
       </c>
       <c r="I322" s="44"/>
       <c r="J322" s="44"/>
@@ -44316,13 +44312,13 @@
       <c r="D323" s="73"/>
       <c r="E323" s="86"/>
       <c r="F323" s="76" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G323" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="H323" s="76" t="s">
         <v>439</v>
-      </c>
-      <c r="H323" s="76" t="s">
-        <v>440</v>
       </c>
       <c r="I323" s="44"/>
       <c r="J323" s="44"/>
@@ -44350,16 +44346,16 @@
       <c r="C324" s="97"/>
       <c r="D324" s="73"/>
       <c r="E324" s="76" t="s">
+        <v>471</v>
+      </c>
+      <c r="F324" s="76" t="s">
         <v>472</v>
       </c>
-      <c r="F324" s="76" t="s">
-        <v>473</v>
-      </c>
       <c r="G324" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="H324" s="76" t="s">
         <v>439</v>
-      </c>
-      <c r="H324" s="76" t="s">
-        <v>440</v>
       </c>
       <c r="I324" s="44"/>
       <c r="J324" s="44"/>
@@ -44390,13 +44386,13 @@
         <v>170</v>
       </c>
       <c r="F325" s="76" t="s">
+        <v>473</v>
+      </c>
+      <c r="G325" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="H325" s="76" t="s">
         <v>474</v>
-      </c>
-      <c r="G325" s="76" t="s">
-        <v>439</v>
-      </c>
-      <c r="H325" s="76" t="s">
-        <v>475</v>
       </c>
       <c r="I325" s="76"/>
       <c r="J325" s="89"/>
@@ -44425,13 +44421,13 @@
       <c r="D326" s="73"/>
       <c r="E326" s="73"/>
       <c r="F326" s="46" t="s">
+        <v>475</v>
+      </c>
+      <c r="G326" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="H326" s="76" t="s">
         <v>476</v>
-      </c>
-      <c r="G326" s="76" t="s">
-        <v>439</v>
-      </c>
-      <c r="H326" s="76" t="s">
-        <v>477</v>
       </c>
       <c r="I326" s="76"/>
       <c r="J326" s="89"/>
@@ -44460,10 +44456,10 @@
       <c r="D327" s="73"/>
       <c r="E327" s="73"/>
       <c r="F327" s="76" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G327" s="76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H327" s="76"/>
       <c r="I327" s="77"/>
@@ -44493,10 +44489,10 @@
       <c r="D328" s="73"/>
       <c r="E328" s="73"/>
       <c r="F328" s="76" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G328" s="76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H328" s="76"/>
       <c r="I328" s="77"/>
@@ -44526,10 +44522,10 @@
       <c r="D329" s="73"/>
       <c r="E329" s="73"/>
       <c r="F329" s="76" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G329" s="76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H329" s="76"/>
       <c r="I329" s="77"/>
@@ -44559,10 +44555,10 @@
       <c r="D330" s="73"/>
       <c r="E330" s="73"/>
       <c r="F330" s="76" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G330" s="76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H330" s="76"/>
       <c r="I330" s="77"/>
@@ -44592,10 +44588,10 @@
       <c r="D331" s="73"/>
       <c r="E331" s="73"/>
       <c r="F331" s="76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G331" s="76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H331" s="76"/>
       <c r="I331" s="77"/>
@@ -44625,10 +44621,10 @@
       <c r="D332" s="73"/>
       <c r="E332" s="73"/>
       <c r="F332" s="76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G332" s="76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H332" s="76"/>
       <c r="I332" s="77"/>
@@ -44658,10 +44654,10 @@
       <c r="D333" s="73"/>
       <c r="E333" s="86"/>
       <c r="F333" s="76" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G333" s="76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H333" s="76"/>
       <c r="I333" s="76"/>
@@ -44690,16 +44686,16 @@
       <c r="C334" s="97"/>
       <c r="D334" s="73"/>
       <c r="E334" s="76" t="s">
+        <v>484</v>
+      </c>
+      <c r="F334" s="76" t="s">
         <v>485</v>
       </c>
-      <c r="F334" s="76" t="s">
+      <c r="G334" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="H334" s="76" t="s">
         <v>486</v>
-      </c>
-      <c r="G334" s="76" t="s">
-        <v>439</v>
-      </c>
-      <c r="H334" s="76" t="s">
-        <v>487</v>
       </c>
       <c r="I334" s="76"/>
       <c r="J334" s="89"/>
@@ -44727,16 +44723,16 @@
       <c r="C335" s="97"/>
       <c r="D335" s="86"/>
       <c r="E335" s="86" t="s">
+        <v>487</v>
+      </c>
+      <c r="F335" s="76" t="s">
         <v>488</v>
       </c>
-      <c r="F335" s="76" t="s">
+      <c r="G335" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="H335" s="76" t="s">
         <v>489</v>
-      </c>
-      <c r="G335" s="76" t="s">
-        <v>439</v>
-      </c>
-      <c r="H335" s="76" t="s">
-        <v>490</v>
       </c>
       <c r="I335" s="76"/>
       <c r="J335" s="44"/>
@@ -44763,19 +44759,19 @@
       <c r="B336" s="56"/>
       <c r="C336" s="75"/>
       <c r="D336" s="73" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E336" s="46" t="s">
         <v>63</v>
       </c>
       <c r="F336" s="46" t="s">
+        <v>491</v>
+      </c>
+      <c r="G336" s="76" t="s">
         <v>492</v>
       </c>
-      <c r="G336" s="76" t="s">
+      <c r="H336" s="76" t="s">
         <v>493</v>
-      </c>
-      <c r="H336" s="76" t="s">
-        <v>494</v>
       </c>
       <c r="I336" s="76"/>
       <c r="J336" s="89"/>
@@ -44804,16 +44800,16 @@
       <c r="C337" s="97"/>
       <c r="D337" s="73"/>
       <c r="E337" s="46" t="s">
+        <v>494</v>
+      </c>
+      <c r="F337" s="46" t="s">
         <v>495</v>
-      </c>
-      <c r="F337" s="46" t="s">
-        <v>496</v>
       </c>
       <c r="G337" s="76" t="s">
         <v>10</v>
       </c>
       <c r="H337" s="76" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I337" s="76"/>
       <c r="J337" s="89"/>
@@ -44842,13 +44838,13 @@
       <c r="D338" s="73"/>
       <c r="E338" s="73"/>
       <c r="F338" s="46" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G338" s="76" t="s">
         <v>10</v>
       </c>
       <c r="H338" s="76" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I338" s="76"/>
       <c r="J338" s="89"/>
@@ -44877,13 +44873,13 @@
       <c r="D339" s="73"/>
       <c r="E339" s="73"/>
       <c r="F339" s="46" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G339" s="76" t="s">
         <v>10</v>
       </c>
       <c r="H339" s="76" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I339" s="76"/>
       <c r="J339" s="82"/>
@@ -44912,13 +44908,13 @@
       <c r="D340" s="73"/>
       <c r="E340" s="73"/>
       <c r="F340" s="46" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G340" s="76" t="s">
         <v>10</v>
       </c>
       <c r="H340" s="76" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I340" s="76"/>
       <c r="J340" s="82"/>
@@ -44945,19 +44941,19 @@
       <c r="B341" s="56"/>
       <c r="C341" s="97"/>
       <c r="D341" s="73" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E341" s="73" t="s">
         <v>63</v>
       </c>
       <c r="F341" s="76" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G341" s="76" t="s">
         <v>10</v>
       </c>
       <c r="H341" s="76" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I341" s="44"/>
       <c r="J341" s="44"/>
@@ -44986,13 +44982,13 @@
       <c r="D342" s="73"/>
       <c r="E342" s="73"/>
       <c r="F342" s="76" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G342" s="76" t="s">
         <v>10</v>
       </c>
       <c r="H342" s="76" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I342" s="44"/>
       <c r="J342" s="44"/>
@@ -45021,13 +45017,13 @@
       <c r="D343" s="86"/>
       <c r="E343" s="86"/>
       <c r="F343" s="76" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G343" s="76" t="s">
         <v>10</v>
       </c>
       <c r="H343" s="76" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I343" s="44"/>
       <c r="J343" s="44"/>
@@ -45054,13 +45050,13 @@
       <c r="B344" s="75"/>
       <c r="C344" s="75"/>
       <c r="D344" s="73" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E344" s="73" t="s">
         <v>63</v>
       </c>
       <c r="F344" s="46" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G344" s="76" t="s">
         <v>10</v>
@@ -45093,7 +45089,7 @@
       <c r="D345" s="73"/>
       <c r="E345" s="73"/>
       <c r="F345" s="46" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G345" s="76" t="s">
         <v>10</v>
@@ -45126,7 +45122,7 @@
       <c r="D346" s="73"/>
       <c r="E346" s="73"/>
       <c r="F346" s="46" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G346" s="76" t="s">
         <v>10</v>
@@ -45159,7 +45155,7 @@
       <c r="D347" s="73"/>
       <c r="E347" s="73"/>
       <c r="F347" s="76" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G347" s="76" t="s">
         <v>10</v>
@@ -45192,7 +45188,7 @@
       <c r="D348" s="73"/>
       <c r="E348" s="73"/>
       <c r="F348" s="46" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G348" s="76" t="s">
         <v>10</v>
@@ -45225,7 +45221,7 @@
       <c r="D349" s="73"/>
       <c r="E349" s="73"/>
       <c r="F349" s="76" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G349" s="76" t="s">
         <v>10</v>
@@ -45258,7 +45254,7 @@
       <c r="D350" s="73"/>
       <c r="E350" s="73"/>
       <c r="F350" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G350" s="76" t="s">
         <v>10</v>
@@ -45291,7 +45287,7 @@
       <c r="D351" s="73"/>
       <c r="E351" s="73"/>
       <c r="F351" s="76" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G351" s="76" t="s">
         <v>10</v>
@@ -45324,7 +45320,7 @@
       <c r="D352" s="73"/>
       <c r="E352" s="73"/>
       <c r="F352" s="76" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G352" s="76" t="s">
         <v>10</v>
@@ -45357,7 +45353,7 @@
       <c r="D353" s="73"/>
       <c r="E353" s="73"/>
       <c r="F353" s="76" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G353" s="76" t="s">
         <v>10</v>
@@ -45390,7 +45386,7 @@
       <c r="D354" s="73"/>
       <c r="E354" s="73"/>
       <c r="F354" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G354" s="76" t="s">
         <v>10</v>
@@ -45423,7 +45419,7 @@
       <c r="D355" s="73"/>
       <c r="E355" s="73"/>
       <c r="F355" s="46" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G355" s="76" t="s">
         <v>10</v>
@@ -45456,7 +45452,7 @@
       <c r="D356" s="73"/>
       <c r="E356" s="73"/>
       <c r="F356" s="76" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G356" s="76" t="s">
         <v>10</v>
@@ -45489,7 +45485,7 @@
       <c r="D357" s="73"/>
       <c r="E357" s="86"/>
       <c r="F357" s="76" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G357" s="76" t="s">
         <v>10</v>
@@ -45524,7 +45520,7 @@
         <v>137</v>
       </c>
       <c r="F358" s="46" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G358" s="76" t="s">
         <v>10</v>
@@ -45557,7 +45553,7 @@
       <c r="D359" s="73"/>
       <c r="E359" s="73"/>
       <c r="F359" s="76" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G359" s="76" t="s">
         <v>10</v>
@@ -45590,7 +45586,7 @@
       <c r="D360" s="73"/>
       <c r="E360" s="73"/>
       <c r="F360" s="76" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G360" s="76" t="s">
         <v>10</v>
@@ -45623,7 +45619,7 @@
       <c r="D361" s="73"/>
       <c r="E361" s="73"/>
       <c r="F361" s="76" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G361" s="76" t="s">
         <v>10</v>
@@ -45656,7 +45652,7 @@
       <c r="D362" s="73"/>
       <c r="E362" s="73"/>
       <c r="F362" s="76" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G362" s="76" t="s">
         <v>10</v>
@@ -45689,7 +45685,7 @@
       <c r="D363" s="73"/>
       <c r="E363" s="73"/>
       <c r="F363" s="76" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G363" s="76" t="s">
         <v>10</v>
@@ -45722,10 +45718,10 @@
       <c r="D364" s="86"/>
       <c r="E364" s="86"/>
       <c r="F364" s="76" t="s">
+        <v>525</v>
+      </c>
+      <c r="G364" s="76" t="s">
         <v>526</v>
-      </c>
-      <c r="G364" s="76" t="s">
-        <v>527</v>
       </c>
       <c r="H364" s="76"/>
       <c r="I364" s="76"/>
@@ -45751,10 +45747,10 @@
         <v>112-1-1</v>
       </c>
       <c r="B365" s="45" t="s">
+        <v>527</v>
+      </c>
+      <c r="C365" s="46" t="s">
         <v>528</v>
-      </c>
-      <c r="C365" s="46" t="s">
-        <v>529</v>
       </c>
       <c r="D365" s="46" t="s">
         <v>63</v>
@@ -45763,10 +45759,10 @@
         <v>63</v>
       </c>
       <c r="F365" s="76" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G365" s="76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H365" s="76"/>
       <c r="I365" s="44"/>
@@ -45796,10 +45792,10 @@
       <c r="D366" s="73"/>
       <c r="E366" s="73"/>
       <c r="F366" s="76" t="s">
+        <v>530</v>
+      </c>
+      <c r="G366" s="76" t="s">
         <v>531</v>
-      </c>
-      <c r="G366" s="76" t="s">
-        <v>532</v>
       </c>
       <c r="H366" s="76"/>
       <c r="I366" s="44"/>
@@ -45829,10 +45825,10 @@
       <c r="D367" s="73"/>
       <c r="E367" s="73"/>
       <c r="F367" s="76" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G367" s="76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H367" s="76"/>
       <c r="I367" s="44"/>
@@ -45862,10 +45858,10 @@
       <c r="D368" s="73"/>
       <c r="E368" s="92"/>
       <c r="F368" s="76" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G368" s="76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H368" s="76"/>
       <c r="I368" s="44"/>
@@ -45895,10 +45891,10 @@
       <c r="D369" s="86"/>
       <c r="E369" s="100"/>
       <c r="F369" s="76" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G369" s="76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H369" s="76"/>
       <c r="I369" s="44"/>
@@ -45926,16 +45922,16 @@
       <c r="B370" s="56"/>
       <c r="C370" s="97"/>
       <c r="D370" s="73" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E370" s="73" t="s">
         <v>63</v>
       </c>
       <c r="F370" s="76" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G370" s="76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H370" s="76"/>
       <c r="I370" s="44"/>
@@ -45965,10 +45961,10 @@
       <c r="D371" s="73"/>
       <c r="E371" s="73"/>
       <c r="F371" s="76" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G371" s="76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H371" s="76"/>
       <c r="I371" s="76"/>
@@ -45998,10 +45994,10 @@
       <c r="D372" s="73"/>
       <c r="E372" s="73"/>
       <c r="F372" s="76" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G372" s="76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H372" s="76"/>
       <c r="I372" s="44"/>
@@ -46031,13 +46027,13 @@
       <c r="D373" s="73"/>
       <c r="E373" s="73"/>
       <c r="F373" s="46" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G373" s="76" t="s">
         <v>10</v>
       </c>
       <c r="H373" s="76" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I373" s="76"/>
       <c r="J373" s="44"/>
@@ -46066,13 +46062,13 @@
       <c r="D374" s="86"/>
       <c r="E374" s="86"/>
       <c r="F374" s="87" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G374" s="76" t="s">
         <v>10</v>
       </c>
       <c r="H374" s="76" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I374" s="44"/>
       <c r="J374" s="44"/>
@@ -46098,22 +46094,22 @@
       </c>
       <c r="B375" s="94"/>
       <c r="C375" s="73" t="s">
+        <v>541</v>
+      </c>
+      <c r="D375" s="73" t="s">
         <v>542</v>
-      </c>
-      <c r="D375" s="73" t="s">
-        <v>543</v>
       </c>
       <c r="E375" s="73" t="s">
         <v>63</v>
       </c>
       <c r="F375" s="46" t="s">
+        <v>543</v>
+      </c>
+      <c r="G375" s="76" t="s">
         <v>544</v>
       </c>
-      <c r="G375" s="76" t="s">
+      <c r="H375" s="76" t="s">
         <v>545</v>
-      </c>
-      <c r="H375" s="76" t="s">
-        <v>546</v>
       </c>
       <c r="I375" s="76"/>
       <c r="J375" s="82"/>
@@ -46142,13 +46138,13 @@
       <c r="D376" s="73"/>
       <c r="E376" s="92"/>
       <c r="F376" s="76" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G376" s="76" t="s">
+        <v>544</v>
+      </c>
+      <c r="H376" s="76" t="s">
         <v>545</v>
-      </c>
-      <c r="H376" s="76" t="s">
-        <v>546</v>
       </c>
       <c r="I376" s="76"/>
       <c r="J376" s="82"/>
@@ -46177,13 +46173,13 @@
       <c r="D377" s="73"/>
       <c r="E377" s="92"/>
       <c r="F377" s="76" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G377" s="76" t="s">
+        <v>544</v>
+      </c>
+      <c r="H377" s="76" t="s">
         <v>545</v>
-      </c>
-      <c r="H377" s="76" t="s">
-        <v>546</v>
       </c>
       <c r="I377" s="76"/>
       <c r="J377" s="44"/>
@@ -46212,13 +46208,13 @@
       <c r="D378" s="73"/>
       <c r="E378" s="92"/>
       <c r="F378" s="76" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G378" s="76" t="s">
+        <v>544</v>
+      </c>
+      <c r="H378" s="76" t="s">
         <v>545</v>
-      </c>
-      <c r="H378" s="76" t="s">
-        <v>546</v>
       </c>
       <c r="I378" s="76"/>
       <c r="J378" s="82"/>
@@ -46247,13 +46243,13 @@
       <c r="D379" s="73"/>
       <c r="E379" s="92"/>
       <c r="F379" s="76" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G379" s="76" t="s">
+        <v>544</v>
+      </c>
+      <c r="H379" s="76" t="s">
         <v>545</v>
-      </c>
-      <c r="H379" s="76" t="s">
-        <v>546</v>
       </c>
       <c r="I379" s="82"/>
       <c r="J379" s="82"/>
@@ -46282,13 +46278,13 @@
       <c r="D380" s="73"/>
       <c r="E380" s="92"/>
       <c r="F380" s="76" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G380" s="76" t="s">
+        <v>544</v>
+      </c>
+      <c r="H380" s="76" t="s">
         <v>545</v>
-      </c>
-      <c r="H380" s="76" t="s">
-        <v>546</v>
       </c>
       <c r="I380" s="76"/>
       <c r="J380" s="82"/>
@@ -46315,19 +46311,19 @@
       <c r="B381" s="94"/>
       <c r="C381" s="75"/>
       <c r="D381" s="76" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E381" s="76" t="s">
         <v>63</v>
       </c>
       <c r="F381" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G381" s="76" t="s">
+        <v>544</v>
+      </c>
+      <c r="H381" s="76" t="s">
         <v>545</v>
-      </c>
-      <c r="H381" s="76" t="s">
-        <v>546</v>
       </c>
       <c r="I381" s="82"/>
       <c r="J381" s="44"/>
@@ -46354,19 +46350,19 @@
       <c r="B382" s="56"/>
       <c r="C382" s="75"/>
       <c r="D382" s="46" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E382" s="46" t="s">
         <v>63</v>
       </c>
       <c r="F382" s="46" t="s">
+        <v>554</v>
+      </c>
+      <c r="G382" s="76" t="s">
         <v>555</v>
       </c>
-      <c r="G382" s="76" t="s">
+      <c r="H382" s="76" t="s">
         <v>556</v>
-      </c>
-      <c r="H382" s="76" t="s">
-        <v>557</v>
       </c>
       <c r="I382" s="76"/>
       <c r="J382" s="44"/>
@@ -46396,10 +46392,10 @@
       <c r="E383" s="73"/>
       <c r="F383" s="73"/>
       <c r="G383" s="76" t="s">
+        <v>555</v>
+      </c>
+      <c r="H383" s="76" t="s">
         <v>556</v>
-      </c>
-      <c r="H383" s="76" t="s">
-        <v>557</v>
       </c>
       <c r="I383" s="76"/>
       <c r="J383" s="44"/>
@@ -46426,16 +46422,16 @@
       <c r="B384" s="109"/>
       <c r="C384" s="98"/>
       <c r="D384" s="76" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E384" s="76" t="s">
         <v>63</v>
       </c>
       <c r="F384" s="76" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G384" s="76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H384" s="76"/>
       <c r="I384" s="82"/>
@@ -46461,22 +46457,22 @@
         <v>118-1-1</v>
       </c>
       <c r="B385" s="92" t="s">
+        <v>559</v>
+      </c>
+      <c r="C385" s="73" t="s">
         <v>560</v>
       </c>
-      <c r="C385" s="73" t="s">
+      <c r="D385" s="73" t="s">
         <v>561</v>
-      </c>
-      <c r="D385" s="73" t="s">
-        <v>562</v>
       </c>
       <c r="E385" s="73" t="s">
         <v>63</v>
       </c>
       <c r="F385" s="76" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G385" s="76" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H385" s="76"/>
       <c r="I385" s="44"/>
@@ -46506,10 +46502,10 @@
       <c r="D386" s="86"/>
       <c r="E386" s="86"/>
       <c r="F386" s="76" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G386" s="76" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H386" s="76"/>
       <c r="I386" s="44"/>
